--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\SMARTGRID_CALI\Tarea 5 -Obtención de datos y desarrollo de experimentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\collector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85821E65-154C-422D-8181-A745E64DF4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDFEA37-1A94-40E3-9C45-F6EA317CB2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -1393,12 +1393,6 @@
     <t>USC</t>
   </si>
   <si>
-    <t>8cxXa7GbnvKdSl-4MDLHYNryUfhL98evV2U2Bz84S8EhXzkTEcRiBWbh_HP38GJ31qzZisPJQTvZ0i0EU_DVdg==</t>
-  </si>
-  <si>
-    <t>Laboratorio</t>
-  </si>
-  <si>
     <t>Unsigned</t>
   </si>
   <si>
@@ -1465,7 +1459,13 @@
     <t>TP_Mesón Sala Biogás</t>
   </si>
   <si>
-    <t>192.168.11.254</t>
+    <t>Laboratorio_Energias</t>
+  </si>
+  <si>
+    <t>4pJB_298afu0WKjKBtPESjnUxvpJV0PODWBNMGzeeU_ahg1P4H3Bg5KOfwI2A9LXm2BQwaQR_un792HXy3bsvg==</t>
+  </si>
+  <si>
+    <t>172.16.219.135</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1544,7 +1544,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1828,13 +1827,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1868,13 +1868,13 @@
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="E2" t="s">
         <v>438</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2A57D7-4623-4215-B0A6-34ECAFBF0F7A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1918,7 +1918,7 @@
         <v>463</v>
       </c>
       <c r="C2">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -1956,11 +1956,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1">
-      <c r="A2" s="8">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>444</v>
+      <c r="B2" t="s">
+        <v>442</v>
       </c>
       <c r="C2" t="s">
         <v>435</v>
@@ -1971,18 +1971,18 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C4" t="s">
         <v>435</v>
@@ -1993,18 +1993,18 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
         <v>435</v>
@@ -2015,18 +2015,18 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C7" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
         <v>435</v>
@@ -2037,18 +2037,18 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C9" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C10" t="s">
         <v>435</v>
@@ -2059,18 +2059,18 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C12" t="s">
         <v>435</v>
@@ -2081,18 +2081,18 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C13" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="8">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C14" t="s">
         <v>435</v>
@@ -2103,7 +2103,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C15" t="s">
         <v>435</v>
@@ -2114,18 +2114,18 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C16" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C17" t="s">
         <v>435</v>
@@ -2136,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C18" t="s">
         <v>435</v>
@@ -2147,18 +2147,18 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C19" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
         <v>435</v>
@@ -2169,7 +2169,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
         <v>435</v>
@@ -2316,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -2374,7 +2374,7 @@
         <v>411</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -2400,7 +2400,7 @@
         <v>411</v>
       </c>
       <c r="F3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -2426,7 +2426,7 @@
         <v>411</v>
       </c>
       <c r="F4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -2452,7 +2452,7 @@
         <v>419</v>
       </c>
       <c r="F5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>10000</v>
@@ -2478,7 +2478,7 @@
         <v>419</v>
       </c>
       <c r="F6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -2504,7 +2504,7 @@
         <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -2530,7 +2530,7 @@
         <v>411</v>
       </c>
       <c r="F8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -2556,7 +2556,7 @@
         <v>411</v>
       </c>
       <c r="F9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -2582,7 +2582,7 @@
         <v>411</v>
       </c>
       <c r="F10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -2608,7 +2608,7 @@
         <v>420</v>
       </c>
       <c r="F11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G11">
         <v>100000</v>
@@ -2634,7 +2634,7 @@
         <v>421</v>
       </c>
       <c r="F12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G12">
         <v>100000</v>
@@ -2660,7 +2660,7 @@
         <v>420</v>
       </c>
       <c r="F13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G13">
         <v>100000</v>
@@ -2686,7 +2686,7 @@
         <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G14">
         <v>100000</v>
@@ -2712,7 +2712,7 @@
         <v>422</v>
       </c>
       <c r="F15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G15">
         <v>100000</v>
@@ -2738,7 +2738,7 @@
         <v>422</v>
       </c>
       <c r="F16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G16">
         <v>100000</v>
@@ -2764,7 +2764,7 @@
         <v>423</v>
       </c>
       <c r="F17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G17">
         <v>100000</v>
@@ -2790,7 +2790,7 @@
         <v>423</v>
       </c>
       <c r="F18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G18">
         <v>100000</v>
@@ -2816,7 +2816,7 @@
         <v>423</v>
       </c>
       <c r="F19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G19">
         <v>100000</v>
@@ -2839,7 +2839,7 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G20">
         <v>10000</v>
@@ -2862,7 +2862,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G21">
         <v>10000</v>
@@ -2885,7 +2885,7 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G22">
         <v>10000</v>
@@ -2911,7 +2911,7 @@
         <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G23">
         <v>1000</v>
@@ -2937,7 +2937,7 @@
         <v>412</v>
       </c>
       <c r="F24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G24">
         <v>100</v>
@@ -2963,7 +2963,7 @@
         <v>412</v>
       </c>
       <c r="F25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G25">
         <v>100</v>
@@ -2989,7 +2989,7 @@
         <v>412</v>
       </c>
       <c r="F26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -3015,7 +3015,7 @@
         <v>412</v>
       </c>
       <c r="F27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G27">
         <v>100</v>
@@ -3041,7 +3041,7 @@
         <v>412</v>
       </c>
       <c r="F28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -3067,7 +3067,7 @@
         <v>412</v>
       </c>
       <c r="F29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G29">
         <v>100</v>
@@ -3093,7 +3093,7 @@
         <v>425</v>
       </c>
       <c r="F30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G30">
         <v>100</v>
@@ -3119,7 +3119,7 @@
         <v>425</v>
       </c>
       <c r="F31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G31">
         <v>100</v>
@@ -3145,7 +3145,7 @@
         <v>425</v>
       </c>
       <c r="F32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G32">
         <v>100</v>
@@ -3171,7 +3171,7 @@
         <v>425</v>
       </c>
       <c r="F33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G33">
         <v>100</v>
@@ -3197,7 +3197,7 @@
         <v>425</v>
       </c>
       <c r="F34" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G34">
         <v>100</v>
@@ -3223,7 +3223,7 @@
         <v>425</v>
       </c>
       <c r="F35" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G35">
         <v>100</v>
@@ -3249,7 +3249,7 @@
         <v>425</v>
       </c>
       <c r="F36" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -3275,7 +3275,7 @@
         <v>425</v>
       </c>
       <c r="F37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -3301,7 +3301,7 @@
         <v>425</v>
       </c>
       <c r="F38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -3327,7 +3327,7 @@
         <v>425</v>
       </c>
       <c r="F39" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G39">
         <v>100</v>
@@ -3353,7 +3353,7 @@
         <v>425</v>
       </c>
       <c r="F40" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -3379,7 +3379,7 @@
         <v>425</v>
       </c>
       <c r="F41" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -3405,7 +3405,7 @@
         <v>425</v>
       </c>
       <c r="F42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G42">
         <v>100</v>
@@ -3431,7 +3431,7 @@
         <v>425</v>
       </c>
       <c r="F43" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G43">
         <v>100</v>
@@ -3457,7 +3457,7 @@
         <v>425</v>
       </c>
       <c r="F44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G44">
         <v>100</v>
@@ -3483,7 +3483,7 @@
         <v>425</v>
       </c>
       <c r="F45" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G45">
         <v>100</v>
@@ -3509,7 +3509,7 @@
         <v>425</v>
       </c>
       <c r="F46" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G46">
         <v>100</v>
@@ -3535,7 +3535,7 @@
         <v>425</v>
       </c>
       <c r="F47" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G47">
         <v>100</v>
@@ -3561,7 +3561,7 @@
         <v>425</v>
       </c>
       <c r="F48" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G48">
         <v>100</v>
@@ -3587,7 +3587,7 @@
         <v>425</v>
       </c>
       <c r="F49" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G49">
         <v>100</v>
@@ -3613,7 +3613,7 @@
         <v>425</v>
       </c>
       <c r="F50" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G50">
         <v>100</v>
@@ -3639,7 +3639,7 @@
         <v>425</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G51">
         <v>100</v>
@@ -3665,7 +3665,7 @@
         <v>425</v>
       </c>
       <c r="F52" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G52">
         <v>100</v>
@@ -3691,7 +3691,7 @@
         <v>425</v>
       </c>
       <c r="F53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G53">
         <v>100</v>
@@ -3717,7 +3717,7 @@
         <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G54">
         <v>100</v>
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="F55" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G55">
         <v>100</v>
@@ -3769,7 +3769,7 @@
         <v>425</v>
       </c>
       <c r="F56" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G56">
         <v>100</v>
@@ -3795,7 +3795,7 @@
         <v>425</v>
       </c>
       <c r="F57" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G57">
         <v>100</v>
@@ -3821,7 +3821,7 @@
         <v>425</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G58">
         <v>100</v>
@@ -3847,7 +3847,7 @@
         <v>425</v>
       </c>
       <c r="F59" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G59">
         <v>100</v>
@@ -3873,7 +3873,7 @@
         <v>425</v>
       </c>
       <c r="F60" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G60">
         <v>100</v>
@@ -3899,7 +3899,7 @@
         <v>425</v>
       </c>
       <c r="F61" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G61">
         <v>100</v>
@@ -3925,7 +3925,7 @@
         <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G62">
         <v>100</v>
@@ -3951,7 +3951,7 @@
         <v>425</v>
       </c>
       <c r="F63" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G63">
         <v>100</v>
@@ -3977,7 +3977,7 @@
         <v>425</v>
       </c>
       <c r="F64" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G64">
         <v>100</v>
@@ -4003,7 +4003,7 @@
         <v>425</v>
       </c>
       <c r="F65" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G65">
         <v>100</v>
@@ -4029,7 +4029,7 @@
         <v>425</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G66">
         <v>100</v>
@@ -4055,7 +4055,7 @@
         <v>425</v>
       </c>
       <c r="F67" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G67">
         <v>100</v>
@@ -4081,7 +4081,7 @@
         <v>425</v>
       </c>
       <c r="F68" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G68">
         <v>100</v>
@@ -4107,7 +4107,7 @@
         <v>425</v>
       </c>
       <c r="F69" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G69">
         <v>100</v>
@@ -4133,7 +4133,7 @@
         <v>425</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G70">
         <v>100</v>
@@ -4159,7 +4159,7 @@
         <v>425</v>
       </c>
       <c r="F71" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G71">
         <v>100</v>
@@ -4185,7 +4185,7 @@
         <v>425</v>
       </c>
       <c r="F72" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G72">
         <v>100</v>
@@ -4211,7 +4211,7 @@
         <v>425</v>
       </c>
       <c r="F73" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G73">
         <v>100</v>
@@ -4237,7 +4237,7 @@
         <v>425</v>
       </c>
       <c r="F74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G74">
         <v>100</v>
@@ -4263,7 +4263,7 @@
         <v>425</v>
       </c>
       <c r="F75" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G75">
         <v>100</v>
@@ -4289,7 +4289,7 @@
         <v>425</v>
       </c>
       <c r="F76" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G76">
         <v>100</v>
@@ -4315,7 +4315,7 @@
         <v>425</v>
       </c>
       <c r="F77" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G77">
         <v>100</v>
@@ -4341,7 +4341,7 @@
         <v>425</v>
       </c>
       <c r="F78" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G78">
         <v>100</v>
@@ -4367,7 +4367,7 @@
         <v>425</v>
       </c>
       <c r="F79" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G79">
         <v>100</v>
@@ -4393,7 +4393,7 @@
         <v>425</v>
       </c>
       <c r="F80" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G80">
         <v>100</v>
@@ -4419,7 +4419,7 @@
         <v>425</v>
       </c>
       <c r="F81" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G81">
         <v>100</v>
@@ -4445,7 +4445,7 @@
         <v>425</v>
       </c>
       <c r="F82" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G82">
         <v>100</v>
@@ -4471,7 +4471,7 @@
         <v>425</v>
       </c>
       <c r="F83" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G83">
         <v>100</v>
@@ -4497,7 +4497,7 @@
         <v>425</v>
       </c>
       <c r="F84" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G84">
         <v>100</v>
@@ -4523,7 +4523,7 @@
         <v>425</v>
       </c>
       <c r="F85" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G85">
         <v>100</v>
@@ -4549,7 +4549,7 @@
         <v>425</v>
       </c>
       <c r="F86" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G86">
         <v>100</v>
@@ -4575,7 +4575,7 @@
         <v>425</v>
       </c>
       <c r="F87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G87">
         <v>100</v>
@@ -4601,7 +4601,7 @@
         <v>425</v>
       </c>
       <c r="F88" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G88">
         <v>100</v>
@@ -4627,7 +4627,7 @@
         <v>425</v>
       </c>
       <c r="F89" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G89">
         <v>100</v>
@@ -4653,7 +4653,7 @@
         <v>425</v>
       </c>
       <c r="F90" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G90">
         <v>100</v>
@@ -4679,7 +4679,7 @@
         <v>425</v>
       </c>
       <c r="F91" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G91">
         <v>100</v>
@@ -4705,7 +4705,7 @@
         <v>425</v>
       </c>
       <c r="F92" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G92">
         <v>100</v>
@@ -4731,7 +4731,7 @@
         <v>425</v>
       </c>
       <c r="F93" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G93">
         <v>100</v>
@@ -4757,7 +4757,7 @@
         <v>425</v>
       </c>
       <c r="F94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G94">
         <v>100</v>
@@ -4783,7 +4783,7 @@
         <v>425</v>
       </c>
       <c r="F95" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G95">
         <v>100</v>
@@ -4809,7 +4809,7 @@
         <v>425</v>
       </c>
       <c r="F96" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G96">
         <v>100</v>
@@ -4835,7 +4835,7 @@
         <v>425</v>
       </c>
       <c r="F97" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G97">
         <v>100</v>
@@ -4861,7 +4861,7 @@
         <v>425</v>
       </c>
       <c r="F98" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G98">
         <v>100</v>
@@ -4887,7 +4887,7 @@
         <v>425</v>
       </c>
       <c r="F99" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G99">
         <v>100</v>
@@ -4913,7 +4913,7 @@
         <v>425</v>
       </c>
       <c r="F100" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G100">
         <v>100</v>
@@ -4939,7 +4939,7 @@
         <v>425</v>
       </c>
       <c r="F101" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G101">
         <v>100</v>
@@ -4965,7 +4965,7 @@
         <v>425</v>
       </c>
       <c r="F102" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G102">
         <v>100</v>
@@ -4991,7 +4991,7 @@
         <v>425</v>
       </c>
       <c r="F103" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G103">
         <v>100</v>
@@ -5017,7 +5017,7 @@
         <v>425</v>
       </c>
       <c r="F104" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G104">
         <v>100</v>
@@ -5043,7 +5043,7 @@
         <v>425</v>
       </c>
       <c r="F105" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G105">
         <v>100</v>
@@ -5069,7 +5069,7 @@
         <v>425</v>
       </c>
       <c r="F106" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G106">
         <v>100</v>
@@ -5095,7 +5095,7 @@
         <v>425</v>
       </c>
       <c r="F107" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G107">
         <v>100</v>
@@ -5121,7 +5121,7 @@
         <v>425</v>
       </c>
       <c r="F108" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G108">
         <v>100</v>
@@ -5147,7 +5147,7 @@
         <v>425</v>
       </c>
       <c r="F109" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G109">
         <v>100</v>
@@ -5173,7 +5173,7 @@
         <v>425</v>
       </c>
       <c r="F110" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G110">
         <v>100</v>
@@ -5199,7 +5199,7 @@
         <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G111">
         <v>100</v>
@@ -5225,7 +5225,7 @@
         <v>425</v>
       </c>
       <c r="F112" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G112">
         <v>100</v>
@@ -5251,7 +5251,7 @@
         <v>425</v>
       </c>
       <c r="F113" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G113">
         <v>100</v>
@@ -5277,7 +5277,7 @@
         <v>425</v>
       </c>
       <c r="F114" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G114">
         <v>100</v>
@@ -5303,7 +5303,7 @@
         <v>425</v>
       </c>
       <c r="F115" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G115">
         <v>100</v>
@@ -5329,7 +5329,7 @@
         <v>425</v>
       </c>
       <c r="F116" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G116">
         <v>100</v>
@@ -5355,7 +5355,7 @@
         <v>413</v>
       </c>
       <c r="F117" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G117">
         <v>100</v>
@@ -5381,7 +5381,7 @@
         <v>413</v>
       </c>
       <c r="F118" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G118">
         <v>100</v>
@@ -5407,7 +5407,7 @@
         <v>414</v>
       </c>
       <c r="F119" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G119">
         <v>100</v>
@@ -5433,7 +5433,7 @@
         <v>414</v>
       </c>
       <c r="F120" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G120">
         <v>100</v>
@@ -5459,7 +5459,7 @@
         <v>415</v>
       </c>
       <c r="F121" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G121">
         <v>100</v>
@@ -5485,7 +5485,7 @@
         <v>416</v>
       </c>
       <c r="F122" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G122">
         <v>100</v>
@@ -5511,7 +5511,7 @@
         <v>416</v>
       </c>
       <c r="F123" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G123">
         <v>100</v>
@@ -5537,7 +5537,7 @@
         <v>417</v>
       </c>
       <c r="F124" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G124">
         <v>100</v>
@@ -5563,7 +5563,7 @@
         <v>417</v>
       </c>
       <c r="F125" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G125">
         <v>100</v>
@@ -5589,7 +5589,7 @@
         <v>418</v>
       </c>
       <c r="F126" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G126">
         <v>100</v>
@@ -5615,7 +5615,7 @@
         <v>416</v>
       </c>
       <c r="F127" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G127">
         <v>100</v>
@@ -5641,7 +5641,7 @@
         <v>416</v>
       </c>
       <c r="F128" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G128">
         <v>100</v>
@@ -5667,7 +5667,7 @@
         <v>417</v>
       </c>
       <c r="F129" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G129">
         <v>100</v>
@@ -5693,7 +5693,7 @@
         <v>417</v>
       </c>
       <c r="F130" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G130">
         <v>100</v>
@@ -5719,7 +5719,7 @@
         <v>418</v>
       </c>
       <c r="F131" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G131">
         <v>100</v>
@@ -5745,7 +5745,7 @@
         <v>416</v>
       </c>
       <c r="F132" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G132">
         <v>100</v>
@@ -5771,7 +5771,7 @@
         <v>416</v>
       </c>
       <c r="F133" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G133">
         <v>100</v>
@@ -5797,7 +5797,7 @@
         <v>417</v>
       </c>
       <c r="F134" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G134">
         <v>100</v>
@@ -5823,7 +5823,7 @@
         <v>417</v>
       </c>
       <c r="F135" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G135">
         <v>100</v>
@@ -5849,7 +5849,7 @@
         <v>418</v>
       </c>
       <c r="F136" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G136">
         <v>100</v>

--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\collector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDFEA37-1A94-40E3-9C45-F6EA317CB2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D554FD1-D89C-4474-A7B3-521992960E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="604">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1393,6 +1393,9 @@
     <t>USC</t>
   </si>
   <si>
+    <t>8cxXa7GbnvKdSl-4MDLHYNryUfhL98evV2U2Bz84S8EhXzkTEcRiBWbh_HP38GJ31qzZisPJQTvZ0i0EU_DVdg==</t>
+  </si>
+  <si>
     <t>Unsigned</t>
   </si>
   <si>
@@ -1441,15 +1444,6 @@
     <t>TP_Sistema PBM</t>
   </si>
   <si>
-    <t>TP_Iluminación Biogás</t>
-  </si>
-  <si>
-    <t>TP_Iluminación fotovoltaico</t>
-  </si>
-  <si>
-    <t>TP_Iluminación Smartgrid</t>
-  </si>
-  <si>
     <t>TP_Mesa Biogás Fotovoltaico</t>
   </si>
   <si>
@@ -1459,20 +1453,446 @@
     <t>TP_Mesón Sala Biogás</t>
   </si>
   <si>
-    <t>Laboratorio_Energias</t>
+    <t>192.168.11.254</t>
   </si>
   <si>
     <t>4pJB_298afu0WKjKBtPESjnUxvpJV0PODWBNMGzeeU_ahg1P4H3Bg5KOfwI2A9LXm2BQwaQR_un792HXy3bsvg==</t>
   </si>
   <si>
-    <t>172.16.219.135</t>
+    <t>Laboratorio0. Token</t>
+  </si>
+  <si>
+    <t>WKSFZMIEjx1pLZq9S2Qb8hG3HNPfPr4nyvzrA48tvl-2JJ6kZQobqbehbuIgu8E89Z97KmESyXLhyBnqZ-pEOQ==</t>
+  </si>
+  <si>
+    <t>UCO</t>
+  </si>
+  <si>
+    <t>TP_Iluminación área 2</t>
+  </si>
+  <si>
+    <t>TP_Iluminación área 3</t>
+  </si>
+  <si>
+    <t>TP_Iluminación área 1</t>
+  </si>
+  <si>
+    <t>Laboratorio_Energías</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>V-001</t>
+  </si>
+  <si>
+    <t>V-002</t>
+  </si>
+  <si>
+    <t>V-003</t>
+  </si>
+  <si>
+    <t>I-001</t>
+  </si>
+  <si>
+    <t>I-002</t>
+  </si>
+  <si>
+    <t>I-003</t>
+  </si>
+  <si>
+    <t>V-012</t>
+  </si>
+  <si>
+    <t>V-023</t>
+  </si>
+  <si>
+    <t>V-031</t>
+  </si>
+  <si>
+    <t>P-001</t>
+  </si>
+  <si>
+    <t>P-002</t>
+  </si>
+  <si>
+    <t>P-003</t>
+  </si>
+  <si>
+    <t>Q-001</t>
+  </si>
+  <si>
+    <t>Q-002</t>
+  </si>
+  <si>
+    <t>Q-003</t>
+  </si>
+  <si>
+    <t>S-001</t>
+  </si>
+  <si>
+    <t>S-002</t>
+  </si>
+  <si>
+    <t>S-003</t>
+  </si>
+  <si>
+    <t>FP-001</t>
+  </si>
+  <si>
+    <t>FP-002</t>
+  </si>
+  <si>
+    <t>FP-003</t>
+  </si>
+  <si>
+    <t>FREQ</t>
+  </si>
+  <si>
+    <t>V1-THD</t>
+  </si>
+  <si>
+    <t>V2-THD</t>
+  </si>
+  <si>
+    <t>V3-THD</t>
+  </si>
+  <si>
+    <t>I1-THD</t>
+  </si>
+  <si>
+    <t>I2-THD</t>
+  </si>
+  <si>
+    <t>I3-THD</t>
+  </si>
+  <si>
+    <t>V1-H10</t>
+  </si>
+  <si>
+    <t>V1-H11</t>
+  </si>
+  <si>
+    <t>V1-H12</t>
+  </si>
+  <si>
+    <t>V1-H13</t>
+  </si>
+  <si>
+    <t>V1-H14</t>
+  </si>
+  <si>
+    <t>V1-H15</t>
+  </si>
+  <si>
+    <t>V2-H10</t>
+  </si>
+  <si>
+    <t>V2-H11</t>
+  </si>
+  <si>
+    <t>V2-H12</t>
+  </si>
+  <si>
+    <t>V2-H13</t>
+  </si>
+  <si>
+    <t>V2-H14</t>
+  </si>
+  <si>
+    <t>V2-H15</t>
+  </si>
+  <si>
+    <t>V3-H10</t>
+  </si>
+  <si>
+    <t>V3-H11</t>
+  </si>
+  <si>
+    <t>V3-H12</t>
+  </si>
+  <si>
+    <t>V3-H13</t>
+  </si>
+  <si>
+    <t>V3-H14</t>
+  </si>
+  <si>
+    <t>V3-H15</t>
+  </si>
+  <si>
+    <t>I1-H10</t>
+  </si>
+  <si>
+    <t>I1-H11</t>
+  </si>
+  <si>
+    <t>I1-H12</t>
+  </si>
+  <si>
+    <t>I1-H13</t>
+  </si>
+  <si>
+    <t>I1-H14</t>
+  </si>
+  <si>
+    <t>I1-H15</t>
+  </si>
+  <si>
+    <t>I2-H10</t>
+  </si>
+  <si>
+    <t>I2-H11</t>
+  </si>
+  <si>
+    <t>I2-H12</t>
+  </si>
+  <si>
+    <t>I2-H13</t>
+  </si>
+  <si>
+    <t>I2-H14</t>
+  </si>
+  <si>
+    <t>I2-H15</t>
+  </si>
+  <si>
+    <t>I3-H10</t>
+  </si>
+  <si>
+    <t>I3-H11</t>
+  </si>
+  <si>
+    <t>I3-H12</t>
+  </si>
+  <si>
+    <t>I3-H13</t>
+  </si>
+  <si>
+    <t>I3-H14</t>
+  </si>
+  <si>
+    <t>I3-H15</t>
+  </si>
+  <si>
+    <t>EAI-123</t>
+  </si>
+  <si>
+    <t>EAE-123</t>
+  </si>
+  <si>
+    <t>ERI-123</t>
+  </si>
+  <si>
+    <t>ERE-123</t>
+  </si>
+  <si>
+    <t>EAP-123</t>
+  </si>
+  <si>
+    <t>EAI-001</t>
+  </si>
+  <si>
+    <t>EAE-001</t>
+  </si>
+  <si>
+    <t>ERI-001</t>
+  </si>
+  <si>
+    <t>ERE-001</t>
+  </si>
+  <si>
+    <t>EAP-001</t>
+  </si>
+  <si>
+    <t>EAI-002</t>
+  </si>
+  <si>
+    <t>EAE-002</t>
+  </si>
+  <si>
+    <t>ERI-002</t>
+  </si>
+  <si>
+    <t>ERE-002</t>
+  </si>
+  <si>
+    <t>EAP-002</t>
+  </si>
+  <si>
+    <t>EAI-003</t>
+  </si>
+  <si>
+    <t>EAE-003</t>
+  </si>
+  <si>
+    <t>ERI-003</t>
+  </si>
+  <si>
+    <t>ERE-003</t>
+  </si>
+  <si>
+    <t>EAP-003</t>
+  </si>
+  <si>
+    <t>I3-H01</t>
+  </si>
+  <si>
+    <t>I3-H02</t>
+  </si>
+  <si>
+    <t>I3-H03</t>
+  </si>
+  <si>
+    <t>I3-H04</t>
+  </si>
+  <si>
+    <t>I3-H05</t>
+  </si>
+  <si>
+    <t>I3-H06</t>
+  </si>
+  <si>
+    <t>I3-H07</t>
+  </si>
+  <si>
+    <t>I3-H08</t>
+  </si>
+  <si>
+    <t>I3-H09</t>
+  </si>
+  <si>
+    <t>I2-H01</t>
+  </si>
+  <si>
+    <t>I2-H02</t>
+  </si>
+  <si>
+    <t>I2-H03</t>
+  </si>
+  <si>
+    <t>I2-H04</t>
+  </si>
+  <si>
+    <t>I2-H05</t>
+  </si>
+  <si>
+    <t>I2-H06</t>
+  </si>
+  <si>
+    <t>I2-H07</t>
+  </si>
+  <si>
+    <t>I2-H08</t>
+  </si>
+  <si>
+    <t>I2-H09</t>
+  </si>
+  <si>
+    <t>I1-H01</t>
+  </si>
+  <si>
+    <t>I1-H02</t>
+  </si>
+  <si>
+    <t>I1-H03</t>
+  </si>
+  <si>
+    <t>I1-H04</t>
+  </si>
+  <si>
+    <t>I1-H05</t>
+  </si>
+  <si>
+    <t>I1-H06</t>
+  </si>
+  <si>
+    <t>I1-H07</t>
+  </si>
+  <si>
+    <t>I1-H08</t>
+  </si>
+  <si>
+    <t>I1-H09</t>
+  </si>
+  <si>
+    <t>V3-H02</t>
+  </si>
+  <si>
+    <t>V3-H03</t>
+  </si>
+  <si>
+    <t>V3-H04</t>
+  </si>
+  <si>
+    <t>V3-H05</t>
+  </si>
+  <si>
+    <t>V3-H06</t>
+  </si>
+  <si>
+    <t>V3-H07</t>
+  </si>
+  <si>
+    <t>V3-H08</t>
+  </si>
+  <si>
+    <t>V3-H09</t>
+  </si>
+  <si>
+    <t>V2-H02</t>
+  </si>
+  <si>
+    <t>V2-H03</t>
+  </si>
+  <si>
+    <t>V2-H04</t>
+  </si>
+  <si>
+    <t>V2-H05</t>
+  </si>
+  <si>
+    <t>V2-H06</t>
+  </si>
+  <si>
+    <t>V2-H07</t>
+  </si>
+  <si>
+    <t>V2-H08</t>
+  </si>
+  <si>
+    <t>V2-H09</t>
+  </si>
+  <si>
+    <t>V1-H02</t>
+  </si>
+  <si>
+    <t>V1-H03</t>
+  </si>
+  <si>
+    <t>V1-H04</t>
+  </si>
+  <si>
+    <t>V1-H05</t>
+  </si>
+  <si>
+    <t>V1-H06</t>
+  </si>
+  <si>
+    <t>V1-H07</t>
+  </si>
+  <si>
+    <t>V1-H08</t>
+  </si>
+  <si>
+    <t>V1-H09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1511,6 +1931,15 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1533,7 +1962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1544,6 +1973,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1824,17 +2254,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1868,17 +2298,81 @@
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E2" t="s">
         <v>438</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3">
+        <v>8086</v>
+      </c>
+      <c r="D3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4">
+        <v>8086</v>
+      </c>
+      <c r="D4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5">
+        <v>8086</v>
+      </c>
+      <c r="D5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F5" t="s">
         <v>462</v>
       </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1886,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2A57D7-4623-4215-B0A6-34ECAFBF0F7A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1915,10 +2409,10 @@
         <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +2425,7 @@
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1960,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
         <v>435</v>
@@ -1971,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
         <v>435</v>
@@ -1982,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
         <v>435</v>
@@ -1993,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
         <v>435</v>
@@ -2004,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
         <v>435</v>
@@ -2015,7 +2509,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C7" t="s">
         <v>435</v>
@@ -2026,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
         <v>435</v>
@@ -2037,7 +2531,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C9" t="s">
         <v>435</v>
@@ -2048,7 +2542,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
         <v>435</v>
@@ -2059,7 +2553,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C11" t="s">
         <v>435</v>
@@ -2070,7 +2564,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
         <v>435</v>
@@ -2081,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
         <v>435</v>
@@ -2092,7 +2586,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C14" t="s">
         <v>435</v>
@@ -2103,7 +2597,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C15" t="s">
         <v>435</v>
@@ -2114,7 +2608,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C16" t="s">
         <v>435</v>
@@ -2125,7 +2619,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C17" t="s">
         <v>435</v>
@@ -2136,7 +2630,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C18" t="s">
         <v>435</v>
@@ -2147,7 +2641,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C19" t="s">
         <v>435</v>
@@ -2158,7 +2652,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C20" t="s">
         <v>435</v>
@@ -2169,7 +2663,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
         <v>435</v>
@@ -2314,10 +2808,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2331,7 +2825,7 @@
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2356,8 +2850,11 @@
       <c r="H1" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +2871,7 @@
         <v>411</v>
       </c>
       <c r="F2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -2382,8 +2879,11 @@
       <c r="H2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2400,7 +2900,7 @@
         <v>411</v>
       </c>
       <c r="F3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -2408,8 +2908,11 @@
       <c r="H3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2426,7 +2929,7 @@
         <v>411</v>
       </c>
       <c r="F4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -2434,8 +2937,11 @@
       <c r="H4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2452,7 +2958,7 @@
         <v>419</v>
       </c>
       <c r="F5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G5">
         <v>10000</v>
@@ -2460,8 +2966,11 @@
       <c r="H5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2478,7 +2987,7 @@
         <v>419</v>
       </c>
       <c r="F6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -2486,8 +2995,11 @@
       <c r="H6" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2504,7 +3016,7 @@
         <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -2512,8 +3024,11 @@
       <c r="H7" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2530,7 +3045,7 @@
         <v>411</v>
       </c>
       <c r="F8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -2538,8 +3053,11 @@
       <c r="H8" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2556,7 +3074,7 @@
         <v>411</v>
       </c>
       <c r="F9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -2564,8 +3082,11 @@
       <c r="H9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2582,7 +3103,7 @@
         <v>411</v>
       </c>
       <c r="F10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -2590,8 +3111,11 @@
       <c r="H10" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2608,7 +3132,7 @@
         <v>420</v>
       </c>
       <c r="F11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G11">
         <v>100000</v>
@@ -2616,8 +3140,11 @@
       <c r="H11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +3161,7 @@
         <v>421</v>
       </c>
       <c r="F12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G12">
         <v>100000</v>
@@ -2642,8 +3169,11 @@
       <c r="H12" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2660,7 +3190,7 @@
         <v>420</v>
       </c>
       <c r="F13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G13">
         <v>100000</v>
@@ -2668,8 +3198,11 @@
       <c r="H13" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2686,7 +3219,7 @@
         <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G14">
         <v>100000</v>
@@ -2694,8 +3227,11 @@
       <c r="H14" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -2712,7 +3248,7 @@
         <v>422</v>
       </c>
       <c r="F15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G15">
         <v>100000</v>
@@ -2720,8 +3256,11 @@
       <c r="H15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2738,7 +3277,7 @@
         <v>422</v>
       </c>
       <c r="F16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G16">
         <v>100000</v>
@@ -2746,8 +3285,11 @@
       <c r="H16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2764,7 +3306,7 @@
         <v>423</v>
       </c>
       <c r="F17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G17">
         <v>100000</v>
@@ -2772,8 +3314,11 @@
       <c r="H17" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2790,7 +3335,7 @@
         <v>423</v>
       </c>
       <c r="F18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G18">
         <v>100000</v>
@@ -2798,8 +3343,11 @@
       <c r="H18" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2816,7 +3364,7 @@
         <v>423</v>
       </c>
       <c r="F19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G19">
         <v>100000</v>
@@ -2824,8 +3372,11 @@
       <c r="H19" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2839,7 +3390,7 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G20">
         <v>10000</v>
@@ -2847,8 +3398,11 @@
       <c r="H20" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2862,7 +3416,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G21">
         <v>10000</v>
@@ -2870,8 +3424,11 @@
       <c r="H21" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2885,7 +3442,7 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G22">
         <v>10000</v>
@@ -2893,8 +3450,11 @@
       <c r="H22" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2911,7 +3471,7 @@
         <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G23">
         <v>1000</v>
@@ -2919,8 +3479,11 @@
       <c r="H23" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2937,7 +3500,7 @@
         <v>412</v>
       </c>
       <c r="F24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G24">
         <v>100</v>
@@ -2945,8 +3508,11 @@
       <c r="H24" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2963,7 +3529,7 @@
         <v>412</v>
       </c>
       <c r="F25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G25">
         <v>100</v>
@@ -2971,8 +3537,11 @@
       <c r="H25" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2989,7 +3558,7 @@
         <v>412</v>
       </c>
       <c r="F26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -2997,8 +3566,11 @@
       <c r="H26" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3015,7 +3587,7 @@
         <v>412</v>
       </c>
       <c r="F27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G27">
         <v>100</v>
@@ -3023,8 +3595,11 @@
       <c r="H27" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3041,7 +3616,7 @@
         <v>412</v>
       </c>
       <c r="F28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -3049,8 +3624,11 @@
       <c r="H28" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3067,7 +3645,7 @@
         <v>412</v>
       </c>
       <c r="F29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G29">
         <v>100</v>
@@ -3075,8 +3653,11 @@
       <c r="H29" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3093,7 +3674,7 @@
         <v>425</v>
       </c>
       <c r="F30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G30">
         <v>100</v>
@@ -3101,8 +3682,11 @@
       <c r="H30" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -3119,7 +3703,7 @@
         <v>425</v>
       </c>
       <c r="F31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G31">
         <v>100</v>
@@ -3127,8 +3711,11 @@
       <c r="H31" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3145,7 +3732,7 @@
         <v>425</v>
       </c>
       <c r="F32" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G32">
         <v>100</v>
@@ -3153,8 +3740,11 @@
       <c r="H32" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -3171,7 +3761,7 @@
         <v>425</v>
       </c>
       <c r="F33" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G33">
         <v>100</v>
@@ -3179,8 +3769,11 @@
       <c r="H33" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -3197,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="F34" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G34">
         <v>100</v>
@@ -3205,8 +3798,11 @@
       <c r="H34" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3223,7 +3819,7 @@
         <v>425</v>
       </c>
       <c r="F35" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G35">
         <v>100</v>
@@ -3231,8 +3827,11 @@
       <c r="H35" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -3249,7 +3848,7 @@
         <v>425</v>
       </c>
       <c r="F36" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -3257,8 +3856,11 @@
       <c r="H36" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -3275,7 +3877,7 @@
         <v>425</v>
       </c>
       <c r="F37" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -3283,8 +3885,11 @@
       <c r="H37" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -3301,7 +3906,7 @@
         <v>425</v>
       </c>
       <c r="F38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -3309,8 +3914,11 @@
       <c r="H38" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -3327,7 +3935,7 @@
         <v>425</v>
       </c>
       <c r="F39" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G39">
         <v>100</v>
@@ -3335,8 +3943,11 @@
       <c r="H39" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -3353,7 +3964,7 @@
         <v>425</v>
       </c>
       <c r="F40" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -3361,8 +3972,11 @@
       <c r="H40" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -3379,7 +3993,7 @@
         <v>425</v>
       </c>
       <c r="F41" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -3387,8 +4001,11 @@
       <c r="H41" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -3405,7 +4022,7 @@
         <v>425</v>
       </c>
       <c r="F42" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G42">
         <v>100</v>
@@ -3413,8 +4030,11 @@
       <c r="H42" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -3431,7 +4051,7 @@
         <v>425</v>
       </c>
       <c r="F43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G43">
         <v>100</v>
@@ -3439,8 +4059,11 @@
       <c r="H43" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -3457,7 +4080,7 @@
         <v>425</v>
       </c>
       <c r="F44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G44">
         <v>100</v>
@@ -3465,8 +4088,11 @@
       <c r="H44" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -3483,7 +4109,7 @@
         <v>425</v>
       </c>
       <c r="F45" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G45">
         <v>100</v>
@@ -3491,8 +4117,11 @@
       <c r="H45" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -3509,7 +4138,7 @@
         <v>425</v>
       </c>
       <c r="F46" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G46">
         <v>100</v>
@@ -3517,8 +4146,11 @@
       <c r="H46" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -3535,7 +4167,7 @@
         <v>425</v>
       </c>
       <c r="F47" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G47">
         <v>100</v>
@@ -3543,8 +4175,11 @@
       <c r="H47" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -3561,7 +4196,7 @@
         <v>425</v>
       </c>
       <c r="F48" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G48">
         <v>100</v>
@@ -3569,8 +4204,11 @@
       <c r="H48" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -3587,7 +4225,7 @@
         <v>425</v>
       </c>
       <c r="F49" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G49">
         <v>100</v>
@@ -3595,8 +4233,11 @@
       <c r="H49" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -3613,7 +4254,7 @@
         <v>425</v>
       </c>
       <c r="F50" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G50">
         <v>100</v>
@@ -3621,8 +4262,11 @@
       <c r="H50" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -3639,7 +4283,7 @@
         <v>425</v>
       </c>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G51">
         <v>100</v>
@@ -3647,8 +4291,11 @@
       <c r="H51" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -3665,7 +4312,7 @@
         <v>425</v>
       </c>
       <c r="F52" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G52">
         <v>100</v>
@@ -3673,8 +4320,11 @@
       <c r="H52" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -3691,7 +4341,7 @@
         <v>425</v>
       </c>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G53">
         <v>100</v>
@@ -3699,8 +4349,11 @@
       <c r="H53" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -3717,7 +4370,7 @@
         <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G54">
         <v>100</v>
@@ -3725,8 +4378,11 @@
       <c r="H54" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -3743,7 +4399,7 @@
         <v>425</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G55">
         <v>100</v>
@@ -3751,8 +4407,11 @@
       <c r="H55" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -3769,7 +4428,7 @@
         <v>425</v>
       </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G56">
         <v>100</v>
@@ -3777,8 +4436,11 @@
       <c r="H56" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -3795,7 +4457,7 @@
         <v>425</v>
       </c>
       <c r="F57" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G57">
         <v>100</v>
@@ -3803,8 +4465,11 @@
       <c r="H57" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -3821,7 +4486,7 @@
         <v>425</v>
       </c>
       <c r="F58" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G58">
         <v>100</v>
@@ -3829,8 +4494,11 @@
       <c r="H58" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -3847,7 +4515,7 @@
         <v>425</v>
       </c>
       <c r="F59" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G59">
         <v>100</v>
@@ -3855,8 +4523,11 @@
       <c r="H59" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -3873,7 +4544,7 @@
         <v>425</v>
       </c>
       <c r="F60" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G60">
         <v>100</v>
@@ -3881,8 +4552,11 @@
       <c r="H60" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -3899,7 +4573,7 @@
         <v>425</v>
       </c>
       <c r="F61" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G61">
         <v>100</v>
@@ -3907,8 +4581,11 @@
       <c r="H61" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -3925,7 +4602,7 @@
         <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G62">
         <v>100</v>
@@ -3933,8 +4610,11 @@
       <c r="H62" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -3951,7 +4631,7 @@
         <v>425</v>
       </c>
       <c r="F63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G63">
         <v>100</v>
@@ -3959,8 +4639,11 @@
       <c r="H63" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -3977,7 +4660,7 @@
         <v>425</v>
       </c>
       <c r="F64" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G64">
         <v>100</v>
@@ -3985,8 +4668,11 @@
       <c r="H64" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4003,7 +4689,7 @@
         <v>425</v>
       </c>
       <c r="F65" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G65">
         <v>100</v>
@@ -4011,8 +4697,11 @@
       <c r="H65" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4029,7 +4718,7 @@
         <v>425</v>
       </c>
       <c r="F66" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G66">
         <v>100</v>
@@ -4037,8 +4726,11 @@
       <c r="H66" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -4055,7 +4747,7 @@
         <v>425</v>
       </c>
       <c r="F67" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G67">
         <v>100</v>
@@ -4063,8 +4755,11 @@
       <c r="H67" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -4081,7 +4776,7 @@
         <v>425</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G68">
         <v>100</v>
@@ -4089,8 +4784,11 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -4107,7 +4805,7 @@
         <v>425</v>
       </c>
       <c r="F69" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G69">
         <v>100</v>
@@ -4115,8 +4813,11 @@
       <c r="H69" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -4133,7 +4834,7 @@
         <v>425</v>
       </c>
       <c r="F70" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G70">
         <v>100</v>
@@ -4141,8 +4842,11 @@
       <c r="H70" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -4159,7 +4863,7 @@
         <v>425</v>
       </c>
       <c r="F71" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G71">
         <v>100</v>
@@ -4167,8 +4871,11 @@
       <c r="H71" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -4185,7 +4892,7 @@
         <v>425</v>
       </c>
       <c r="F72" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G72">
         <v>100</v>
@@ -4193,8 +4900,11 @@
       <c r="H72" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -4211,7 +4921,7 @@
         <v>425</v>
       </c>
       <c r="F73" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G73">
         <v>100</v>
@@ -4219,8 +4929,11 @@
       <c r="H73" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -4237,7 +4950,7 @@
         <v>425</v>
       </c>
       <c r="F74" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G74">
         <v>100</v>
@@ -4245,8 +4958,11 @@
       <c r="H74" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -4263,7 +4979,7 @@
         <v>425</v>
       </c>
       <c r="F75" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G75">
         <v>100</v>
@@ -4271,8 +4987,11 @@
       <c r="H75" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -4289,7 +5008,7 @@
         <v>425</v>
       </c>
       <c r="F76" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G76">
         <v>100</v>
@@ -4297,8 +5016,11 @@
       <c r="H76" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -4315,7 +5037,7 @@
         <v>425</v>
       </c>
       <c r="F77" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G77">
         <v>100</v>
@@ -4323,8 +5045,11 @@
       <c r="H77" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -4341,7 +5066,7 @@
         <v>425</v>
       </c>
       <c r="F78" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G78">
         <v>100</v>
@@ -4349,8 +5074,11 @@
       <c r="H78" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -4367,7 +5095,7 @@
         <v>425</v>
       </c>
       <c r="F79" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G79">
         <v>100</v>
@@ -4375,8 +5103,11 @@
       <c r="H79" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -4393,7 +5124,7 @@
         <v>425</v>
       </c>
       <c r="F80" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G80">
         <v>100</v>
@@ -4401,8 +5132,11 @@
       <c r="H80" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -4419,7 +5153,7 @@
         <v>425</v>
       </c>
       <c r="F81" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G81">
         <v>100</v>
@@ -4427,8 +5161,11 @@
       <c r="H81" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -4445,7 +5182,7 @@
         <v>425</v>
       </c>
       <c r="F82" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G82">
         <v>100</v>
@@ -4453,8 +5190,11 @@
       <c r="H82" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -4471,7 +5211,7 @@
         <v>425</v>
       </c>
       <c r="F83" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G83">
         <v>100</v>
@@ -4479,8 +5219,11 @@
       <c r="H83" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -4497,7 +5240,7 @@
         <v>425</v>
       </c>
       <c r="F84" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G84">
         <v>100</v>
@@ -4505,8 +5248,11 @@
       <c r="H84" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -4523,7 +5269,7 @@
         <v>425</v>
       </c>
       <c r="F85" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G85">
         <v>100</v>
@@ -4531,8 +5277,11 @@
       <c r="H85" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -4549,7 +5298,7 @@
         <v>425</v>
       </c>
       <c r="F86" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G86">
         <v>100</v>
@@ -4557,8 +5306,11 @@
       <c r="H86" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -4575,7 +5327,7 @@
         <v>425</v>
       </c>
       <c r="F87" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G87">
         <v>100</v>
@@ -4583,8 +5335,11 @@
       <c r="H87" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -4601,7 +5356,7 @@
         <v>425</v>
       </c>
       <c r="F88" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G88">
         <v>100</v>
@@ -4609,8 +5364,11 @@
       <c r="H88" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -4627,7 +5385,7 @@
         <v>425</v>
       </c>
       <c r="F89" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G89">
         <v>100</v>
@@ -4635,8 +5393,11 @@
       <c r="H89" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -4653,7 +5414,7 @@
         <v>425</v>
       </c>
       <c r="F90" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G90">
         <v>100</v>
@@ -4661,8 +5422,11 @@
       <c r="H90" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -4679,7 +5443,7 @@
         <v>425</v>
       </c>
       <c r="F91" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G91">
         <v>100</v>
@@ -4687,8 +5451,11 @@
       <c r="H91" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -4705,7 +5472,7 @@
         <v>425</v>
       </c>
       <c r="F92" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G92">
         <v>100</v>
@@ -4713,8 +5480,11 @@
       <c r="H92" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -4731,7 +5501,7 @@
         <v>425</v>
       </c>
       <c r="F93" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G93">
         <v>100</v>
@@ -4739,8 +5509,11 @@
       <c r="H93" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -4757,7 +5530,7 @@
         <v>425</v>
       </c>
       <c r="F94" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G94">
         <v>100</v>
@@ -4765,8 +5538,11 @@
       <c r="H94" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -4783,7 +5559,7 @@
         <v>425</v>
       </c>
       <c r="F95" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G95">
         <v>100</v>
@@ -4791,8 +5567,11 @@
       <c r="H95" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -4809,7 +5588,7 @@
         <v>425</v>
       </c>
       <c r="F96" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G96">
         <v>100</v>
@@ -4817,8 +5596,11 @@
       <c r="H96" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -4835,7 +5617,7 @@
         <v>425</v>
       </c>
       <c r="F97" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G97">
         <v>100</v>
@@ -4843,8 +5625,11 @@
       <c r="H97" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -4861,7 +5646,7 @@
         <v>425</v>
       </c>
       <c r="F98" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G98">
         <v>100</v>
@@ -4869,8 +5654,11 @@
       <c r="H98" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -4887,7 +5675,7 @@
         <v>425</v>
       </c>
       <c r="F99" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G99">
         <v>100</v>
@@ -4895,8 +5683,11 @@
       <c r="H99" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -4913,7 +5704,7 @@
         <v>425</v>
       </c>
       <c r="F100" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G100">
         <v>100</v>
@@ -4921,8 +5712,11 @@
       <c r="H100" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -4939,7 +5733,7 @@
         <v>425</v>
       </c>
       <c r="F101" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G101">
         <v>100</v>
@@ -4947,8 +5741,11 @@
       <c r="H101" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -4965,7 +5762,7 @@
         <v>425</v>
       </c>
       <c r="F102" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G102">
         <v>100</v>
@@ -4973,8 +5770,11 @@
       <c r="H102" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -4991,7 +5791,7 @@
         <v>425</v>
       </c>
       <c r="F103" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G103">
         <v>100</v>
@@ -4999,8 +5799,11 @@
       <c r="H103" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5017,7 +5820,7 @@
         <v>425</v>
       </c>
       <c r="F104" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G104">
         <v>100</v>
@@ -5025,8 +5828,11 @@
       <c r="H104" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -5043,7 +5849,7 @@
         <v>425</v>
       </c>
       <c r="F105" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G105">
         <v>100</v>
@@ -5051,8 +5857,11 @@
       <c r="H105" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -5069,7 +5878,7 @@
         <v>425</v>
       </c>
       <c r="F106" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G106">
         <v>100</v>
@@ -5077,8 +5886,11 @@
       <c r="H106" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -5095,7 +5907,7 @@
         <v>425</v>
       </c>
       <c r="F107" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G107">
         <v>100</v>
@@ -5103,8 +5915,11 @@
       <c r="H107" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -5121,7 +5936,7 @@
         <v>425</v>
       </c>
       <c r="F108" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G108">
         <v>100</v>
@@ -5129,8 +5944,11 @@
       <c r="H108" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -5147,7 +5965,7 @@
         <v>425</v>
       </c>
       <c r="F109" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G109">
         <v>100</v>
@@ -5155,8 +5973,11 @@
       <c r="H109" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -5173,7 +5994,7 @@
         <v>425</v>
       </c>
       <c r="F110" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G110">
         <v>100</v>
@@ -5181,8 +6002,11 @@
       <c r="H110" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -5199,7 +6023,7 @@
         <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G111">
         <v>100</v>
@@ -5207,8 +6031,11 @@
       <c r="H111" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -5225,7 +6052,7 @@
         <v>425</v>
       </c>
       <c r="F112" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G112">
         <v>100</v>
@@ -5233,8 +6060,11 @@
       <c r="H112" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -5251,7 +6081,7 @@
         <v>425</v>
       </c>
       <c r="F113" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G113">
         <v>100</v>
@@ -5259,8 +6089,11 @@
       <c r="H113" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -5277,7 +6110,7 @@
         <v>425</v>
       </c>
       <c r="F114" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G114">
         <v>100</v>
@@ -5285,8 +6118,11 @@
       <c r="H114" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -5303,7 +6139,7 @@
         <v>425</v>
       </c>
       <c r="F115" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G115">
         <v>100</v>
@@ -5311,8 +6147,11 @@
       <c r="H115" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -5329,7 +6168,7 @@
         <v>425</v>
       </c>
       <c r="F116" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G116">
         <v>100</v>
@@ -5337,8 +6176,11 @@
       <c r="H116" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -5355,7 +6197,7 @@
         <v>413</v>
       </c>
       <c r="F117" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G117">
         <v>100</v>
@@ -5363,8 +6205,11 @@
       <c r="H117" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -5381,7 +6226,7 @@
         <v>413</v>
       </c>
       <c r="F118" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G118">
         <v>100</v>
@@ -5389,8 +6234,11 @@
       <c r="H118" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -5407,7 +6255,7 @@
         <v>414</v>
       </c>
       <c r="F119" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G119">
         <v>100</v>
@@ -5415,8 +6263,11 @@
       <c r="H119" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -5433,7 +6284,7 @@
         <v>414</v>
       </c>
       <c r="F120" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G120">
         <v>100</v>
@@ -5441,8 +6292,11 @@
       <c r="H120" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -5459,7 +6313,7 @@
         <v>415</v>
       </c>
       <c r="F121" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G121">
         <v>100</v>
@@ -5467,8 +6321,11 @@
       <c r="H121" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -5485,7 +6342,7 @@
         <v>416</v>
       </c>
       <c r="F122" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G122">
         <v>100</v>
@@ -5493,8 +6350,11 @@
       <c r="H122" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -5511,7 +6371,7 @@
         <v>416</v>
       </c>
       <c r="F123" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G123">
         <v>100</v>
@@ -5519,8 +6379,11 @@
       <c r="H123" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -5537,7 +6400,7 @@
         <v>417</v>
       </c>
       <c r="F124" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G124">
         <v>100</v>
@@ -5545,8 +6408,11 @@
       <c r="H124" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -5563,7 +6429,7 @@
         <v>417</v>
       </c>
       <c r="F125" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G125">
         <v>100</v>
@@ -5571,8 +6437,11 @@
       <c r="H125" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -5589,7 +6458,7 @@
         <v>418</v>
       </c>
       <c r="F126" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G126">
         <v>100</v>
@@ -5597,8 +6466,11 @@
       <c r="H126" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -5615,7 +6487,7 @@
         <v>416</v>
       </c>
       <c r="F127" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G127">
         <v>100</v>
@@ -5623,8 +6495,11 @@
       <c r="H127" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -5641,7 +6516,7 @@
         <v>416</v>
       </c>
       <c r="F128" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G128">
         <v>100</v>
@@ -5649,8 +6524,11 @@
       <c r="H128" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -5667,7 +6545,7 @@
         <v>417</v>
       </c>
       <c r="F129" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G129">
         <v>100</v>
@@ -5675,8 +6553,11 @@
       <c r="H129" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -5693,7 +6574,7 @@
         <v>417</v>
       </c>
       <c r="F130" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G130">
         <v>100</v>
@@ -5701,8 +6582,11 @@
       <c r="H130" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -5719,7 +6603,7 @@
         <v>418</v>
       </c>
       <c r="F131" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G131">
         <v>100</v>
@@ -5727,8 +6611,11 @@
       <c r="H131" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -5745,7 +6632,7 @@
         <v>416</v>
       </c>
       <c r="F132" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G132">
         <v>100</v>
@@ -5753,8 +6640,11 @@
       <c r="H132" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -5771,7 +6661,7 @@
         <v>416</v>
       </c>
       <c r="F133" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G133">
         <v>100</v>
@@ -5779,8 +6669,11 @@
       <c r="H133" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -5797,7 +6690,7 @@
         <v>417</v>
       </c>
       <c r="F134" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G134">
         <v>100</v>
@@ -5805,8 +6698,11 @@
       <c r="H134" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -5823,7 +6719,7 @@
         <v>417</v>
       </c>
       <c r="F135" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G135">
         <v>100</v>
@@ -5831,8 +6727,11 @@
       <c r="H135" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -5849,13 +6748,16 @@
         <v>418</v>
       </c>
       <c r="F136" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G136">
         <v>100</v>
       </c>
       <c r="H136" t="s">
         <v>393</v>
+      </c>
+      <c r="I136" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\collector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D554FD1-D89C-4474-A7B3-521992960E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDFEA37-1A94-40E3-9C45-F6EA317CB2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="464">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1393,9 +1393,6 @@
     <t>USC</t>
   </si>
   <si>
-    <t>8cxXa7GbnvKdSl-4MDLHYNryUfhL98evV2U2Bz84S8EhXzkTEcRiBWbh_HP38GJ31qzZisPJQTvZ0i0EU_DVdg==</t>
-  </si>
-  <si>
     <t>Unsigned</t>
   </si>
   <si>
@@ -1444,6 +1441,15 @@
     <t>TP_Sistema PBM</t>
   </si>
   <si>
+    <t>TP_Iluminación Biogás</t>
+  </si>
+  <si>
+    <t>TP_Iluminación fotovoltaico</t>
+  </si>
+  <si>
+    <t>TP_Iluminación Smartgrid</t>
+  </si>
+  <si>
     <t>TP_Mesa Biogás Fotovoltaico</t>
   </si>
   <si>
@@ -1453,446 +1459,20 @@
     <t>TP_Mesón Sala Biogás</t>
   </si>
   <si>
-    <t>192.168.11.254</t>
+    <t>Laboratorio_Energias</t>
   </si>
   <si>
     <t>4pJB_298afu0WKjKBtPESjnUxvpJV0PODWBNMGzeeU_ahg1P4H3Bg5KOfwI2A9LXm2BQwaQR_un792HXy3bsvg==</t>
   </si>
   <si>
-    <t>Laboratorio0. Token</t>
-  </si>
-  <si>
-    <t>WKSFZMIEjx1pLZq9S2Qb8hG3HNPfPr4nyvzrA48tvl-2JJ6kZQobqbehbuIgu8E89Z97KmESyXLhyBnqZ-pEOQ==</t>
-  </si>
-  <si>
-    <t>UCO</t>
-  </si>
-  <si>
-    <t>TP_Iluminación área 2</t>
-  </si>
-  <si>
-    <t>TP_Iluminación área 3</t>
-  </si>
-  <si>
-    <t>TP_Iluminación área 1</t>
-  </si>
-  <si>
-    <t>Laboratorio_Energías</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>V-001</t>
-  </si>
-  <si>
-    <t>V-002</t>
-  </si>
-  <si>
-    <t>V-003</t>
-  </si>
-  <si>
-    <t>I-001</t>
-  </si>
-  <si>
-    <t>I-002</t>
-  </si>
-  <si>
-    <t>I-003</t>
-  </si>
-  <si>
-    <t>V-012</t>
-  </si>
-  <si>
-    <t>V-023</t>
-  </si>
-  <si>
-    <t>V-031</t>
-  </si>
-  <si>
-    <t>P-001</t>
-  </si>
-  <si>
-    <t>P-002</t>
-  </si>
-  <si>
-    <t>P-003</t>
-  </si>
-  <si>
-    <t>Q-001</t>
-  </si>
-  <si>
-    <t>Q-002</t>
-  </si>
-  <si>
-    <t>Q-003</t>
-  </si>
-  <si>
-    <t>S-001</t>
-  </si>
-  <si>
-    <t>S-002</t>
-  </si>
-  <si>
-    <t>S-003</t>
-  </si>
-  <si>
-    <t>FP-001</t>
-  </si>
-  <si>
-    <t>FP-002</t>
-  </si>
-  <si>
-    <t>FP-003</t>
-  </si>
-  <si>
-    <t>FREQ</t>
-  </si>
-  <si>
-    <t>V1-THD</t>
-  </si>
-  <si>
-    <t>V2-THD</t>
-  </si>
-  <si>
-    <t>V3-THD</t>
-  </si>
-  <si>
-    <t>I1-THD</t>
-  </si>
-  <si>
-    <t>I2-THD</t>
-  </si>
-  <si>
-    <t>I3-THD</t>
-  </si>
-  <si>
-    <t>V1-H10</t>
-  </si>
-  <si>
-    <t>V1-H11</t>
-  </si>
-  <si>
-    <t>V1-H12</t>
-  </si>
-  <si>
-    <t>V1-H13</t>
-  </si>
-  <si>
-    <t>V1-H14</t>
-  </si>
-  <si>
-    <t>V1-H15</t>
-  </si>
-  <si>
-    <t>V2-H10</t>
-  </si>
-  <si>
-    <t>V2-H11</t>
-  </si>
-  <si>
-    <t>V2-H12</t>
-  </si>
-  <si>
-    <t>V2-H13</t>
-  </si>
-  <si>
-    <t>V2-H14</t>
-  </si>
-  <si>
-    <t>V2-H15</t>
-  </si>
-  <si>
-    <t>V3-H10</t>
-  </si>
-  <si>
-    <t>V3-H11</t>
-  </si>
-  <si>
-    <t>V3-H12</t>
-  </si>
-  <si>
-    <t>V3-H13</t>
-  </si>
-  <si>
-    <t>V3-H14</t>
-  </si>
-  <si>
-    <t>V3-H15</t>
-  </si>
-  <si>
-    <t>I1-H10</t>
-  </si>
-  <si>
-    <t>I1-H11</t>
-  </si>
-  <si>
-    <t>I1-H12</t>
-  </si>
-  <si>
-    <t>I1-H13</t>
-  </si>
-  <si>
-    <t>I1-H14</t>
-  </si>
-  <si>
-    <t>I1-H15</t>
-  </si>
-  <si>
-    <t>I2-H10</t>
-  </si>
-  <si>
-    <t>I2-H11</t>
-  </si>
-  <si>
-    <t>I2-H12</t>
-  </si>
-  <si>
-    <t>I2-H13</t>
-  </si>
-  <si>
-    <t>I2-H14</t>
-  </si>
-  <si>
-    <t>I2-H15</t>
-  </si>
-  <si>
-    <t>I3-H10</t>
-  </si>
-  <si>
-    <t>I3-H11</t>
-  </si>
-  <si>
-    <t>I3-H12</t>
-  </si>
-  <si>
-    <t>I3-H13</t>
-  </si>
-  <si>
-    <t>I3-H14</t>
-  </si>
-  <si>
-    <t>I3-H15</t>
-  </si>
-  <si>
-    <t>EAI-123</t>
-  </si>
-  <si>
-    <t>EAE-123</t>
-  </si>
-  <si>
-    <t>ERI-123</t>
-  </si>
-  <si>
-    <t>ERE-123</t>
-  </si>
-  <si>
-    <t>EAP-123</t>
-  </si>
-  <si>
-    <t>EAI-001</t>
-  </si>
-  <si>
-    <t>EAE-001</t>
-  </si>
-  <si>
-    <t>ERI-001</t>
-  </si>
-  <si>
-    <t>ERE-001</t>
-  </si>
-  <si>
-    <t>EAP-001</t>
-  </si>
-  <si>
-    <t>EAI-002</t>
-  </si>
-  <si>
-    <t>EAE-002</t>
-  </si>
-  <si>
-    <t>ERI-002</t>
-  </si>
-  <si>
-    <t>ERE-002</t>
-  </si>
-  <si>
-    <t>EAP-002</t>
-  </si>
-  <si>
-    <t>EAI-003</t>
-  </si>
-  <si>
-    <t>EAE-003</t>
-  </si>
-  <si>
-    <t>ERI-003</t>
-  </si>
-  <si>
-    <t>ERE-003</t>
-  </si>
-  <si>
-    <t>EAP-003</t>
-  </si>
-  <si>
-    <t>I3-H01</t>
-  </si>
-  <si>
-    <t>I3-H02</t>
-  </si>
-  <si>
-    <t>I3-H03</t>
-  </si>
-  <si>
-    <t>I3-H04</t>
-  </si>
-  <si>
-    <t>I3-H05</t>
-  </si>
-  <si>
-    <t>I3-H06</t>
-  </si>
-  <si>
-    <t>I3-H07</t>
-  </si>
-  <si>
-    <t>I3-H08</t>
-  </si>
-  <si>
-    <t>I3-H09</t>
-  </si>
-  <si>
-    <t>I2-H01</t>
-  </si>
-  <si>
-    <t>I2-H02</t>
-  </si>
-  <si>
-    <t>I2-H03</t>
-  </si>
-  <si>
-    <t>I2-H04</t>
-  </si>
-  <si>
-    <t>I2-H05</t>
-  </si>
-  <si>
-    <t>I2-H06</t>
-  </si>
-  <si>
-    <t>I2-H07</t>
-  </si>
-  <si>
-    <t>I2-H08</t>
-  </si>
-  <si>
-    <t>I2-H09</t>
-  </si>
-  <si>
-    <t>I1-H01</t>
-  </si>
-  <si>
-    <t>I1-H02</t>
-  </si>
-  <si>
-    <t>I1-H03</t>
-  </si>
-  <si>
-    <t>I1-H04</t>
-  </si>
-  <si>
-    <t>I1-H05</t>
-  </si>
-  <si>
-    <t>I1-H06</t>
-  </si>
-  <si>
-    <t>I1-H07</t>
-  </si>
-  <si>
-    <t>I1-H08</t>
-  </si>
-  <si>
-    <t>I1-H09</t>
-  </si>
-  <si>
-    <t>V3-H02</t>
-  </si>
-  <si>
-    <t>V3-H03</t>
-  </si>
-  <si>
-    <t>V3-H04</t>
-  </si>
-  <si>
-    <t>V3-H05</t>
-  </si>
-  <si>
-    <t>V3-H06</t>
-  </si>
-  <si>
-    <t>V3-H07</t>
-  </si>
-  <si>
-    <t>V3-H08</t>
-  </si>
-  <si>
-    <t>V3-H09</t>
-  </si>
-  <si>
-    <t>V2-H02</t>
-  </si>
-  <si>
-    <t>V2-H03</t>
-  </si>
-  <si>
-    <t>V2-H04</t>
-  </si>
-  <si>
-    <t>V2-H05</t>
-  </si>
-  <si>
-    <t>V2-H06</t>
-  </si>
-  <si>
-    <t>V2-H07</t>
-  </si>
-  <si>
-    <t>V2-H08</t>
-  </si>
-  <si>
-    <t>V2-H09</t>
-  </si>
-  <si>
-    <t>V1-H02</t>
-  </si>
-  <si>
-    <t>V1-H03</t>
-  </si>
-  <si>
-    <t>V1-H04</t>
-  </si>
-  <si>
-    <t>V1-H05</t>
-  </si>
-  <si>
-    <t>V1-H06</t>
-  </si>
-  <si>
-    <t>V1-H07</t>
-  </si>
-  <si>
-    <t>V1-H08</t>
-  </si>
-  <si>
-    <t>V1-H09</t>
+    <t>172.16.219.135</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1931,15 +1511,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1962,7 +1533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1973,7 +1544,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2254,17 +1824,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2298,81 +1868,17 @@
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E2" t="s">
         <v>438</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3">
-        <v>8086</v>
-      </c>
-      <c r="D3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4">
-        <v>8086</v>
-      </c>
-      <c r="D4" t="s">
-        <v>467</v>
-      </c>
-      <c r="E4" t="s">
-        <v>438</v>
-      </c>
-      <c r="F4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C5">
-        <v>8086</v>
-      </c>
-      <c r="D5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E5" t="s">
-        <v>463</v>
-      </c>
-      <c r="F5" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2380,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2A57D7-4623-4215-B0A6-34ECAFBF0F7A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2409,10 +1915,10 @@
         <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C2">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +1931,7 @@
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2454,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s">
         <v>435</v>
@@ -2465,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C3" t="s">
         <v>435</v>
@@ -2476,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" t="s">
         <v>435</v>
@@ -2487,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C5" t="s">
         <v>435</v>
@@ -2498,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
         <v>435</v>
@@ -2509,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" t="s">
         <v>435</v>
@@ -2520,7 +2026,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
         <v>435</v>
@@ -2531,7 +2037,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" t="s">
         <v>435</v>
@@ -2542,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C10" t="s">
         <v>435</v>
@@ -2553,7 +2059,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
         <v>435</v>
@@ -2564,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C12" t="s">
         <v>435</v>
@@ -2575,7 +2081,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C13" t="s">
         <v>435</v>
@@ -2586,7 +2092,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C14" t="s">
         <v>435</v>
@@ -2597,7 +2103,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C15" t="s">
         <v>435</v>
@@ -2608,7 +2114,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C16" t="s">
         <v>435</v>
@@ -2619,7 +2125,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C17" t="s">
         <v>435</v>
@@ -2630,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C18" t="s">
         <v>435</v>
@@ -2641,7 +2147,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C19" t="s">
         <v>435</v>
@@ -2652,7 +2158,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
         <v>435</v>
@@ -2663,7 +2169,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
         <v>435</v>
@@ -2808,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2825,7 +2331,7 @@
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2850,11 +2356,8 @@
       <c r="H1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2871,7 +2374,7 @@
         <v>411</v>
       </c>
       <c r="F2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -2879,11 +2382,8 @@
       <c r="H2" t="s">
         <v>277</v>
       </c>
-      <c r="I2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2900,7 +2400,7 @@
         <v>411</v>
       </c>
       <c r="F3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -2908,11 +2408,8 @@
       <c r="H3" t="s">
         <v>278</v>
       </c>
-      <c r="I3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2929,7 +2426,7 @@
         <v>411</v>
       </c>
       <c r="F4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -2937,11 +2434,8 @@
       <c r="H4" t="s">
         <v>279</v>
       </c>
-      <c r="I4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2958,7 +2452,7 @@
         <v>419</v>
       </c>
       <c r="F5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>10000</v>
@@ -2966,11 +2460,8 @@
       <c r="H5" t="s">
         <v>280</v>
       </c>
-      <c r="I5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2987,7 +2478,7 @@
         <v>419</v>
       </c>
       <c r="F6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -2995,11 +2486,8 @@
       <c r="H6" t="s">
         <v>281</v>
       </c>
-      <c r="I6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3016,7 +2504,7 @@
         <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -3024,11 +2512,8 @@
       <c r="H7" t="s">
         <v>282</v>
       </c>
-      <c r="I7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3045,7 +2530,7 @@
         <v>411</v>
       </c>
       <c r="F8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -3053,11 +2538,8 @@
       <c r="H8" t="s">
         <v>283</v>
       </c>
-      <c r="I8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3074,7 +2556,7 @@
         <v>411</v>
       </c>
       <c r="F9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -3082,11 +2564,8 @@
       <c r="H9" t="s">
         <v>284</v>
       </c>
-      <c r="I9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3103,7 +2582,7 @@
         <v>411</v>
       </c>
       <c r="F10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -3111,11 +2590,8 @@
       <c r="H10" t="s">
         <v>285</v>
       </c>
-      <c r="I10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3132,7 +2608,7 @@
         <v>420</v>
       </c>
       <c r="F11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G11">
         <v>100000</v>
@@ -3140,11 +2616,8 @@
       <c r="H11" t="s">
         <v>286</v>
       </c>
-      <c r="I11" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3161,7 +2634,7 @@
         <v>421</v>
       </c>
       <c r="F12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G12">
         <v>100000</v>
@@ -3169,11 +2642,8 @@
       <c r="H12" t="s">
         <v>287</v>
       </c>
-      <c r="I12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3190,7 +2660,7 @@
         <v>420</v>
       </c>
       <c r="F13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G13">
         <v>100000</v>
@@ -3198,11 +2668,8 @@
       <c r="H13" t="s">
         <v>288</v>
       </c>
-      <c r="I13" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3219,7 +2686,7 @@
         <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G14">
         <v>100000</v>
@@ -3227,11 +2694,8 @@
       <c r="H14" t="s">
         <v>290</v>
       </c>
-      <c r="I14" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3248,7 +2712,7 @@
         <v>422</v>
       </c>
       <c r="F15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G15">
         <v>100000</v>
@@ -3256,11 +2720,8 @@
       <c r="H15" t="s">
         <v>289</v>
       </c>
-      <c r="I15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3277,7 +2738,7 @@
         <v>422</v>
       </c>
       <c r="F16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G16">
         <v>100000</v>
@@ -3285,11 +2746,8 @@
       <c r="H16" t="s">
         <v>291</v>
       </c>
-      <c r="I16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3306,7 +2764,7 @@
         <v>423</v>
       </c>
       <c r="F17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G17">
         <v>100000</v>
@@ -3314,11 +2772,8 @@
       <c r="H17" t="s">
         <v>292</v>
       </c>
-      <c r="I17" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3335,7 +2790,7 @@
         <v>423</v>
       </c>
       <c r="F18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G18">
         <v>100000</v>
@@ -3343,11 +2798,8 @@
       <c r="H18" t="s">
         <v>293</v>
       </c>
-      <c r="I18" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3364,7 +2816,7 @@
         <v>423</v>
       </c>
       <c r="F19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G19">
         <v>100000</v>
@@ -3372,11 +2824,8 @@
       <c r="H19" t="s">
         <v>294</v>
       </c>
-      <c r="I19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3390,7 +2839,7 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G20">
         <v>10000</v>
@@ -3398,11 +2847,8 @@
       <c r="H20" t="s">
         <v>295</v>
       </c>
-      <c r="I20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3416,7 +2862,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G21">
         <v>10000</v>
@@ -3424,11 +2870,8 @@
       <c r="H21" t="s">
         <v>296</v>
       </c>
-      <c r="I21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3442,7 +2885,7 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G22">
         <v>10000</v>
@@ -3450,11 +2893,8 @@
       <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="I22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3471,7 +2911,7 @@
         <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G23">
         <v>1000</v>
@@ -3479,11 +2919,8 @@
       <c r="H23" t="s">
         <v>276</v>
       </c>
-      <c r="I23" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3500,7 +2937,7 @@
         <v>412</v>
       </c>
       <c r="F24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G24">
         <v>100</v>
@@ -3508,11 +2945,8 @@
       <c r="H24" t="s">
         <v>298</v>
       </c>
-      <c r="I24" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3529,7 +2963,7 @@
         <v>412</v>
       </c>
       <c r="F25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G25">
         <v>100</v>
@@ -3537,11 +2971,8 @@
       <c r="H25" t="s">
         <v>299</v>
       </c>
-      <c r="I25" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3558,7 +2989,7 @@
         <v>412</v>
       </c>
       <c r="F26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -3566,11 +2997,8 @@
       <c r="H26" t="s">
         <v>300</v>
       </c>
-      <c r="I26" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3587,7 +3015,7 @@
         <v>412</v>
       </c>
       <c r="F27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G27">
         <v>100</v>
@@ -3595,11 +3023,8 @@
       <c r="H27" t="s">
         <v>301</v>
       </c>
-      <c r="I27" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3616,7 +3041,7 @@
         <v>412</v>
       </c>
       <c r="F28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -3624,11 +3049,8 @@
       <c r="H28" t="s">
         <v>302</v>
       </c>
-      <c r="I28" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3645,7 +3067,7 @@
         <v>412</v>
       </c>
       <c r="F29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G29">
         <v>100</v>
@@ -3653,11 +3075,8 @@
       <c r="H29" t="s">
         <v>303</v>
       </c>
-      <c r="I29" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3674,7 +3093,7 @@
         <v>425</v>
       </c>
       <c r="F30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G30">
         <v>100</v>
@@ -3682,11 +3101,8 @@
       <c r="H30" t="s">
         <v>304</v>
       </c>
-      <c r="I30" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -3703,7 +3119,7 @@
         <v>425</v>
       </c>
       <c r="F31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G31">
         <v>100</v>
@@ -3711,11 +3127,8 @@
       <c r="H31" t="s">
         <v>305</v>
       </c>
-      <c r="I31" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3732,7 +3145,7 @@
         <v>425</v>
       </c>
       <c r="F32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G32">
         <v>100</v>
@@ -3740,11 +3153,8 @@
       <c r="H32" t="s">
         <v>311</v>
       </c>
-      <c r="I32" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -3761,7 +3171,7 @@
         <v>425</v>
       </c>
       <c r="F33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G33">
         <v>100</v>
@@ -3769,11 +3179,8 @@
       <c r="H33" t="s">
         <v>306</v>
       </c>
-      <c r="I33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -3790,7 +3197,7 @@
         <v>425</v>
       </c>
       <c r="F34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G34">
         <v>100</v>
@@ -3798,11 +3205,8 @@
       <c r="H34" t="s">
         <v>307</v>
       </c>
-      <c r="I34" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3819,7 +3223,7 @@
         <v>425</v>
       </c>
       <c r="F35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G35">
         <v>100</v>
@@ -3827,11 +3231,8 @@
       <c r="H35" t="s">
         <v>308</v>
       </c>
-      <c r="I35" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -3848,7 +3249,7 @@
         <v>425</v>
       </c>
       <c r="F36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -3856,11 +3257,8 @@
       <c r="H36" t="s">
         <v>309</v>
       </c>
-      <c r="I36" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -3877,7 +3275,7 @@
         <v>425</v>
       </c>
       <c r="F37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -3885,11 +3283,8 @@
       <c r="H37" t="s">
         <v>310</v>
       </c>
-      <c r="I37" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -3906,7 +3301,7 @@
         <v>425</v>
       </c>
       <c r="F38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -3914,11 +3309,8 @@
       <c r="H38" t="s">
         <v>312</v>
       </c>
-      <c r="I38" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -3935,7 +3327,7 @@
         <v>425</v>
       </c>
       <c r="F39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G39">
         <v>100</v>
@@ -3943,11 +3335,8 @@
       <c r="H39" t="s">
         <v>313</v>
       </c>
-      <c r="I39" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -3964,7 +3353,7 @@
         <v>425</v>
       </c>
       <c r="F40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -3972,11 +3361,8 @@
       <c r="H40" t="s">
         <v>314</v>
       </c>
-      <c r="I40" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -3993,7 +3379,7 @@
         <v>425</v>
       </c>
       <c r="F41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -4001,11 +3387,8 @@
       <c r="H41" t="s">
         <v>315</v>
       </c>
-      <c r="I41" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -4022,7 +3405,7 @@
         <v>425</v>
       </c>
       <c r="F42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G42">
         <v>100</v>
@@ -4030,11 +3413,8 @@
       <c r="H42" t="s">
         <v>316</v>
       </c>
-      <c r="I42" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -4051,7 +3431,7 @@
         <v>425</v>
       </c>
       <c r="F43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G43">
         <v>100</v>
@@ -4059,11 +3439,8 @@
       <c r="H43" t="s">
         <v>317</v>
       </c>
-      <c r="I43" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -4080,7 +3457,7 @@
         <v>425</v>
       </c>
       <c r="F44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G44">
         <v>100</v>
@@ -4088,11 +3465,8 @@
       <c r="H44" t="s">
         <v>318</v>
       </c>
-      <c r="I44" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -4109,7 +3483,7 @@
         <v>425</v>
       </c>
       <c r="F45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G45">
         <v>100</v>
@@ -4117,11 +3491,8 @@
       <c r="H45" t="s">
         <v>319</v>
       </c>
-      <c r="I45" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -4138,7 +3509,7 @@
         <v>425</v>
       </c>
       <c r="F46" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G46">
         <v>100</v>
@@ -4146,11 +3517,8 @@
       <c r="H46" t="s">
         <v>320</v>
       </c>
-      <c r="I46" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -4167,7 +3535,7 @@
         <v>425</v>
       </c>
       <c r="F47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G47">
         <v>100</v>
@@ -4175,11 +3543,8 @@
       <c r="H47" t="s">
         <v>321</v>
       </c>
-      <c r="I47" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -4196,7 +3561,7 @@
         <v>425</v>
       </c>
       <c r="F48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G48">
         <v>100</v>
@@ -4204,11 +3569,8 @@
       <c r="H48" t="s">
         <v>322</v>
       </c>
-      <c r="I48" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4225,7 +3587,7 @@
         <v>425</v>
       </c>
       <c r="F49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G49">
         <v>100</v>
@@ -4233,11 +3595,8 @@
       <c r="H49" t="s">
         <v>323</v>
       </c>
-      <c r="I49" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -4254,7 +3613,7 @@
         <v>425</v>
       </c>
       <c r="F50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G50">
         <v>100</v>
@@ -4262,11 +3621,8 @@
       <c r="H50" t="s">
         <v>324</v>
       </c>
-      <c r="I50" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -4283,7 +3639,7 @@
         <v>425</v>
       </c>
       <c r="F51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G51">
         <v>100</v>
@@ -4291,11 +3647,8 @@
       <c r="H51" t="s">
         <v>325</v>
       </c>
-      <c r="I51" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -4312,7 +3665,7 @@
         <v>425</v>
       </c>
       <c r="F52" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G52">
         <v>100</v>
@@ -4320,11 +3673,8 @@
       <c r="H52" t="s">
         <v>326</v>
       </c>
-      <c r="I52" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -4341,7 +3691,7 @@
         <v>425</v>
       </c>
       <c r="F53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G53">
         <v>100</v>
@@ -4349,11 +3699,8 @@
       <c r="H53" t="s">
         <v>327</v>
       </c>
-      <c r="I53" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -4370,7 +3717,7 @@
         <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G54">
         <v>100</v>
@@ -4378,11 +3725,8 @@
       <c r="H54" t="s">
         <v>328</v>
       </c>
-      <c r="I54" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -4399,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="F55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G55">
         <v>100</v>
@@ -4407,11 +3751,8 @@
       <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="I55" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4428,7 +3769,7 @@
         <v>425</v>
       </c>
       <c r="F56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G56">
         <v>100</v>
@@ -4436,11 +3777,8 @@
       <c r="H56" t="s">
         <v>330</v>
       </c>
-      <c r="I56" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -4457,7 +3795,7 @@
         <v>425</v>
       </c>
       <c r="F57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G57">
         <v>100</v>
@@ -4465,11 +3803,8 @@
       <c r="H57" t="s">
         <v>331</v>
       </c>
-      <c r="I57" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -4486,7 +3821,7 @@
         <v>425</v>
       </c>
       <c r="F58" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G58">
         <v>100</v>
@@ -4494,11 +3829,8 @@
       <c r="H58" t="s">
         <v>332</v>
       </c>
-      <c r="I58" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -4515,7 +3847,7 @@
         <v>425</v>
       </c>
       <c r="F59" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G59">
         <v>100</v>
@@ -4523,11 +3855,8 @@
       <c r="H59" t="s">
         <v>333</v>
       </c>
-      <c r="I59" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -4544,7 +3873,7 @@
         <v>425</v>
       </c>
       <c r="F60" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G60">
         <v>100</v>
@@ -4552,11 +3881,8 @@
       <c r="H60" t="s">
         <v>334</v>
       </c>
-      <c r="I60" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -4573,7 +3899,7 @@
         <v>425</v>
       </c>
       <c r="F61" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G61">
         <v>100</v>
@@ -4581,11 +3907,8 @@
       <c r="H61" t="s">
         <v>335</v>
       </c>
-      <c r="I61" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -4602,7 +3925,7 @@
         <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G62">
         <v>100</v>
@@ -4610,11 +3933,8 @@
       <c r="H62" t="s">
         <v>336</v>
       </c>
-      <c r="I62" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -4631,7 +3951,7 @@
         <v>425</v>
       </c>
       <c r="F63" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G63">
         <v>100</v>
@@ -4639,11 +3959,8 @@
       <c r="H63" t="s">
         <v>337</v>
       </c>
-      <c r="I63" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -4660,7 +3977,7 @@
         <v>425</v>
       </c>
       <c r="F64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G64">
         <v>100</v>
@@ -4668,11 +3985,8 @@
       <c r="H64" t="s">
         <v>338</v>
       </c>
-      <c r="I64" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4689,7 +4003,7 @@
         <v>425</v>
       </c>
       <c r="F65" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G65">
         <v>100</v>
@@ -4697,11 +4011,8 @@
       <c r="H65" t="s">
         <v>339</v>
       </c>
-      <c r="I65" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4718,7 +4029,7 @@
         <v>425</v>
       </c>
       <c r="F66" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G66">
         <v>100</v>
@@ -4726,11 +4037,8 @@
       <c r="H66" t="s">
         <v>340</v>
       </c>
-      <c r="I66" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -4747,7 +4055,7 @@
         <v>425</v>
       </c>
       <c r="F67" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G67">
         <v>100</v>
@@ -4755,11 +4063,8 @@
       <c r="H67" t="s">
         <v>341</v>
       </c>
-      <c r="I67" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -4776,7 +4081,7 @@
         <v>425</v>
       </c>
       <c r="F68" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G68">
         <v>100</v>
@@ -4784,11 +4089,8 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="I68" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -4805,7 +4107,7 @@
         <v>425</v>
       </c>
       <c r="F69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G69">
         <v>100</v>
@@ -4813,11 +4115,8 @@
       <c r="H69" t="s">
         <v>343</v>
       </c>
-      <c r="I69" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -4834,7 +4133,7 @@
         <v>425</v>
       </c>
       <c r="F70" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G70">
         <v>100</v>
@@ -4842,11 +4141,8 @@
       <c r="H70" t="s">
         <v>344</v>
       </c>
-      <c r="I70" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -4863,7 +4159,7 @@
         <v>425</v>
       </c>
       <c r="F71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G71">
         <v>100</v>
@@ -4871,11 +4167,8 @@
       <c r="H71" t="s">
         <v>345</v>
       </c>
-      <c r="I71" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -4892,7 +4185,7 @@
         <v>425</v>
       </c>
       <c r="F72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G72">
         <v>100</v>
@@ -4900,11 +4193,8 @@
       <c r="H72" t="s">
         <v>348</v>
       </c>
-      <c r="I72" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -4921,7 +4211,7 @@
         <v>425</v>
       </c>
       <c r="F73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G73">
         <v>100</v>
@@ -4929,11 +4219,8 @@
       <c r="H73" t="s">
         <v>346</v>
       </c>
-      <c r="I73" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -4950,7 +4237,7 @@
         <v>425</v>
       </c>
       <c r="F74" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G74">
         <v>100</v>
@@ -4958,11 +4245,8 @@
       <c r="H74" t="s">
         <v>347</v>
       </c>
-      <c r="I74" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -4979,7 +4263,7 @@
         <v>425</v>
       </c>
       <c r="F75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G75">
         <v>100</v>
@@ -4987,11 +4271,8 @@
       <c r="H75" t="s">
         <v>349</v>
       </c>
-      <c r="I75" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -5008,7 +4289,7 @@
         <v>425</v>
       </c>
       <c r="F76" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G76">
         <v>100</v>
@@ -5016,11 +4297,8 @@
       <c r="H76" t="s">
         <v>350</v>
       </c>
-      <c r="I76" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -5037,7 +4315,7 @@
         <v>425</v>
       </c>
       <c r="F77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G77">
         <v>100</v>
@@ -5045,11 +4323,8 @@
       <c r="H77" t="s">
         <v>351</v>
       </c>
-      <c r="I77" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -5066,7 +4341,7 @@
         <v>425</v>
       </c>
       <c r="F78" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G78">
         <v>100</v>
@@ -5074,11 +4349,8 @@
       <c r="H78" t="s">
         <v>352</v>
       </c>
-      <c r="I78" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -5095,7 +4367,7 @@
         <v>425</v>
       </c>
       <c r="F79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G79">
         <v>100</v>
@@ -5103,11 +4375,8 @@
       <c r="H79" t="s">
         <v>353</v>
       </c>
-      <c r="I79" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5124,7 +4393,7 @@
         <v>425</v>
       </c>
       <c r="F80" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G80">
         <v>100</v>
@@ -5132,11 +4401,8 @@
       <c r="H80" t="s">
         <v>354</v>
       </c>
-      <c r="I80" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -5153,7 +4419,7 @@
         <v>425</v>
       </c>
       <c r="F81" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G81">
         <v>100</v>
@@ -5161,11 +4427,8 @@
       <c r="H81" t="s">
         <v>355</v>
       </c>
-      <c r="I81" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -5182,7 +4445,7 @@
         <v>425</v>
       </c>
       <c r="F82" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G82">
         <v>100</v>
@@ -5190,11 +4453,8 @@
       <c r="H82" t="s">
         <v>356</v>
       </c>
-      <c r="I82" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -5211,7 +4471,7 @@
         <v>425</v>
       </c>
       <c r="F83" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G83">
         <v>100</v>
@@ -5219,11 +4479,8 @@
       <c r="H83" t="s">
         <v>357</v>
       </c>
-      <c r="I83" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -5240,7 +4497,7 @@
         <v>425</v>
       </c>
       <c r="F84" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G84">
         <v>100</v>
@@ -5248,11 +4505,8 @@
       <c r="H84" t="s">
         <v>358</v>
       </c>
-      <c r="I84" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5269,7 +4523,7 @@
         <v>425</v>
       </c>
       <c r="F85" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G85">
         <v>100</v>
@@ -5277,11 +4531,8 @@
       <c r="H85" t="s">
         <v>359</v>
       </c>
-      <c r="I85" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5298,7 +4549,7 @@
         <v>425</v>
       </c>
       <c r="F86" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G86">
         <v>100</v>
@@ -5306,11 +4557,8 @@
       <c r="H86" t="s">
         <v>360</v>
       </c>
-      <c r="I86" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -5327,7 +4575,7 @@
         <v>425</v>
       </c>
       <c r="F87" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G87">
         <v>100</v>
@@ -5335,11 +4583,8 @@
       <c r="H87" t="s">
         <v>361</v>
       </c>
-      <c r="I87" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -5356,7 +4601,7 @@
         <v>425</v>
       </c>
       <c r="F88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G88">
         <v>100</v>
@@ -5364,11 +4609,8 @@
       <c r="H88" t="s">
         <v>362</v>
       </c>
-      <c r="I88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -5385,7 +4627,7 @@
         <v>425</v>
       </c>
       <c r="F89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G89">
         <v>100</v>
@@ -5393,11 +4635,8 @@
       <c r="H89" t="s">
         <v>375</v>
       </c>
-      <c r="I89" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -5414,7 +4653,7 @@
         <v>425</v>
       </c>
       <c r="F90" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G90">
         <v>100</v>
@@ -5422,11 +4661,8 @@
       <c r="H90" t="s">
         <v>363</v>
       </c>
-      <c r="I90" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -5443,7 +4679,7 @@
         <v>425</v>
       </c>
       <c r="F91" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G91">
         <v>100</v>
@@ -5451,11 +4687,8 @@
       <c r="H91" t="s">
         <v>364</v>
       </c>
-      <c r="I91" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -5472,7 +4705,7 @@
         <v>425</v>
       </c>
       <c r="F92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G92">
         <v>100</v>
@@ -5480,11 +4713,8 @@
       <c r="H92" t="s">
         <v>365</v>
       </c>
-      <c r="I92" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -5501,7 +4731,7 @@
         <v>425</v>
       </c>
       <c r="F93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G93">
         <v>100</v>
@@ -5509,11 +4739,8 @@
       <c r="H93" t="s">
         <v>366</v>
       </c>
-      <c r="I93" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -5530,7 +4757,7 @@
         <v>425</v>
       </c>
       <c r="F94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G94">
         <v>100</v>
@@ -5538,11 +4765,8 @@
       <c r="H94" t="s">
         <v>367</v>
       </c>
-      <c r="I94" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -5559,7 +4783,7 @@
         <v>425</v>
       </c>
       <c r="F95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G95">
         <v>100</v>
@@ -5567,11 +4791,8 @@
       <c r="H95" t="s">
         <v>368</v>
       </c>
-      <c r="I95" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -5588,7 +4809,7 @@
         <v>425</v>
       </c>
       <c r="F96" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G96">
         <v>100</v>
@@ -5596,11 +4817,8 @@
       <c r="H96" t="s">
         <v>369</v>
       </c>
-      <c r="I96" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -5617,7 +4835,7 @@
         <v>425</v>
       </c>
       <c r="F97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G97">
         <v>100</v>
@@ -5625,11 +4843,8 @@
       <c r="H97" t="s">
         <v>370</v>
       </c>
-      <c r="I97" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -5646,7 +4861,7 @@
         <v>425</v>
       </c>
       <c r="F98" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G98">
         <v>100</v>
@@ -5654,11 +4869,8 @@
       <c r="H98" t="s">
         <v>371</v>
       </c>
-      <c r="I98" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -5675,7 +4887,7 @@
         <v>425</v>
       </c>
       <c r="F99" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G99">
         <v>100</v>
@@ -5683,11 +4895,8 @@
       <c r="H99" t="s">
         <v>372</v>
       </c>
-      <c r="I99" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -5704,7 +4913,7 @@
         <v>425</v>
       </c>
       <c r="F100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G100">
         <v>100</v>
@@ -5712,11 +4921,8 @@
       <c r="H100" t="s">
         <v>373</v>
       </c>
-      <c r="I100" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -5733,7 +4939,7 @@
         <v>425</v>
       </c>
       <c r="F101" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G101">
         <v>100</v>
@@ -5741,11 +4947,8 @@
       <c r="H101" t="s">
         <v>374</v>
       </c>
-      <c r="I101" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -5762,7 +4965,7 @@
         <v>425</v>
       </c>
       <c r="F102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G102">
         <v>100</v>
@@ -5770,11 +4973,8 @@
       <c r="H102" t="s">
         <v>376</v>
       </c>
-      <c r="I102" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -5791,7 +4991,7 @@
         <v>425</v>
       </c>
       <c r="F103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G103">
         <v>100</v>
@@ -5799,11 +4999,8 @@
       <c r="H103" t="s">
         <v>377</v>
       </c>
-      <c r="I103" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5820,7 +5017,7 @@
         <v>425</v>
       </c>
       <c r="F104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G104">
         <v>100</v>
@@ -5828,11 +5025,8 @@
       <c r="H104" t="s">
         <v>378</v>
       </c>
-      <c r="I104" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -5849,7 +5043,7 @@
         <v>425</v>
       </c>
       <c r="F105" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G105">
         <v>100</v>
@@ -5857,11 +5051,8 @@
       <c r="H105" t="s">
         <v>379</v>
       </c>
-      <c r="I105" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -5878,7 +5069,7 @@
         <v>425</v>
       </c>
       <c r="F106" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G106">
         <v>100</v>
@@ -5886,11 +5077,8 @@
       <c r="H106" t="s">
         <v>380</v>
       </c>
-      <c r="I106" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -5907,7 +5095,7 @@
         <v>425</v>
       </c>
       <c r="F107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G107">
         <v>100</v>
@@ -5915,11 +5103,8 @@
       <c r="H107" t="s">
         <v>381</v>
       </c>
-      <c r="I107" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -5936,7 +5121,7 @@
         <v>425</v>
       </c>
       <c r="F108" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G108">
         <v>100</v>
@@ -5944,11 +5129,8 @@
       <c r="H108" t="s">
         <v>382</v>
       </c>
-      <c r="I108" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -5965,7 +5147,7 @@
         <v>425</v>
       </c>
       <c r="F109" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G109">
         <v>100</v>
@@ -5973,11 +5155,8 @@
       <c r="H109" t="s">
         <v>383</v>
       </c>
-      <c r="I109" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -5994,7 +5173,7 @@
         <v>425</v>
       </c>
       <c r="F110" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G110">
         <v>100</v>
@@ -6002,11 +5181,8 @@
       <c r="H110" t="s">
         <v>384</v>
       </c>
-      <c r="I110" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -6023,7 +5199,7 @@
         <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G111">
         <v>100</v>
@@ -6031,11 +5207,8 @@
       <c r="H111" t="s">
         <v>385</v>
       </c>
-      <c r="I111" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -6052,7 +5225,7 @@
         <v>425</v>
       </c>
       <c r="F112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G112">
         <v>100</v>
@@ -6060,11 +5233,8 @@
       <c r="H112" t="s">
         <v>386</v>
       </c>
-      <c r="I112" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -6081,7 +5251,7 @@
         <v>425</v>
       </c>
       <c r="F113" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G113">
         <v>100</v>
@@ -6089,11 +5259,8 @@
       <c r="H113" t="s">
         <v>387</v>
       </c>
-      <c r="I113" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -6110,7 +5277,7 @@
         <v>425</v>
       </c>
       <c r="F114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G114">
         <v>100</v>
@@ -6118,11 +5285,8 @@
       <c r="H114" t="s">
         <v>388</v>
       </c>
-      <c r="I114" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -6139,7 +5303,7 @@
         <v>425</v>
       </c>
       <c r="F115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G115">
         <v>100</v>
@@ -6147,11 +5311,8 @@
       <c r="H115" t="s">
         <v>389</v>
       </c>
-      <c r="I115" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -6168,7 +5329,7 @@
         <v>425</v>
       </c>
       <c r="F116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G116">
         <v>100</v>
@@ -6176,11 +5337,8 @@
       <c r="H116" t="s">
         <v>390</v>
       </c>
-      <c r="I116" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -6197,7 +5355,7 @@
         <v>413</v>
       </c>
       <c r="F117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G117">
         <v>100</v>
@@ -6205,11 +5363,8 @@
       <c r="H117" t="s">
         <v>405</v>
       </c>
-      <c r="I117" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -6226,7 +5381,7 @@
         <v>413</v>
       </c>
       <c r="F118" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G118">
         <v>100</v>
@@ -6234,11 +5389,8 @@
       <c r="H118" t="s">
         <v>406</v>
       </c>
-      <c r="I118" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -6255,7 +5407,7 @@
         <v>414</v>
       </c>
       <c r="F119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G119">
         <v>100</v>
@@ -6263,11 +5415,8 @@
       <c r="H119" t="s">
         <v>407</v>
       </c>
-      <c r="I119" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -6284,7 +5433,7 @@
         <v>414</v>
       </c>
       <c r="F120" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G120">
         <v>100</v>
@@ -6292,11 +5441,8 @@
       <c r="H120" t="s">
         <v>408</v>
       </c>
-      <c r="I120" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -6313,7 +5459,7 @@
         <v>415</v>
       </c>
       <c r="F121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G121">
         <v>100</v>
@@ -6321,11 +5467,8 @@
       <c r="H121" t="s">
         <v>409</v>
       </c>
-      <c r="I121" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -6342,7 +5485,7 @@
         <v>416</v>
       </c>
       <c r="F122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G122">
         <v>100</v>
@@ -6350,11 +5493,8 @@
       <c r="H122" t="s">
         <v>394</v>
       </c>
-      <c r="I122" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -6371,7 +5511,7 @@
         <v>416</v>
       </c>
       <c r="F123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G123">
         <v>100</v>
@@ -6379,11 +5519,8 @@
       <c r="H123" t="s">
         <v>404</v>
       </c>
-      <c r="I123" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6400,7 +5537,7 @@
         <v>417</v>
       </c>
       <c r="F124" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G124">
         <v>100</v>
@@ -6408,11 +5545,8 @@
       <c r="H124" t="s">
         <v>398</v>
       </c>
-      <c r="I124" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -6429,7 +5563,7 @@
         <v>417</v>
       </c>
       <c r="F125" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G125">
         <v>100</v>
@@ -6437,11 +5571,8 @@
       <c r="H125" t="s">
         <v>397</v>
       </c>
-      <c r="I125" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -6458,7 +5589,7 @@
         <v>418</v>
       </c>
       <c r="F126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G126">
         <v>100</v>
@@ -6466,11 +5597,8 @@
       <c r="H126" t="s">
         <v>391</v>
       </c>
-      <c r="I126" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -6487,7 +5615,7 @@
         <v>416</v>
       </c>
       <c r="F127" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G127">
         <v>100</v>
@@ -6495,11 +5623,8 @@
       <c r="H127" t="s">
         <v>395</v>
       </c>
-      <c r="I127" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -6516,7 +5641,7 @@
         <v>416</v>
       </c>
       <c r="F128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G128">
         <v>100</v>
@@ -6524,11 +5649,8 @@
       <c r="H128" t="s">
         <v>401</v>
       </c>
-      <c r="I128" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -6545,7 +5667,7 @@
         <v>417</v>
       </c>
       <c r="F129" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G129">
         <v>100</v>
@@ -6553,11 +5675,8 @@
       <c r="H129" t="s">
         <v>399</v>
       </c>
-      <c r="I129" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -6574,7 +5693,7 @@
         <v>417</v>
       </c>
       <c r="F130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G130">
         <v>100</v>
@@ -6582,11 +5701,8 @@
       <c r="H130" t="s">
         <v>402</v>
       </c>
-      <c r="I130" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -6603,7 +5719,7 @@
         <v>418</v>
       </c>
       <c r="F131" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G131">
         <v>100</v>
@@ -6611,11 +5727,8 @@
       <c r="H131" t="s">
         <v>392</v>
       </c>
-      <c r="I131" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -6632,7 +5745,7 @@
         <v>416</v>
       </c>
       <c r="F132" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G132">
         <v>100</v>
@@ -6640,11 +5753,8 @@
       <c r="H132" t="s">
         <v>396</v>
       </c>
-      <c r="I132" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -6661,7 +5771,7 @@
         <v>416</v>
       </c>
       <c r="F133" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G133">
         <v>100</v>
@@ -6669,11 +5779,8 @@
       <c r="H133" t="s">
         <v>403</v>
       </c>
-      <c r="I133" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -6690,7 +5797,7 @@
         <v>417</v>
       </c>
       <c r="F134" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G134">
         <v>100</v>
@@ -6698,11 +5805,8 @@
       <c r="H134" t="s">
         <v>400</v>
       </c>
-      <c r="I134" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -6719,7 +5823,7 @@
         <v>417</v>
       </c>
       <c r="F135" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G135">
         <v>100</v>
@@ -6727,11 +5831,8 @@
       <c r="H135" t="s">
         <v>410</v>
       </c>
-      <c r="I135" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -6748,16 +5849,13 @@
         <v>418</v>
       </c>
       <c r="F136" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G136">
         <v>100</v>
       </c>
       <c r="H136" t="s">
         <v>393</v>
-      </c>
-      <c r="I136" t="s">
-        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\collector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDFEA37-1A94-40E3-9C45-F6EA317CB2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70100CF9-2506-4C99-8377-B8358F472958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="600">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1466,6 +1466,414 @@
   </si>
   <si>
     <t>172.16.219.135</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>V-001</t>
+  </si>
+  <si>
+    <t>V-002</t>
+  </si>
+  <si>
+    <t>V-003</t>
+  </si>
+  <si>
+    <t>I-001</t>
+  </si>
+  <si>
+    <t>I-002</t>
+  </si>
+  <si>
+    <t>I-003</t>
+  </si>
+  <si>
+    <t>V-012</t>
+  </si>
+  <si>
+    <t>V-023</t>
+  </si>
+  <si>
+    <t>V-031</t>
+  </si>
+  <si>
+    <t>P-001</t>
+  </si>
+  <si>
+    <t>P-002</t>
+  </si>
+  <si>
+    <t>P-003</t>
+  </si>
+  <si>
+    <t>Q-001</t>
+  </si>
+  <si>
+    <t>Q-002</t>
+  </si>
+  <si>
+    <t>Q-003</t>
+  </si>
+  <si>
+    <t>S-001</t>
+  </si>
+  <si>
+    <t>S-002</t>
+  </si>
+  <si>
+    <t>S-003</t>
+  </si>
+  <si>
+    <t>FP-001</t>
+  </si>
+  <si>
+    <t>FP-002</t>
+  </si>
+  <si>
+    <t>FP-003</t>
+  </si>
+  <si>
+    <t>FREQ</t>
+  </si>
+  <si>
+    <t>V1-THD</t>
+  </si>
+  <si>
+    <t>V2-THD</t>
+  </si>
+  <si>
+    <t>V3-THD</t>
+  </si>
+  <si>
+    <t>I1-THD</t>
+  </si>
+  <si>
+    <t>I2-THD</t>
+  </si>
+  <si>
+    <t>I3-THD</t>
+  </si>
+  <si>
+    <t>V1-H02</t>
+  </si>
+  <si>
+    <t>V1-H03</t>
+  </si>
+  <si>
+    <t>V1-H04</t>
+  </si>
+  <si>
+    <t>V1-H05</t>
+  </si>
+  <si>
+    <t>V1-H06</t>
+  </si>
+  <si>
+    <t>V1-H07</t>
+  </si>
+  <si>
+    <t>V1-H08</t>
+  </si>
+  <si>
+    <t>V1-H09</t>
+  </si>
+  <si>
+    <t>V1-H10</t>
+  </si>
+  <si>
+    <t>V1-H11</t>
+  </si>
+  <si>
+    <t>V1-H12</t>
+  </si>
+  <si>
+    <t>V1-H13</t>
+  </si>
+  <si>
+    <t>V1-H14</t>
+  </si>
+  <si>
+    <t>V1-H15</t>
+  </si>
+  <si>
+    <t>V2-H02</t>
+  </si>
+  <si>
+    <t>V2-H03</t>
+  </si>
+  <si>
+    <t>V2-H04</t>
+  </si>
+  <si>
+    <t>V2-H05</t>
+  </si>
+  <si>
+    <t>V2-H06</t>
+  </si>
+  <si>
+    <t>V2-H07</t>
+  </si>
+  <si>
+    <t>V2-H08</t>
+  </si>
+  <si>
+    <t>V2-H09</t>
+  </si>
+  <si>
+    <t>V2-H10</t>
+  </si>
+  <si>
+    <t>V2-H11</t>
+  </si>
+  <si>
+    <t>V2-H12</t>
+  </si>
+  <si>
+    <t>V2-H13</t>
+  </si>
+  <si>
+    <t>V2-H14</t>
+  </si>
+  <si>
+    <t>V2-H15</t>
+  </si>
+  <si>
+    <t>V3-H02</t>
+  </si>
+  <si>
+    <t>V3-H03</t>
+  </si>
+  <si>
+    <t>V3-H04</t>
+  </si>
+  <si>
+    <t>V3-H05</t>
+  </si>
+  <si>
+    <t>V3-H06</t>
+  </si>
+  <si>
+    <t>V3-H07</t>
+  </si>
+  <si>
+    <t>V3-H08</t>
+  </si>
+  <si>
+    <t>V3-H09</t>
+  </si>
+  <si>
+    <t>V3-H10</t>
+  </si>
+  <si>
+    <t>V3-H11</t>
+  </si>
+  <si>
+    <t>V3-H12</t>
+  </si>
+  <si>
+    <t>V3-H13</t>
+  </si>
+  <si>
+    <t>V3-H14</t>
+  </si>
+  <si>
+    <t>V3-H15</t>
+  </si>
+  <si>
+    <t>I1-H01</t>
+  </si>
+  <si>
+    <t>I1-H02</t>
+  </si>
+  <si>
+    <t>I1-H03</t>
+  </si>
+  <si>
+    <t>I1-H04</t>
+  </si>
+  <si>
+    <t>I1-H05</t>
+  </si>
+  <si>
+    <t>I1-H06</t>
+  </si>
+  <si>
+    <t>I1-H07</t>
+  </si>
+  <si>
+    <t>I1-H08</t>
+  </si>
+  <si>
+    <t>I1-H09</t>
+  </si>
+  <si>
+    <t>I1-H10</t>
+  </si>
+  <si>
+    <t>I1-H11</t>
+  </si>
+  <si>
+    <t>I1-H12</t>
+  </si>
+  <si>
+    <t>I1-H13</t>
+  </si>
+  <si>
+    <t>I1-H14</t>
+  </si>
+  <si>
+    <t>I1-H15</t>
+  </si>
+  <si>
+    <t>I2-H01</t>
+  </si>
+  <si>
+    <t>I2-H02</t>
+  </si>
+  <si>
+    <t>I2-H03</t>
+  </si>
+  <si>
+    <t>I2-H04</t>
+  </si>
+  <si>
+    <t>I2-H05</t>
+  </si>
+  <si>
+    <t>I2-H06</t>
+  </si>
+  <si>
+    <t>I2-H07</t>
+  </si>
+  <si>
+    <t>I2-H08</t>
+  </si>
+  <si>
+    <t>I2-H09</t>
+  </si>
+  <si>
+    <t>I2-H10</t>
+  </si>
+  <si>
+    <t>I2-H11</t>
+  </si>
+  <si>
+    <t>I2-H12</t>
+  </si>
+  <si>
+    <t>I2-H13</t>
+  </si>
+  <si>
+    <t>I2-H14</t>
+  </si>
+  <si>
+    <t>I2-H15</t>
+  </si>
+  <si>
+    <t>I3-H01</t>
+  </si>
+  <si>
+    <t>I3-H02</t>
+  </si>
+  <si>
+    <t>I3-H03</t>
+  </si>
+  <si>
+    <t>I3-H04</t>
+  </si>
+  <si>
+    <t>I3-H05</t>
+  </si>
+  <si>
+    <t>I3-H06</t>
+  </si>
+  <si>
+    <t>I3-H07</t>
+  </si>
+  <si>
+    <t>I3-H08</t>
+  </si>
+  <si>
+    <t>I3-H09</t>
+  </si>
+  <si>
+    <t>I3-H10</t>
+  </si>
+  <si>
+    <t>I3-H11</t>
+  </si>
+  <si>
+    <t>I3-H12</t>
+  </si>
+  <si>
+    <t>I3-H13</t>
+  </si>
+  <si>
+    <t>I3-H14</t>
+  </si>
+  <si>
+    <t>I3-H15</t>
+  </si>
+  <si>
+    <t>EAI-123</t>
+  </si>
+  <si>
+    <t>EAE-123</t>
+  </si>
+  <si>
+    <t>ERI-123</t>
+  </si>
+  <si>
+    <t>ERE-123</t>
+  </si>
+  <si>
+    <t>EAP-123</t>
+  </si>
+  <si>
+    <t>EAI-001</t>
+  </si>
+  <si>
+    <t>EAE-001</t>
+  </si>
+  <si>
+    <t>ERI-001</t>
+  </si>
+  <si>
+    <t>ERE-001</t>
+  </si>
+  <si>
+    <t>EAP-001</t>
+  </si>
+  <si>
+    <t>EAI-002</t>
+  </si>
+  <si>
+    <t>EAE-002</t>
+  </si>
+  <si>
+    <t>ERI-002</t>
+  </si>
+  <si>
+    <t>ERE-002</t>
+  </si>
+  <si>
+    <t>EAP-002</t>
+  </si>
+  <si>
+    <t>EAI-003</t>
+  </si>
+  <si>
+    <t>EAE-003</t>
+  </si>
+  <si>
+    <t>ERI-003</t>
+  </si>
+  <si>
+    <t>ERE-003</t>
+  </si>
+  <si>
+    <t>EAP-003</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2A57D7-4623-4215-B0A6-34ECAFBF0F7A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2314,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2331,7 +2739,7 @@
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2356,8 +2764,11 @@
       <c r="H1" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2382,8 +2793,11 @@
       <c r="H2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2408,8 +2822,11 @@
       <c r="H3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2434,8 +2851,11 @@
       <c r="H4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2460,8 +2880,11 @@
       <c r="H5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2486,8 +2909,11 @@
       <c r="H6" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2512,8 +2938,11 @@
       <c r="H7" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2538,8 +2967,11 @@
       <c r="H8" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2564,8 +2996,11 @@
       <c r="H9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2590,8 +3025,11 @@
       <c r="H10" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2616,8 +3054,11 @@
       <c r="H11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2642,8 +3083,11 @@
       <c r="H12" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2668,8 +3112,11 @@
       <c r="H13" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2694,8 +3141,11 @@
       <c r="H14" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -2720,8 +3170,11 @@
       <c r="H15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2746,8 +3199,11 @@
       <c r="H16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2772,8 +3228,11 @@
       <c r="H17" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2798,8 +3257,11 @@
       <c r="H18" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2824,8 +3286,11 @@
       <c r="H19" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2847,8 +3312,11 @@
       <c r="H20" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2870,8 +3338,11 @@
       <c r="H21" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2893,8 +3364,11 @@
       <c r="H22" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2919,8 +3393,11 @@
       <c r="H23" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2945,8 +3422,11 @@
       <c r="H24" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2971,8 +3451,11 @@
       <c r="H25" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2997,8 +3480,11 @@
       <c r="H26" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3023,8 +3509,11 @@
       <c r="H27" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3049,8 +3538,11 @@
       <c r="H28" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3075,8 +3567,11 @@
       <c r="H29" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3101,8 +3596,11 @@
       <c r="H30" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -3127,8 +3625,11 @@
       <c r="H31" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3153,8 +3654,11 @@
       <c r="H32" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -3179,8 +3683,11 @@
       <c r="H33" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -3205,8 +3712,11 @@
       <c r="H34" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3231,8 +3741,11 @@
       <c r="H35" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -3257,8 +3770,11 @@
       <c r="H36" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -3283,8 +3799,11 @@
       <c r="H37" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -3309,8 +3828,11 @@
       <c r="H38" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -3335,8 +3857,11 @@
       <c r="H39" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -3361,8 +3886,11 @@
       <c r="H40" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -3387,8 +3915,11 @@
       <c r="H41" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -3413,8 +3944,11 @@
       <c r="H42" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -3439,8 +3973,11 @@
       <c r="H43" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -3465,8 +4002,11 @@
       <c r="H44" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -3491,8 +4031,11 @@
       <c r="H45" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -3517,8 +4060,11 @@
       <c r="H46" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -3543,8 +4089,11 @@
       <c r="H47" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -3569,8 +4118,11 @@
       <c r="H48" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -3595,8 +4147,11 @@
       <c r="H49" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -3621,8 +4176,11 @@
       <c r="H50" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -3647,8 +4205,11 @@
       <c r="H51" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -3673,8 +4234,11 @@
       <c r="H52" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -3699,8 +4263,11 @@
       <c r="H53" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -3725,8 +4292,11 @@
       <c r="H54" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -3751,8 +4321,11 @@
       <c r="H55" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -3777,8 +4350,11 @@
       <c r="H56" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -3803,8 +4379,11 @@
       <c r="H57" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -3829,8 +4408,11 @@
       <c r="H58" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -3855,8 +4437,11 @@
       <c r="H59" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -3881,8 +4466,11 @@
       <c r="H60" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -3907,8 +4495,11 @@
       <c r="H61" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -3933,8 +4524,11 @@
       <c r="H62" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -3959,8 +4553,11 @@
       <c r="H63" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -3985,8 +4582,11 @@
       <c r="H64" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4011,8 +4611,11 @@
       <c r="H65" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4037,8 +4640,11 @@
       <c r="H66" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -4063,8 +4669,11 @@
       <c r="H67" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -4089,8 +4698,11 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -4115,8 +4727,11 @@
       <c r="H69" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -4141,8 +4756,11 @@
       <c r="H70" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -4167,8 +4785,11 @@
       <c r="H71" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -4193,8 +4814,11 @@
       <c r="H72" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -4219,8 +4843,11 @@
       <c r="H73" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -4245,8 +4872,11 @@
       <c r="H74" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -4271,8 +4901,11 @@
       <c r="H75" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -4297,8 +4930,11 @@
       <c r="H76" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -4323,8 +4959,11 @@
       <c r="H77" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -4349,8 +4988,11 @@
       <c r="H78" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -4375,8 +5017,11 @@
       <c r="H79" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -4401,8 +5046,11 @@
       <c r="H80" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -4427,8 +5075,11 @@
       <c r="H81" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -4453,8 +5104,11 @@
       <c r="H82" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -4479,8 +5133,11 @@
       <c r="H83" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -4505,8 +5162,11 @@
       <c r="H84" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -4531,8 +5191,11 @@
       <c r="H85" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -4557,8 +5220,11 @@
       <c r="H86" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -4583,8 +5249,11 @@
       <c r="H87" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -4609,8 +5278,11 @@
       <c r="H88" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -4635,8 +5307,11 @@
       <c r="H89" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -4661,8 +5336,11 @@
       <c r="H90" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -4687,8 +5365,11 @@
       <c r="H91" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -4713,8 +5394,11 @@
       <c r="H92" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -4739,8 +5423,11 @@
       <c r="H93" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -4765,8 +5452,11 @@
       <c r="H94" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -4791,8 +5481,11 @@
       <c r="H95" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -4817,8 +5510,11 @@
       <c r="H96" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -4843,8 +5539,11 @@
       <c r="H97" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -4869,8 +5568,11 @@
       <c r="H98" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -4895,8 +5597,11 @@
       <c r="H99" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -4921,8 +5626,11 @@
       <c r="H100" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -4947,8 +5655,11 @@
       <c r="H101" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -4973,8 +5684,11 @@
       <c r="H102" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -4999,8 +5713,11 @@
       <c r="H103" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5025,8 +5742,11 @@
       <c r="H104" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -5051,8 +5771,11 @@
       <c r="H105" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -5077,8 +5800,11 @@
       <c r="H106" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -5103,8 +5829,11 @@
       <c r="H107" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -5129,8 +5858,11 @@
       <c r="H108" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -5155,8 +5887,11 @@
       <c r="H109" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -5181,8 +5916,11 @@
       <c r="H110" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -5207,8 +5945,11 @@
       <c r="H111" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -5233,8 +5974,11 @@
       <c r="H112" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -5259,8 +6003,11 @@
       <c r="H113" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -5285,8 +6032,11 @@
       <c r="H114" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -5311,8 +6061,11 @@
       <c r="H115" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -5337,8 +6090,11 @@
       <c r="H116" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -5363,8 +6119,11 @@
       <c r="H117" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -5389,8 +6148,11 @@
       <c r="H118" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -5415,8 +6177,11 @@
       <c r="H119" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -5441,8 +6206,11 @@
       <c r="H120" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -5467,8 +6235,11 @@
       <c r="H121" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -5493,8 +6264,11 @@
       <c r="H122" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -5519,8 +6293,11 @@
       <c r="H123" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -5545,8 +6322,11 @@
       <c r="H124" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -5571,8 +6351,11 @@
       <c r="H125" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -5597,8 +6380,11 @@
       <c r="H126" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -5623,8 +6409,11 @@
       <c r="H127" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -5649,8 +6438,11 @@
       <c r="H128" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -5675,8 +6467,11 @@
       <c r="H129" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -5701,8 +6496,11 @@
       <c r="H130" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -5727,8 +6525,11 @@
       <c r="H131" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -5753,8 +6554,11 @@
       <c r="H132" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -5779,8 +6583,11 @@
       <c r="H133" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -5805,8 +6612,11 @@
       <c r="H134" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -5831,8 +6641,11 @@
       <c r="H135" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -5856,6 +6669,9 @@
       </c>
       <c r="H136" t="s">
         <v>393</v>
+      </c>
+      <c r="I136" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\collector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70100CF9-2506-4C99-8377-B8358F472958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA303F9-0A6F-43AA-A6B8-24A88A25EE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="464">
   <si>
     <t xml:space="preserve">0x0002 </t>
   </si>
@@ -1441,15 +1441,6 @@
     <t>TP_Sistema PBM</t>
   </si>
   <si>
-    <t>TP_Iluminación Biogás</t>
-  </si>
-  <si>
-    <t>TP_Iluminación fotovoltaico</t>
-  </si>
-  <si>
-    <t>TP_Iluminación Smartgrid</t>
-  </si>
-  <si>
     <t>TP_Mesa Biogás Fotovoltaico</t>
   </si>
   <si>
@@ -1459,428 +1450,29 @@
     <t>TP_Mesón Sala Biogás</t>
   </si>
   <si>
+    <t>192.168.11.254</t>
+  </si>
+  <si>
+    <t>4pJB_298afu0WKjKBtPESjnUxvpJV0PODWBNMGzeeU_ahg1P4H3Bg5KOfwI2A9LXm2BQwaQR_un792HXy3bsvg==</t>
+  </si>
+  <si>
+    <t>TP_Iluminación área 2</t>
+  </si>
+  <si>
+    <t>TP_Iluminación área 3</t>
+  </si>
+  <si>
+    <t>TP_Iluminación área 1</t>
+  </si>
+  <si>
     <t>Laboratorio_Energias</t>
-  </si>
-  <si>
-    <t>4pJB_298afu0WKjKBtPESjnUxvpJV0PODWBNMGzeeU_ahg1P4H3Bg5KOfwI2A9LXm2BQwaQR_un792HXy3bsvg==</t>
-  </si>
-  <si>
-    <t>172.16.219.135</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>V-001</t>
-  </si>
-  <si>
-    <t>V-002</t>
-  </si>
-  <si>
-    <t>V-003</t>
-  </si>
-  <si>
-    <t>I-001</t>
-  </si>
-  <si>
-    <t>I-002</t>
-  </si>
-  <si>
-    <t>I-003</t>
-  </si>
-  <si>
-    <t>V-012</t>
-  </si>
-  <si>
-    <t>V-023</t>
-  </si>
-  <si>
-    <t>V-031</t>
-  </si>
-  <si>
-    <t>P-001</t>
-  </si>
-  <si>
-    <t>P-002</t>
-  </si>
-  <si>
-    <t>P-003</t>
-  </si>
-  <si>
-    <t>Q-001</t>
-  </si>
-  <si>
-    <t>Q-002</t>
-  </si>
-  <si>
-    <t>Q-003</t>
-  </si>
-  <si>
-    <t>S-001</t>
-  </si>
-  <si>
-    <t>S-002</t>
-  </si>
-  <si>
-    <t>S-003</t>
-  </si>
-  <si>
-    <t>FP-001</t>
-  </si>
-  <si>
-    <t>FP-002</t>
-  </si>
-  <si>
-    <t>FP-003</t>
-  </si>
-  <si>
-    <t>FREQ</t>
-  </si>
-  <si>
-    <t>V1-THD</t>
-  </si>
-  <si>
-    <t>V2-THD</t>
-  </si>
-  <si>
-    <t>V3-THD</t>
-  </si>
-  <si>
-    <t>I1-THD</t>
-  </si>
-  <si>
-    <t>I2-THD</t>
-  </si>
-  <si>
-    <t>I3-THD</t>
-  </si>
-  <si>
-    <t>V1-H02</t>
-  </si>
-  <si>
-    <t>V1-H03</t>
-  </si>
-  <si>
-    <t>V1-H04</t>
-  </si>
-  <si>
-    <t>V1-H05</t>
-  </si>
-  <si>
-    <t>V1-H06</t>
-  </si>
-  <si>
-    <t>V1-H07</t>
-  </si>
-  <si>
-    <t>V1-H08</t>
-  </si>
-  <si>
-    <t>V1-H09</t>
-  </si>
-  <si>
-    <t>V1-H10</t>
-  </si>
-  <si>
-    <t>V1-H11</t>
-  </si>
-  <si>
-    <t>V1-H12</t>
-  </si>
-  <si>
-    <t>V1-H13</t>
-  </si>
-  <si>
-    <t>V1-H14</t>
-  </si>
-  <si>
-    <t>V1-H15</t>
-  </si>
-  <si>
-    <t>V2-H02</t>
-  </si>
-  <si>
-    <t>V2-H03</t>
-  </si>
-  <si>
-    <t>V2-H04</t>
-  </si>
-  <si>
-    <t>V2-H05</t>
-  </si>
-  <si>
-    <t>V2-H06</t>
-  </si>
-  <si>
-    <t>V2-H07</t>
-  </si>
-  <si>
-    <t>V2-H08</t>
-  </si>
-  <si>
-    <t>V2-H09</t>
-  </si>
-  <si>
-    <t>V2-H10</t>
-  </si>
-  <si>
-    <t>V2-H11</t>
-  </si>
-  <si>
-    <t>V2-H12</t>
-  </si>
-  <si>
-    <t>V2-H13</t>
-  </si>
-  <si>
-    <t>V2-H14</t>
-  </si>
-  <si>
-    <t>V2-H15</t>
-  </si>
-  <si>
-    <t>V3-H02</t>
-  </si>
-  <si>
-    <t>V3-H03</t>
-  </si>
-  <si>
-    <t>V3-H04</t>
-  </si>
-  <si>
-    <t>V3-H05</t>
-  </si>
-  <si>
-    <t>V3-H06</t>
-  </si>
-  <si>
-    <t>V3-H07</t>
-  </si>
-  <si>
-    <t>V3-H08</t>
-  </si>
-  <si>
-    <t>V3-H09</t>
-  </si>
-  <si>
-    <t>V3-H10</t>
-  </si>
-  <si>
-    <t>V3-H11</t>
-  </si>
-  <si>
-    <t>V3-H12</t>
-  </si>
-  <si>
-    <t>V3-H13</t>
-  </si>
-  <si>
-    <t>V3-H14</t>
-  </si>
-  <si>
-    <t>V3-H15</t>
-  </si>
-  <si>
-    <t>I1-H01</t>
-  </si>
-  <si>
-    <t>I1-H02</t>
-  </si>
-  <si>
-    <t>I1-H03</t>
-  </si>
-  <si>
-    <t>I1-H04</t>
-  </si>
-  <si>
-    <t>I1-H05</t>
-  </si>
-  <si>
-    <t>I1-H06</t>
-  </si>
-  <si>
-    <t>I1-H07</t>
-  </si>
-  <si>
-    <t>I1-H08</t>
-  </si>
-  <si>
-    <t>I1-H09</t>
-  </si>
-  <si>
-    <t>I1-H10</t>
-  </si>
-  <si>
-    <t>I1-H11</t>
-  </si>
-  <si>
-    <t>I1-H12</t>
-  </si>
-  <si>
-    <t>I1-H13</t>
-  </si>
-  <si>
-    <t>I1-H14</t>
-  </si>
-  <si>
-    <t>I1-H15</t>
-  </si>
-  <si>
-    <t>I2-H01</t>
-  </si>
-  <si>
-    <t>I2-H02</t>
-  </si>
-  <si>
-    <t>I2-H03</t>
-  </si>
-  <si>
-    <t>I2-H04</t>
-  </si>
-  <si>
-    <t>I2-H05</t>
-  </si>
-  <si>
-    <t>I2-H06</t>
-  </si>
-  <si>
-    <t>I2-H07</t>
-  </si>
-  <si>
-    <t>I2-H08</t>
-  </si>
-  <si>
-    <t>I2-H09</t>
-  </si>
-  <si>
-    <t>I2-H10</t>
-  </si>
-  <si>
-    <t>I2-H11</t>
-  </si>
-  <si>
-    <t>I2-H12</t>
-  </si>
-  <si>
-    <t>I2-H13</t>
-  </si>
-  <si>
-    <t>I2-H14</t>
-  </si>
-  <si>
-    <t>I2-H15</t>
-  </si>
-  <si>
-    <t>I3-H01</t>
-  </si>
-  <si>
-    <t>I3-H02</t>
-  </si>
-  <si>
-    <t>I3-H03</t>
-  </si>
-  <si>
-    <t>I3-H04</t>
-  </si>
-  <si>
-    <t>I3-H05</t>
-  </si>
-  <si>
-    <t>I3-H06</t>
-  </si>
-  <si>
-    <t>I3-H07</t>
-  </si>
-  <si>
-    <t>I3-H08</t>
-  </si>
-  <si>
-    <t>I3-H09</t>
-  </si>
-  <si>
-    <t>I3-H10</t>
-  </si>
-  <si>
-    <t>I3-H11</t>
-  </si>
-  <si>
-    <t>I3-H12</t>
-  </si>
-  <si>
-    <t>I3-H13</t>
-  </si>
-  <si>
-    <t>I3-H14</t>
-  </si>
-  <si>
-    <t>I3-H15</t>
-  </si>
-  <si>
-    <t>EAI-123</t>
-  </si>
-  <si>
-    <t>EAE-123</t>
-  </si>
-  <si>
-    <t>ERI-123</t>
-  </si>
-  <si>
-    <t>ERE-123</t>
-  </si>
-  <si>
-    <t>EAP-123</t>
-  </si>
-  <si>
-    <t>EAI-001</t>
-  </si>
-  <si>
-    <t>EAE-001</t>
-  </si>
-  <si>
-    <t>ERI-001</t>
-  </si>
-  <si>
-    <t>ERE-001</t>
-  </si>
-  <si>
-    <t>EAP-001</t>
-  </si>
-  <si>
-    <t>EAI-002</t>
-  </si>
-  <si>
-    <t>EAE-002</t>
-  </si>
-  <si>
-    <t>ERI-002</t>
-  </si>
-  <si>
-    <t>ERE-002</t>
-  </si>
-  <si>
-    <t>EAP-002</t>
-  </si>
-  <si>
-    <t>EAI-003</t>
-  </si>
-  <si>
-    <t>EAE-003</t>
-  </si>
-  <si>
-    <t>ERI-003</t>
-  </si>
-  <si>
-    <t>ERE-003</t>
-  </si>
-  <si>
-    <t>EAP-003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1916,9 +1508,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1949,9 +1544,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2232,20 +1825,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2265,7 +1858,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -2276,17 +1869,21 @@
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E2" t="s">
         <v>438</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>462</v>
-      </c>
+      <c r="F2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2295,16 +1892,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -2318,15 +1915,15 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2339,10 +1936,10 @@
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
@@ -2352,7 +1949,7 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>428</v>
       </c>
@@ -2363,7 +1960,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2374,7 +1971,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2385,7 +1982,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2396,7 +1993,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2407,7 +2004,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2418,7 +2015,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2429,7 +2026,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2440,7 +2037,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2451,7 +2048,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2462,18 +2059,18 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C11" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2484,18 +2081,18 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C13" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2506,51 +2103,51 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C15" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C16" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C17" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C18" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2561,7 +2158,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2572,7 +2169,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2583,136 +2180,136 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
     </row>
   </sheetData>
@@ -2722,13 +2319,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2739,7 +2336,7 @@
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2764,11 +2361,8 @@
       <c r="H1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2793,11 +2387,8 @@
       <c r="H2" t="s">
         <v>277</v>
       </c>
-      <c r="I2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2822,11 +2413,8 @@
       <c r="H3" t="s">
         <v>278</v>
       </c>
-      <c r="I3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2851,11 +2439,8 @@
       <c r="H4" t="s">
         <v>279</v>
       </c>
-      <c r="I4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2880,11 +2465,8 @@
       <c r="H5" t="s">
         <v>280</v>
       </c>
-      <c r="I5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2909,11 +2491,8 @@
       <c r="H6" t="s">
         <v>281</v>
       </c>
-      <c r="I6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2938,11 +2517,8 @@
       <c r="H7" t="s">
         <v>282</v>
       </c>
-      <c r="I7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2967,11 +2543,8 @@
       <c r="H8" t="s">
         <v>283</v>
       </c>
-      <c r="I8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2996,11 +2569,8 @@
       <c r="H9" t="s">
         <v>284</v>
       </c>
-      <c r="I9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3025,11 +2595,8 @@
       <c r="H10" t="s">
         <v>285</v>
       </c>
-      <c r="I10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3054,11 +2621,8 @@
       <c r="H11" t="s">
         <v>286</v>
       </c>
-      <c r="I11" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3083,11 +2647,8 @@
       <c r="H12" t="s">
         <v>287</v>
       </c>
-      <c r="I12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3112,11 +2673,8 @@
       <c r="H13" t="s">
         <v>288</v>
       </c>
-      <c r="I13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3141,11 +2699,8 @@
       <c r="H14" t="s">
         <v>290</v>
       </c>
-      <c r="I14" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3170,11 +2725,8 @@
       <c r="H15" t="s">
         <v>289</v>
       </c>
-      <c r="I15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3199,11 +2751,8 @@
       <c r="H16" t="s">
         <v>291</v>
       </c>
-      <c r="I16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3228,11 +2777,8 @@
       <c r="H17" t="s">
         <v>292</v>
       </c>
-      <c r="I17" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3257,11 +2803,8 @@
       <c r="H18" t="s">
         <v>293</v>
       </c>
-      <c r="I18" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3286,11 +2829,8 @@
       <c r="H19" t="s">
         <v>294</v>
       </c>
-      <c r="I19" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3312,11 +2852,8 @@
       <c r="H20" t="s">
         <v>295</v>
       </c>
-      <c r="I20" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3338,11 +2875,8 @@
       <c r="H21" t="s">
         <v>296</v>
       </c>
-      <c r="I21" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3364,11 +2898,8 @@
       <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="I22" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3393,11 +2924,8 @@
       <c r="H23" t="s">
         <v>276</v>
       </c>
-      <c r="I23" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3422,11 +2950,8 @@
       <c r="H24" t="s">
         <v>298</v>
       </c>
-      <c r="I24" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3451,11 +2976,8 @@
       <c r="H25" t="s">
         <v>299</v>
       </c>
-      <c r="I25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3480,11 +3002,8 @@
       <c r="H26" t="s">
         <v>300</v>
       </c>
-      <c r="I26" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3509,11 +3028,8 @@
       <c r="H27" t="s">
         <v>301</v>
       </c>
-      <c r="I27" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3538,11 +3054,8 @@
       <c r="H28" t="s">
         <v>302</v>
       </c>
-      <c r="I28" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3567,11 +3080,8 @@
       <c r="H29" t="s">
         <v>303</v>
       </c>
-      <c r="I29" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3596,11 +3106,8 @@
       <c r="H30" t="s">
         <v>304</v>
       </c>
-      <c r="I30" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -3625,11 +3132,8 @@
       <c r="H31" t="s">
         <v>305</v>
       </c>
-      <c r="I31" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3654,11 +3158,8 @@
       <c r="H32" t="s">
         <v>311</v>
       </c>
-      <c r="I32" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -3683,11 +3184,8 @@
       <c r="H33" t="s">
         <v>306</v>
       </c>
-      <c r="I33" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -3712,11 +3210,8 @@
       <c r="H34" t="s">
         <v>307</v>
       </c>
-      <c r="I34" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3741,11 +3236,8 @@
       <c r="H35" t="s">
         <v>308</v>
       </c>
-      <c r="I35" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -3770,11 +3262,8 @@
       <c r="H36" t="s">
         <v>309</v>
       </c>
-      <c r="I36" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -3799,11 +3288,8 @@
       <c r="H37" t="s">
         <v>310</v>
       </c>
-      <c r="I37" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -3828,11 +3314,8 @@
       <c r="H38" t="s">
         <v>312</v>
       </c>
-      <c r="I38" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -3857,11 +3340,8 @@
       <c r="H39" t="s">
         <v>313</v>
       </c>
-      <c r="I39" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -3886,11 +3366,8 @@
       <c r="H40" t="s">
         <v>314</v>
       </c>
-      <c r="I40" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -3915,11 +3392,8 @@
       <c r="H41" t="s">
         <v>315</v>
       </c>
-      <c r="I41" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -3944,11 +3418,8 @@
       <c r="H42" t="s">
         <v>316</v>
       </c>
-      <c r="I42" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -3973,11 +3444,8 @@
       <c r="H43" t="s">
         <v>317</v>
       </c>
-      <c r="I43" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -4002,11 +3470,8 @@
       <c r="H44" t="s">
         <v>318</v>
       </c>
-      <c r="I44" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -4031,11 +3496,8 @@
       <c r="H45" t="s">
         <v>319</v>
       </c>
-      <c r="I45" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -4060,11 +3522,8 @@
       <c r="H46" t="s">
         <v>320</v>
       </c>
-      <c r="I46" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -4089,11 +3548,8 @@
       <c r="H47" t="s">
         <v>321</v>
       </c>
-      <c r="I47" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -4118,11 +3574,8 @@
       <c r="H48" t="s">
         <v>322</v>
       </c>
-      <c r="I48" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4147,11 +3600,8 @@
       <c r="H49" t="s">
         <v>323</v>
       </c>
-      <c r="I49" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -4176,11 +3626,8 @@
       <c r="H50" t="s">
         <v>324</v>
       </c>
-      <c r="I50" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -4205,11 +3652,8 @@
       <c r="H51" t="s">
         <v>325</v>
       </c>
-      <c r="I51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -4234,11 +3678,8 @@
       <c r="H52" t="s">
         <v>326</v>
       </c>
-      <c r="I52" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -4263,11 +3704,8 @@
       <c r="H53" t="s">
         <v>327</v>
       </c>
-      <c r="I53" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -4292,11 +3730,8 @@
       <c r="H54" t="s">
         <v>328</v>
       </c>
-      <c r="I54" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -4321,11 +3756,8 @@
       <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="I55" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4350,11 +3782,8 @@
       <c r="H56" t="s">
         <v>330</v>
       </c>
-      <c r="I56" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -4379,11 +3808,8 @@
       <c r="H57" t="s">
         <v>331</v>
       </c>
-      <c r="I57" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -4408,11 +3834,8 @@
       <c r="H58" t="s">
         <v>332</v>
       </c>
-      <c r="I58" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -4437,11 +3860,8 @@
       <c r="H59" t="s">
         <v>333</v>
       </c>
-      <c r="I59" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -4466,11 +3886,8 @@
       <c r="H60" t="s">
         <v>334</v>
       </c>
-      <c r="I60" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -4495,11 +3912,8 @@
       <c r="H61" t="s">
         <v>335</v>
       </c>
-      <c r="I61" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -4524,11 +3938,8 @@
       <c r="H62" t="s">
         <v>336</v>
       </c>
-      <c r="I62" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -4553,11 +3964,8 @@
       <c r="H63" t="s">
         <v>337</v>
       </c>
-      <c r="I63" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -4582,11 +3990,8 @@
       <c r="H64" t="s">
         <v>338</v>
       </c>
-      <c r="I64" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4611,11 +4016,8 @@
       <c r="H65" t="s">
         <v>339</v>
       </c>
-      <c r="I65" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4640,11 +4042,8 @@
       <c r="H66" t="s">
         <v>340</v>
       </c>
-      <c r="I66" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -4669,11 +4068,8 @@
       <c r="H67" t="s">
         <v>341</v>
       </c>
-      <c r="I67" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -4698,11 +4094,8 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="I68" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -4727,11 +4120,8 @@
       <c r="H69" t="s">
         <v>343</v>
       </c>
-      <c r="I69" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -4756,11 +4146,8 @@
       <c r="H70" t="s">
         <v>344</v>
       </c>
-      <c r="I70" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -4785,11 +4172,8 @@
       <c r="H71" t="s">
         <v>345</v>
       </c>
-      <c r="I71" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -4814,11 +4198,8 @@
       <c r="H72" t="s">
         <v>348</v>
       </c>
-      <c r="I72" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -4843,11 +4224,8 @@
       <c r="H73" t="s">
         <v>346</v>
       </c>
-      <c r="I73" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -4872,11 +4250,8 @@
       <c r="H74" t="s">
         <v>347</v>
       </c>
-      <c r="I74" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -4901,11 +4276,8 @@
       <c r="H75" t="s">
         <v>349</v>
       </c>
-      <c r="I75" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>237</v>
       </c>
@@ -4930,11 +4302,8 @@
       <c r="H76" t="s">
         <v>350</v>
       </c>
-      <c r="I76" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>238</v>
       </c>
@@ -4959,11 +4328,8 @@
       <c r="H77" t="s">
         <v>351</v>
       </c>
-      <c r="I77" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -4988,11 +4354,8 @@
       <c r="H78" t="s">
         <v>352</v>
       </c>
-      <c r="I78" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -5017,11 +4380,8 @@
       <c r="H79" t="s">
         <v>353</v>
       </c>
-      <c r="I79" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5046,11 +4406,8 @@
       <c r="H80" t="s">
         <v>354</v>
       </c>
-      <c r="I80" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -5075,11 +4432,8 @@
       <c r="H81" t="s">
         <v>355</v>
       </c>
-      <c r="I81" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -5104,11 +4458,8 @@
       <c r="H82" t="s">
         <v>356</v>
       </c>
-      <c r="I82" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -5133,11 +4484,8 @@
       <c r="H83" t="s">
         <v>357</v>
       </c>
-      <c r="I83" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>245</v>
       </c>
@@ -5162,11 +4510,8 @@
       <c r="H84" t="s">
         <v>358</v>
       </c>
-      <c r="I84" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5191,11 +4536,8 @@
       <c r="H85" t="s">
         <v>359</v>
       </c>
-      <c r="I85" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5220,11 +4562,8 @@
       <c r="H86" t="s">
         <v>360</v>
       </c>
-      <c r="I86" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -5249,11 +4588,8 @@
       <c r="H87" t="s">
         <v>361</v>
       </c>
-      <c r="I87" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -5278,11 +4614,8 @@
       <c r="H88" t="s">
         <v>362</v>
       </c>
-      <c r="I88" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -5307,11 +4640,8 @@
       <c r="H89" t="s">
         <v>375</v>
       </c>
-      <c r="I89" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -5336,11 +4666,8 @@
       <c r="H90" t="s">
         <v>363</v>
       </c>
-      <c r="I90" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -5365,11 +4692,8 @@
       <c r="H91" t="s">
         <v>364</v>
       </c>
-      <c r="I91" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -5394,11 +4718,8 @@
       <c r="H92" t="s">
         <v>365</v>
       </c>
-      <c r="I92" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -5423,11 +4744,8 @@
       <c r="H93" t="s">
         <v>366</v>
       </c>
-      <c r="I93" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -5452,11 +4770,8 @@
       <c r="H94" t="s">
         <v>367</v>
       </c>
-      <c r="I94" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -5481,11 +4796,8 @@
       <c r="H95" t="s">
         <v>368</v>
       </c>
-      <c r="I95" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>255</v>
       </c>
@@ -5510,11 +4822,8 @@
       <c r="H96" t="s">
         <v>369</v>
       </c>
-      <c r="I96" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -5539,11 +4848,8 @@
       <c r="H97" t="s">
         <v>370</v>
       </c>
-      <c r="I97" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -5568,11 +4874,8 @@
       <c r="H98" t="s">
         <v>371</v>
       </c>
-      <c r="I98" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -5597,11 +4900,8 @@
       <c r="H99" t="s">
         <v>372</v>
       </c>
-      <c r="I99" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -5626,11 +4926,8 @@
       <c r="H100" t="s">
         <v>373</v>
       </c>
-      <c r="I100" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -5655,11 +4952,8 @@
       <c r="H101" t="s">
         <v>374</v>
       </c>
-      <c r="I101" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -5684,11 +4978,8 @@
       <c r="H102" t="s">
         <v>376</v>
       </c>
-      <c r="I102" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -5713,11 +5004,8 @@
       <c r="H103" t="s">
         <v>377</v>
       </c>
-      <c r="I103" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>261</v>
       </c>
@@ -5742,11 +5030,8 @@
       <c r="H104" t="s">
         <v>378</v>
       </c>
-      <c r="I104" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -5771,11 +5056,8 @@
       <c r="H105" t="s">
         <v>379</v>
       </c>
-      <c r="I105" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>263</v>
       </c>
@@ -5800,11 +5082,8 @@
       <c r="H106" t="s">
         <v>380</v>
       </c>
-      <c r="I106" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -5829,11 +5108,8 @@
       <c r="H107" t="s">
         <v>381</v>
       </c>
-      <c r="I107" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -5858,11 +5134,8 @@
       <c r="H108" t="s">
         <v>382</v>
       </c>
-      <c r="I108" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -5887,11 +5160,8 @@
       <c r="H109" t="s">
         <v>383</v>
       </c>
-      <c r="I109" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -5916,11 +5186,8 @@
       <c r="H110" t="s">
         <v>384</v>
       </c>
-      <c r="I110" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -5945,11 +5212,8 @@
       <c r="H111" t="s">
         <v>385</v>
       </c>
-      <c r="I111" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -5974,11 +5238,8 @@
       <c r="H112" t="s">
         <v>386</v>
       </c>
-      <c r="I112" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -6003,11 +5264,8 @@
       <c r="H113" t="s">
         <v>387</v>
       </c>
-      <c r="I113" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -6032,11 +5290,8 @@
       <c r="H114" t="s">
         <v>388</v>
       </c>
-      <c r="I114" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -6061,11 +5316,8 @@
       <c r="H115" t="s">
         <v>389</v>
       </c>
-      <c r="I115" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -6090,11 +5342,8 @@
       <c r="H116" t="s">
         <v>390</v>
       </c>
-      <c r="I116" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -6119,11 +5368,8 @@
       <c r="H117" t="s">
         <v>405</v>
       </c>
-      <c r="I117" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -6148,11 +5394,8 @@
       <c r="H118" t="s">
         <v>406</v>
       </c>
-      <c r="I118" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -6177,11 +5420,8 @@
       <c r="H119" t="s">
         <v>407</v>
       </c>
-      <c r="I119" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>66</v>
       </c>
@@ -6206,11 +5446,8 @@
       <c r="H120" t="s">
         <v>408</v>
       </c>
-      <c r="I120" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -6235,11 +5472,8 @@
       <c r="H121" t="s">
         <v>409</v>
       </c>
-      <c r="I121" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -6264,11 +5498,8 @@
       <c r="H122" t="s">
         <v>394</v>
       </c>
-      <c r="I122" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -6293,11 +5524,8 @@
       <c r="H123" t="s">
         <v>404</v>
       </c>
-      <c r="I123" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6322,11 +5550,8 @@
       <c r="H124" t="s">
         <v>398</v>
       </c>
-      <c r="I124" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -6351,11 +5576,8 @@
       <c r="H125" t="s">
         <v>397</v>
       </c>
-      <c r="I125" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -6380,11 +5602,8 @@
       <c r="H126" t="s">
         <v>391</v>
       </c>
-      <c r="I126" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -6409,11 +5628,8 @@
       <c r="H127" t="s">
         <v>395</v>
       </c>
-      <c r="I127" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -6438,11 +5654,8 @@
       <c r="H128" t="s">
         <v>401</v>
       </c>
-      <c r="I128" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -6467,11 +5680,8 @@
       <c r="H129" t="s">
         <v>399</v>
       </c>
-      <c r="I129" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -6496,11 +5706,8 @@
       <c r="H130" t="s">
         <v>402</v>
       </c>
-      <c r="I130" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>88</v>
       </c>
@@ -6525,11 +5732,8 @@
       <c r="H131" t="s">
         <v>392</v>
       </c>
-      <c r="I131" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>90</v>
       </c>
@@ -6554,11 +5758,8 @@
       <c r="H132" t="s">
         <v>396</v>
       </c>
-      <c r="I132" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -6583,11 +5784,8 @@
       <c r="H133" t="s">
         <v>403</v>
       </c>
-      <c r="I133" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>94</v>
       </c>
@@ -6612,11 +5810,8 @@
       <c r="H134" t="s">
         <v>400</v>
       </c>
-      <c r="I134" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -6641,11 +5836,8 @@
       <c r="H135" t="s">
         <v>410</v>
       </c>
-      <c r="I135" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -6669,9 +5861,6 @@
       </c>
       <c r="H136" t="s">
         <v>393</v>
-      </c>
-      <c r="I136" t="s">
-        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\collector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA303F9-0A6F-43AA-A6B8-24A88A25EE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2169A7C-1F4F-40A7-AF13-93909BC95114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -1450,9 +1450,6 @@
     <t>TP_Mesón Sala Biogás</t>
   </si>
   <si>
-    <t>192.168.11.254</t>
-  </si>
-  <si>
     <t>4pJB_298afu0WKjKBtPESjnUxvpJV0PODWBNMGzeeU_ahg1P4H3Bg5KOfwI2A9LXm2BQwaQR_un792HXy3bsvg==</t>
   </si>
   <si>
@@ -1466,6 +1463,9 @@
   </si>
   <si>
     <t>Laboratorio_Energias</t>
+  </si>
+  <si>
+    <t>172.16.219.135</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC6858-70D5-49A5-93A4-2D625DB38246}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1869,13 +1869,13 @@
         <v>8086</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E2" t="s">
         <v>438</v>
       </c>
       <c r="F2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2A57D7-4623-4215-B0A6-34ECAFBF0F7A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,10 +1920,10 @@
         <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C2">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C11" t="s">
         <v>435</v>
@@ -2086,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C13" t="s">
         <v>435</v>
@@ -2108,7 +2108,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C15" t="s">
         <v>435</v>

--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="705">
   <si>
     <t>Name</t>
   </si>
@@ -86,7 +86,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>localhost</t>
+    <t>host.docker.internal</t>
   </si>
   <si>
     <t>Laboratorio_Energias</t>
@@ -482,15 +482,135 @@
     <t>FREQ</t>
   </si>
   <si>
+    <t>0x0034</t>
+  </si>
+  <si>
+    <t>Eqv Phase Voltage</t>
+  </si>
+  <si>
+    <t>Voltaje Equivalente LN</t>
+  </si>
+  <si>
+    <t>VN-123</t>
+  </si>
+  <si>
+    <t>0x0036</t>
+  </si>
+  <si>
+    <t>Eqv Phase-To-Phase Voltage</t>
+  </si>
+  <si>
+    <t>Voltaje Equivalente LL</t>
+  </si>
+  <si>
+    <t>V-123</t>
+  </si>
+  <si>
+    <t>0x0038</t>
+  </si>
+  <si>
+    <t>Eqv Current</t>
+  </si>
+  <si>
+    <t>Corriente Equivalente</t>
+  </si>
+  <si>
+    <t>I-123</t>
+  </si>
+  <si>
+    <t>0x003A</t>
+  </si>
+  <si>
+    <t>Eqv Active Power</t>
+  </si>
+  <si>
+    <t>Total Potencia Activa</t>
+  </si>
+  <si>
+    <t>P-123</t>
+  </si>
+  <si>
+    <t>0x003C</t>
+  </si>
+  <si>
+    <t>Eqv Reactive Power</t>
+  </si>
+  <si>
+    <t>Total Potencia Reactiva</t>
+  </si>
+  <si>
+    <t>Q-123</t>
+  </si>
+  <si>
+    <t>0x003E</t>
+  </si>
+  <si>
+    <t>Eqv Apparent Power</t>
+  </si>
+  <si>
+    <t>Total Potencia Aparente</t>
+  </si>
+  <si>
+    <t>S-123</t>
+  </si>
+  <si>
+    <t>0x0040</t>
+  </si>
+  <si>
+    <t>Eqv Power Factor</t>
+  </si>
+  <si>
+    <t>Total Factor de Potencia</t>
+  </si>
+  <si>
+    <t>FP-123</t>
+  </si>
+  <si>
+    <t>0x0042</t>
+  </si>
+  <si>
+    <t>VLL Unbalance</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Desbalance de Voltaje LN</t>
+  </si>
+  <si>
+    <t>VNU-123</t>
+  </si>
+  <si>
+    <t>0x0044</t>
+  </si>
+  <si>
+    <t>VLN Unbalance</t>
+  </si>
+  <si>
+    <t>Desbalance de Voltaje LL</t>
+  </si>
+  <si>
+    <t>VU-123</t>
+  </si>
+  <si>
+    <t>0x0046</t>
+  </si>
+  <si>
+    <t>Current Unbalance</t>
+  </si>
+  <si>
+    <t>Desbalance de Corriente</t>
+  </si>
+  <si>
+    <t>IU-123</t>
+  </si>
+  <si>
     <t>0x0054</t>
   </si>
   <si>
     <t>Thd L1 Voltage</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>L1 THD Voltaje</t>
   </si>
   <si>
@@ -1800,6 +1920,264 @@
   </si>
   <si>
     <t>EAP-003</t>
+  </si>
+  <si>
+    <t>0x1800</t>
+  </si>
+  <si>
+    <t>Dip</t>
+  </si>
+  <si>
+    <t>DIP</t>
+  </si>
+  <si>
+    <t>0x1802</t>
+  </si>
+  <si>
+    <t>Swell</t>
+  </si>
+  <si>
+    <t>SWELL</t>
+  </si>
+  <si>
+    <t>0x1804</t>
+  </si>
+  <si>
+    <t>Interruptions</t>
+  </si>
+  <si>
+    <t>INTER</t>
+  </si>
+  <si>
+    <t>0x1806</t>
+  </si>
+  <si>
+    <t>Interruptions  &gt; 180S</t>
+  </si>
+  <si>
+    <t>INTER180</t>
+  </si>
+  <si>
+    <t>0x1808</t>
+  </si>
+  <si>
+    <t>Voltage variation NHI</t>
+  </si>
+  <si>
+    <t>VV-NHI</t>
+  </si>
+  <si>
+    <t>0x180A</t>
+  </si>
+  <si>
+    <t>Voltage variation HI</t>
+  </si>
+  <si>
+    <t>VV-HI</t>
+  </si>
+  <si>
+    <t>0x180C</t>
+  </si>
+  <si>
+    <t>Voltage variation NLOW</t>
+  </si>
+  <si>
+    <t>VV-NLOW</t>
+  </si>
+  <si>
+    <t>0x180E</t>
+  </si>
+  <si>
+    <t>Voltage variation LOW</t>
+  </si>
+  <si>
+    <t>VV-LOW</t>
+  </si>
+  <si>
+    <t>0x1810</t>
+  </si>
+  <si>
+    <t>THD</t>
+  </si>
+  <si>
+    <t>0x1812</t>
+  </si>
+  <si>
+    <t>Asymmetry</t>
+  </si>
+  <si>
+    <t>ASYMM</t>
+  </si>
+  <si>
+    <t>0x1814</t>
+  </si>
+  <si>
+    <t>Frequency variation NHI</t>
+  </si>
+  <si>
+    <t>FV-NHI</t>
+  </si>
+  <si>
+    <t>0x1816</t>
+  </si>
+  <si>
+    <t>Frequency variation HI</t>
+  </si>
+  <si>
+    <t>FV-HI</t>
+  </si>
+  <si>
+    <t>0x1818</t>
+  </si>
+  <si>
+    <t>Frequency variation NLOW</t>
+  </si>
+  <si>
+    <t>FV-NLOW</t>
+  </si>
+  <si>
+    <t>0x181A</t>
+  </si>
+  <si>
+    <t>Frequency variation LOW</t>
+  </si>
+  <si>
+    <t>FV-LOW</t>
+  </si>
+  <si>
+    <t>0x181C</t>
+  </si>
+  <si>
+    <t>Harmonics</t>
+  </si>
+  <si>
+    <t>HARMO</t>
+  </si>
+  <si>
+    <t>0x33E0</t>
+  </si>
+  <si>
+    <t>Overvoltage (Weekly)</t>
+  </si>
+  <si>
+    <t>OV-WEEK</t>
+  </si>
+  <si>
+    <t>0x33E1</t>
+  </si>
+  <si>
+    <t>Undervoltage (Weekly)</t>
+  </si>
+  <si>
+    <t>UV-WEEK</t>
+  </si>
+  <si>
+    <t>0x33E2</t>
+  </si>
+  <si>
+    <t>Voltage THD (Weekly)</t>
+  </si>
+  <si>
+    <t>VTHD-WEEK</t>
+  </si>
+  <si>
+    <t>0x33E3</t>
+  </si>
+  <si>
+    <t>Voltage asymmetry (Weekly)</t>
+  </si>
+  <si>
+    <t>VAS-WEEK</t>
+  </si>
+  <si>
+    <t>0x33E4</t>
+  </si>
+  <si>
+    <t>Overfrequency (Weekly)</t>
+  </si>
+  <si>
+    <t>OF-WEEK</t>
+  </si>
+  <si>
+    <t>0x33E5</t>
+  </si>
+  <si>
+    <t>Underfrequency (Weekly)</t>
+  </si>
+  <si>
+    <t>UF-WEEK</t>
+  </si>
+  <si>
+    <t>0x33E6</t>
+  </si>
+  <si>
+    <t>Voltage single harmonics (Weekly)</t>
+  </si>
+  <si>
+    <t>VSH-WEEK</t>
+  </si>
+  <si>
+    <t>0x3770</t>
+  </si>
+  <si>
+    <t>Overvoltage (Yearly)</t>
+  </si>
+  <si>
+    <t>OV-YEAR</t>
+  </si>
+  <si>
+    <t>0x3771</t>
+  </si>
+  <si>
+    <t>Undervoltage (Yearly)</t>
+  </si>
+  <si>
+    <t>UV-YEAR</t>
+  </si>
+  <si>
+    <t>0x3772</t>
+  </si>
+  <si>
+    <t>Voltage THD (Yearly)</t>
+  </si>
+  <si>
+    <t>VTHD-YEAR</t>
+  </si>
+  <si>
+    <t>0x3773</t>
+  </si>
+  <si>
+    <t>Voltage asymmetry (Yearly)</t>
+  </si>
+  <si>
+    <t>VAS-YEAR</t>
+  </si>
+  <si>
+    <t>0x3774</t>
+  </si>
+  <si>
+    <t>Overfrequency (Yearly)</t>
+  </si>
+  <si>
+    <t>OF-YEAR</t>
+  </si>
+  <si>
+    <t>0x3775</t>
+  </si>
+  <si>
+    <t>Underfrequency (Yearly)</t>
+  </si>
+  <si>
+    <t>UF-YEAR</t>
+  </si>
+  <si>
+    <t>0x3776</t>
+  </si>
+  <si>
+    <t>Voltage single harmonics (Yearly)</t>
+  </si>
+  <si>
+    <t>VSH-YEAR</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +2190,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,13 +2223,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2003,12 +2374,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -2317,28 +2688,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2347,118 +2721,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2800,11 +3171,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
+    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="26.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="100.428571428571" customWidth="1"/>
@@ -2912,7 +3284,7 @@
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -3297,10 +3669,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A118" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3313,7 +3685,8 @@
     <col min="6" max="6" width="14.2857142857143" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.4285714285714" style="2" customWidth="1"/>
     <col min="8" max="8" width="33" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="2"/>
+    <col min="9" max="9" width="14.1428571428571" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -3880,7 +4253,6 @@
       <c r="D20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="2"/>
       <c r="F20" s="4" t="s">
         <v>85</v>
       </c>
@@ -3907,7 +4279,6 @@
       <c r="D21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="2"/>
       <c r="F21" s="4" t="s">
         <v>85</v>
       </c>
@@ -3934,7 +4305,6 @@
       <c r="D22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="2"/>
       <c r="F22" s="4" t="s">
         <v>85</v>
       </c>
@@ -3981,8 +4351,8 @@
       <c r="A24" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="5">
-        <v>84</v>
+      <c r="B24" s="2">
+        <v>52</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -3990,222 +4360,219 @@
       <c r="D24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="2">
+        <v>100</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="5">
-        <v>100</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="2">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="5">
-        <v>86</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="2">
+        <v>100</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="5">
-        <v>100</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="2">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="5">
-        <v>88</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="5">
-        <v>100</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="2">
+        <v>58</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="5">
-        <v>90</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="5">
-        <v>100</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="2">
+        <v>60</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="5">
-        <v>92</v>
-      </c>
-      <c r="C28" s="5">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="5">
-        <v>100</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="2">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="5">
-        <v>94</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="5">
-        <v>100</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="2">
+        <v>64</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B30" s="5">
-        <v>3072</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="F30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="5">
-        <v>100</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="2">
+        <v>66</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="5">
-        <v>3074</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="5">
-        <v>100</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="E31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="2">
+        <v>100</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4213,8 +4580,8 @@
       <c r="A32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="5">
-        <v>3076</v>
+      <c r="B32" s="2">
+        <v>68</v>
       </c>
       <c r="C32" s="5">
         <v>2</v>
@@ -4222,19 +4589,19 @@
       <c r="D32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="5">
-        <v>100</v>
-      </c>
-      <c r="H32" s="4" t="s">
+      <c r="E32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="2">
+        <v>100</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4242,8 +4609,8 @@
       <c r="A33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="5">
-        <v>3078</v>
+      <c r="B33" s="2">
+        <v>70</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
@@ -4251,19 +4618,19 @@
       <c r="D33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="5">
-        <v>100</v>
-      </c>
-      <c r="H33" s="4" t="s">
+      <c r="E33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="2">
+        <v>100</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4272,7 +4639,7 @@
         <v>180</v>
       </c>
       <c r="B34" s="5">
-        <v>3080</v>
+        <v>84</v>
       </c>
       <c r="C34" s="5">
         <v>2</v>
@@ -4281,7 +4648,7 @@
         <v>181</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>46</v>
@@ -4301,7 +4668,7 @@
         <v>184</v>
       </c>
       <c r="B35" s="5">
-        <v>3082</v>
+        <v>86</v>
       </c>
       <c r="C35" s="5">
         <v>2</v>
@@ -4310,7 +4677,7 @@
         <v>185</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>46</v>
@@ -4330,7 +4697,7 @@
         <v>188</v>
       </c>
       <c r="B36" s="5">
-        <v>3084</v>
+        <v>88</v>
       </c>
       <c r="C36" s="5">
         <v>2</v>
@@ -4339,7 +4706,7 @@
         <v>189</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>46</v>
@@ -4359,7 +4726,7 @@
         <v>192</v>
       </c>
       <c r="B37" s="5">
-        <v>3086</v>
+        <v>90</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
@@ -4368,7 +4735,7 @@
         <v>193</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>46</v>
@@ -4388,7 +4755,7 @@
         <v>196</v>
       </c>
       <c r="B38" s="5">
-        <v>3088</v>
+        <v>92</v>
       </c>
       <c r="C38" s="5">
         <v>2</v>
@@ -4397,7 +4764,7 @@
         <v>197</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>46</v>
@@ -4417,7 +4784,7 @@
         <v>200</v>
       </c>
       <c r="B39" s="5">
-        <v>3090</v>
+        <v>94</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
@@ -4426,7 +4793,7 @@
         <v>201</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>46</v>
@@ -4446,7 +4813,7 @@
         <v>204</v>
       </c>
       <c r="B40" s="5">
-        <v>3092</v>
+        <v>3072</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
@@ -4455,7 +4822,7 @@
         <v>205</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>46</v>
@@ -4475,7 +4842,7 @@
         <v>208</v>
       </c>
       <c r="B41" s="5">
-        <v>3094</v>
+        <v>3074</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
@@ -4484,7 +4851,7 @@
         <v>209</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>46</v>
@@ -4504,7 +4871,7 @@
         <v>212</v>
       </c>
       <c r="B42" s="5">
-        <v>3096</v>
+        <v>3076</v>
       </c>
       <c r="C42" s="5">
         <v>2</v>
@@ -4513,7 +4880,7 @@
         <v>213</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>46</v>
@@ -4533,7 +4900,7 @@
         <v>216</v>
       </c>
       <c r="B43" s="5">
-        <v>3098</v>
+        <v>3078</v>
       </c>
       <c r="C43" s="5">
         <v>2</v>
@@ -4542,7 +4909,7 @@
         <v>217</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>46</v>
@@ -4562,7 +4929,7 @@
         <v>220</v>
       </c>
       <c r="B44" s="5">
-        <v>3136</v>
+        <v>3080</v>
       </c>
       <c r="C44" s="5">
         <v>2</v>
@@ -4571,7 +4938,7 @@
         <v>221</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>46</v>
@@ -4591,7 +4958,7 @@
         <v>224</v>
       </c>
       <c r="B45" s="5">
-        <v>3138</v>
+        <v>3082</v>
       </c>
       <c r="C45" s="5">
         <v>2</v>
@@ -4600,7 +4967,7 @@
         <v>225</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>46</v>
@@ -4620,7 +4987,7 @@
         <v>228</v>
       </c>
       <c r="B46" s="5">
-        <v>3140</v>
+        <v>3084</v>
       </c>
       <c r="C46" s="5">
         <v>2</v>
@@ -4629,7 +4996,7 @@
         <v>229</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>46</v>
@@ -4649,7 +5016,7 @@
         <v>232</v>
       </c>
       <c r="B47" s="5">
-        <v>3142</v>
+        <v>3086</v>
       </c>
       <c r="C47" s="5">
         <v>2</v>
@@ -4658,7 +5025,7 @@
         <v>233</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>46</v>
@@ -4678,7 +5045,7 @@
         <v>236</v>
       </c>
       <c r="B48" s="5">
-        <v>3144</v>
+        <v>3088</v>
       </c>
       <c r="C48" s="5">
         <v>2</v>
@@ -4687,7 +5054,7 @@
         <v>237</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>46</v>
@@ -4707,7 +5074,7 @@
         <v>240</v>
       </c>
       <c r="B49" s="5">
-        <v>3146</v>
+        <v>3090</v>
       </c>
       <c r="C49" s="5">
         <v>2</v>
@@ -4716,7 +5083,7 @@
         <v>241</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>46</v>
@@ -4736,7 +5103,7 @@
         <v>244</v>
       </c>
       <c r="B50" s="5">
-        <v>3148</v>
+        <v>3092</v>
       </c>
       <c r="C50" s="5">
         <v>2</v>
@@ -4745,7 +5112,7 @@
         <v>245</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>46</v>
@@ -4765,7 +5132,7 @@
         <v>248</v>
       </c>
       <c r="B51" s="5">
-        <v>3150</v>
+        <v>3094</v>
       </c>
       <c r="C51" s="5">
         <v>2</v>
@@ -4774,7 +5141,7 @@
         <v>249</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>46</v>
@@ -4794,7 +5161,7 @@
         <v>252</v>
       </c>
       <c r="B52" s="5">
-        <v>3152</v>
+        <v>3096</v>
       </c>
       <c r="C52" s="5">
         <v>2</v>
@@ -4803,7 +5170,7 @@
         <v>253</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>46</v>
@@ -4823,7 +5190,7 @@
         <v>256</v>
       </c>
       <c r="B53" s="5">
-        <v>3154</v>
+        <v>3098</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
@@ -4832,7 +5199,7 @@
         <v>257</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>46</v>
@@ -4852,7 +5219,7 @@
         <v>260</v>
       </c>
       <c r="B54" s="5">
-        <v>3156</v>
+        <v>3136</v>
       </c>
       <c r="C54" s="5">
         <v>2</v>
@@ -4861,7 +5228,7 @@
         <v>261</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>46</v>
@@ -4881,7 +5248,7 @@
         <v>264</v>
       </c>
       <c r="B55" s="5">
-        <v>3158</v>
+        <v>3138</v>
       </c>
       <c r="C55" s="5">
         <v>2</v>
@@ -4890,7 +5257,7 @@
         <v>265</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>46</v>
@@ -4910,7 +5277,7 @@
         <v>268</v>
       </c>
       <c r="B56" s="5">
-        <v>3160</v>
+        <v>3140</v>
       </c>
       <c r="C56" s="5">
         <v>2</v>
@@ -4919,7 +5286,7 @@
         <v>269</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>46</v>
@@ -4939,7 +5306,7 @@
         <v>272</v>
       </c>
       <c r="B57" s="5">
-        <v>3162</v>
+        <v>3142</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
@@ -4948,7 +5315,7 @@
         <v>273</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>46</v>
@@ -4968,7 +5335,7 @@
         <v>276</v>
       </c>
       <c r="B58" s="5">
-        <v>3200</v>
+        <v>3144</v>
       </c>
       <c r="C58" s="5">
         <v>2</v>
@@ -4977,7 +5344,7 @@
         <v>277</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>46</v>
@@ -4997,7 +5364,7 @@
         <v>280</v>
       </c>
       <c r="B59" s="5">
-        <v>3202</v>
+        <v>3146</v>
       </c>
       <c r="C59" s="5">
         <v>2</v>
@@ -5006,7 +5373,7 @@
         <v>281</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>46</v>
@@ -5026,7 +5393,7 @@
         <v>284</v>
       </c>
       <c r="B60" s="5">
-        <v>3204</v>
+        <v>3148</v>
       </c>
       <c r="C60" s="5">
         <v>2</v>
@@ -5035,7 +5402,7 @@
         <v>285</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>46</v>
@@ -5055,7 +5422,7 @@
         <v>288</v>
       </c>
       <c r="B61" s="5">
-        <v>3206</v>
+        <v>3150</v>
       </c>
       <c r="C61" s="5">
         <v>2</v>
@@ -5064,7 +5431,7 @@
         <v>289</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>46</v>
@@ -5084,7 +5451,7 @@
         <v>292</v>
       </c>
       <c r="B62" s="5">
-        <v>3208</v>
+        <v>3152</v>
       </c>
       <c r="C62" s="5">
         <v>2</v>
@@ -5093,7 +5460,7 @@
         <v>293</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>46</v>
@@ -5113,7 +5480,7 @@
         <v>296</v>
       </c>
       <c r="B63" s="5">
-        <v>3210</v>
+        <v>3154</v>
       </c>
       <c r="C63" s="5">
         <v>2</v>
@@ -5122,7 +5489,7 @@
         <v>297</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>46</v>
@@ -5142,7 +5509,7 @@
         <v>300</v>
       </c>
       <c r="B64" s="5">
-        <v>3212</v>
+        <v>3156</v>
       </c>
       <c r="C64" s="5">
         <v>2</v>
@@ -5151,7 +5518,7 @@
         <v>301</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>46</v>
@@ -5171,7 +5538,7 @@
         <v>304</v>
       </c>
       <c r="B65" s="5">
-        <v>3214</v>
+        <v>3158</v>
       </c>
       <c r="C65" s="5">
         <v>2</v>
@@ -5180,7 +5547,7 @@
         <v>305</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>46</v>
@@ -5200,7 +5567,7 @@
         <v>308</v>
       </c>
       <c r="B66" s="5">
-        <v>3216</v>
+        <v>3160</v>
       </c>
       <c r="C66" s="5">
         <v>2</v>
@@ -5209,7 +5576,7 @@
         <v>309</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>46</v>
@@ -5229,7 +5596,7 @@
         <v>312</v>
       </c>
       <c r="B67" s="5">
-        <v>3218</v>
+        <v>3162</v>
       </c>
       <c r="C67" s="5">
         <v>2</v>
@@ -5238,7 +5605,7 @@
         <v>313</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>46</v>
@@ -5258,7 +5625,7 @@
         <v>316</v>
       </c>
       <c r="B68" s="5">
-        <v>3220</v>
+        <v>3200</v>
       </c>
       <c r="C68" s="5">
         <v>2</v>
@@ -5267,7 +5634,7 @@
         <v>317</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>46</v>
@@ -5287,7 +5654,7 @@
         <v>320</v>
       </c>
       <c r="B69" s="5">
-        <v>3222</v>
+        <v>3202</v>
       </c>
       <c r="C69" s="5">
         <v>2</v>
@@ -5296,7 +5663,7 @@
         <v>321</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>46</v>
@@ -5316,7 +5683,7 @@
         <v>324</v>
       </c>
       <c r="B70" s="5">
-        <v>3224</v>
+        <v>3204</v>
       </c>
       <c r="C70" s="5">
         <v>2</v>
@@ -5325,7 +5692,7 @@
         <v>325</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>46</v>
@@ -5345,7 +5712,7 @@
         <v>328</v>
       </c>
       <c r="B71" s="5">
-        <v>3226</v>
+        <v>3206</v>
       </c>
       <c r="C71" s="5">
         <v>2</v>
@@ -5354,7 +5721,7 @@
         <v>329</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>46</v>
@@ -5374,7 +5741,7 @@
         <v>332</v>
       </c>
       <c r="B72" s="5">
-        <v>3264</v>
+        <v>3208</v>
       </c>
       <c r="C72" s="5">
         <v>2</v>
@@ -5383,7 +5750,7 @@
         <v>333</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>46</v>
@@ -5403,7 +5770,7 @@
         <v>336</v>
       </c>
       <c r="B73" s="5">
-        <v>3266</v>
+        <v>3210</v>
       </c>
       <c r="C73" s="5">
         <v>2</v>
@@ -5412,7 +5779,7 @@
         <v>337</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>46</v>
@@ -5432,7 +5799,7 @@
         <v>340</v>
       </c>
       <c r="B74" s="5">
-        <v>3268</v>
+        <v>3212</v>
       </c>
       <c r="C74" s="5">
         <v>2</v>
@@ -5441,7 +5808,7 @@
         <v>341</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>46</v>
@@ -5461,7 +5828,7 @@
         <v>344</v>
       </c>
       <c r="B75" s="5">
-        <v>3270</v>
+        <v>3214</v>
       </c>
       <c r="C75" s="5">
         <v>2</v>
@@ -5470,7 +5837,7 @@
         <v>345</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>46</v>
@@ -5490,7 +5857,7 @@
         <v>348</v>
       </c>
       <c r="B76" s="5">
-        <v>3272</v>
+        <v>3216</v>
       </c>
       <c r="C76" s="5">
         <v>2</v>
@@ -5499,7 +5866,7 @@
         <v>349</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>46</v>
@@ -5519,7 +5886,7 @@
         <v>352</v>
       </c>
       <c r="B77" s="5">
-        <v>3274</v>
+        <v>3218</v>
       </c>
       <c r="C77" s="5">
         <v>2</v>
@@ -5528,7 +5895,7 @@
         <v>353</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>46</v>
@@ -5548,7 +5915,7 @@
         <v>356</v>
       </c>
       <c r="B78" s="5">
-        <v>3276</v>
+        <v>3220</v>
       </c>
       <c r="C78" s="5">
         <v>2</v>
@@ -5557,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>46</v>
@@ -5577,7 +5944,7 @@
         <v>360</v>
       </c>
       <c r="B79" s="5">
-        <v>3278</v>
+        <v>3222</v>
       </c>
       <c r="C79" s="5">
         <v>2</v>
@@ -5586,7 +5953,7 @@
         <v>361</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>46</v>
@@ -5606,7 +5973,7 @@
         <v>364</v>
       </c>
       <c r="B80" s="5">
-        <v>3280</v>
+        <v>3224</v>
       </c>
       <c r="C80" s="5">
         <v>2</v>
@@ -5615,7 +5982,7 @@
         <v>365</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>46</v>
@@ -5635,7 +6002,7 @@
         <v>368</v>
       </c>
       <c r="B81" s="5">
-        <v>3282</v>
+        <v>3226</v>
       </c>
       <c r="C81" s="5">
         <v>2</v>
@@ -5644,7 +6011,7 @@
         <v>369</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>46</v>
@@ -5664,7 +6031,7 @@
         <v>372</v>
       </c>
       <c r="B82" s="5">
-        <v>3284</v>
+        <v>3264</v>
       </c>
       <c r="C82" s="5">
         <v>2</v>
@@ -5673,7 +6040,7 @@
         <v>373</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>46</v>
@@ -5693,7 +6060,7 @@
         <v>376</v>
       </c>
       <c r="B83" s="5">
-        <v>3286</v>
+        <v>3266</v>
       </c>
       <c r="C83" s="5">
         <v>2</v>
@@ -5702,7 +6069,7 @@
         <v>377</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>46</v>
@@ -5722,7 +6089,7 @@
         <v>380</v>
       </c>
       <c r="B84" s="5">
-        <v>3288</v>
+        <v>3268</v>
       </c>
       <c r="C84" s="5">
         <v>2</v>
@@ -5731,7 +6098,7 @@
         <v>381</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>46</v>
@@ -5751,7 +6118,7 @@
         <v>384</v>
       </c>
       <c r="B85" s="5">
-        <v>3290</v>
+        <v>3270</v>
       </c>
       <c r="C85" s="5">
         <v>2</v>
@@ -5760,7 +6127,7 @@
         <v>385</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>46</v>
@@ -5780,7 +6147,7 @@
         <v>388</v>
       </c>
       <c r="B86" s="5">
-        <v>3292</v>
+        <v>3272</v>
       </c>
       <c r="C86" s="5">
         <v>2</v>
@@ -5789,7 +6156,7 @@
         <v>389</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>46</v>
@@ -5809,7 +6176,7 @@
         <v>392</v>
       </c>
       <c r="B87" s="5">
-        <v>3328</v>
+        <v>3274</v>
       </c>
       <c r="C87" s="5">
         <v>2</v>
@@ -5818,7 +6185,7 @@
         <v>393</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>46</v>
@@ -5838,7 +6205,7 @@
         <v>396</v>
       </c>
       <c r="B88" s="5">
-        <v>3330</v>
+        <v>3276</v>
       </c>
       <c r="C88" s="5">
         <v>2</v>
@@ -5847,7 +6214,7 @@
         <v>397</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>46</v>
@@ -5867,7 +6234,7 @@
         <v>400</v>
       </c>
       <c r="B89" s="5">
-        <v>3332</v>
+        <v>3278</v>
       </c>
       <c r="C89" s="5">
         <v>2</v>
@@ -5876,7 +6243,7 @@
         <v>401</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>46</v>
@@ -5896,7 +6263,7 @@
         <v>404</v>
       </c>
       <c r="B90" s="5">
-        <v>3334</v>
+        <v>3280</v>
       </c>
       <c r="C90" s="5">
         <v>2</v>
@@ -5905,7 +6272,7 @@
         <v>405</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>46</v>
@@ -5925,7 +6292,7 @@
         <v>408</v>
       </c>
       <c r="B91" s="5">
-        <v>3336</v>
+        <v>3282</v>
       </c>
       <c r="C91" s="5">
         <v>2</v>
@@ -5934,7 +6301,7 @@
         <v>409</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>46</v>
@@ -5954,7 +6321,7 @@
         <v>412</v>
       </c>
       <c r="B92" s="5">
-        <v>3338</v>
+        <v>3284</v>
       </c>
       <c r="C92" s="5">
         <v>2</v>
@@ -5963,7 +6330,7 @@
         <v>413</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>46</v>
@@ -5983,7 +6350,7 @@
         <v>416</v>
       </c>
       <c r="B93" s="5">
-        <v>3340</v>
+        <v>3286</v>
       </c>
       <c r="C93" s="5">
         <v>2</v>
@@ -5992,7 +6359,7 @@
         <v>417</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>46</v>
@@ -6012,7 +6379,7 @@
         <v>420</v>
       </c>
       <c r="B94" s="5">
-        <v>3342</v>
+        <v>3288</v>
       </c>
       <c r="C94" s="5">
         <v>2</v>
@@ -6021,7 +6388,7 @@
         <v>421</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>46</v>
@@ -6041,7 +6408,7 @@
         <v>424</v>
       </c>
       <c r="B95" s="5">
-        <v>3344</v>
+        <v>3290</v>
       </c>
       <c r="C95" s="5">
         <v>2</v>
@@ -6050,7 +6417,7 @@
         <v>425</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>46</v>
@@ -6070,7 +6437,7 @@
         <v>428</v>
       </c>
       <c r="B96" s="5">
-        <v>3346</v>
+        <v>3292</v>
       </c>
       <c r="C96" s="5">
         <v>2</v>
@@ -6079,7 +6446,7 @@
         <v>429</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>46</v>
@@ -6099,7 +6466,7 @@
         <v>432</v>
       </c>
       <c r="B97" s="5">
-        <v>3348</v>
+        <v>3328</v>
       </c>
       <c r="C97" s="5">
         <v>2</v>
@@ -6108,7 +6475,7 @@
         <v>433</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>46</v>
@@ -6128,7 +6495,7 @@
         <v>436</v>
       </c>
       <c r="B98" s="5">
-        <v>3350</v>
+        <v>3330</v>
       </c>
       <c r="C98" s="5">
         <v>2</v>
@@ -6137,7 +6504,7 @@
         <v>437</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>46</v>
@@ -6157,7 +6524,7 @@
         <v>440</v>
       </c>
       <c r="B99" s="5">
-        <v>3352</v>
+        <v>3332</v>
       </c>
       <c r="C99" s="5">
         <v>2</v>
@@ -6166,7 +6533,7 @@
         <v>441</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>46</v>
@@ -6186,7 +6553,7 @@
         <v>444</v>
       </c>
       <c r="B100" s="5">
-        <v>3354</v>
+        <v>3334</v>
       </c>
       <c r="C100" s="5">
         <v>2</v>
@@ -6195,7 +6562,7 @@
         <v>445</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>46</v>
@@ -6215,7 +6582,7 @@
         <v>448</v>
       </c>
       <c r="B101" s="5">
-        <v>3356</v>
+        <v>3336</v>
       </c>
       <c r="C101" s="5">
         <v>2</v>
@@ -6224,7 +6591,7 @@
         <v>449</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>46</v>
@@ -6244,7 +6611,7 @@
         <v>452</v>
       </c>
       <c r="B102" s="5">
-        <v>3392</v>
+        <v>3338</v>
       </c>
       <c r="C102" s="5">
         <v>2</v>
@@ -6253,7 +6620,7 @@
         <v>453</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>46</v>
@@ -6273,7 +6640,7 @@
         <v>456</v>
       </c>
       <c r="B103" s="5">
-        <v>3394</v>
+        <v>3340</v>
       </c>
       <c r="C103" s="5">
         <v>2</v>
@@ -6282,7 +6649,7 @@
         <v>457</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>46</v>
@@ -6302,7 +6669,7 @@
         <v>460</v>
       </c>
       <c r="B104" s="5">
-        <v>3396</v>
+        <v>3342</v>
       </c>
       <c r="C104" s="5">
         <v>2</v>
@@ -6311,7 +6678,7 @@
         <v>461</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>46</v>
@@ -6331,7 +6698,7 @@
         <v>464</v>
       </c>
       <c r="B105" s="5">
-        <v>3398</v>
+        <v>3344</v>
       </c>
       <c r="C105" s="5">
         <v>2</v>
@@ -6340,7 +6707,7 @@
         <v>465</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>46</v>
@@ -6360,7 +6727,7 @@
         <v>468</v>
       </c>
       <c r="B106" s="5">
-        <v>3400</v>
+        <v>3346</v>
       </c>
       <c r="C106" s="5">
         <v>2</v>
@@ -6369,7 +6736,7 @@
         <v>469</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>46</v>
@@ -6389,7 +6756,7 @@
         <v>472</v>
       </c>
       <c r="B107" s="5">
-        <v>3402</v>
+        <v>3348</v>
       </c>
       <c r="C107" s="5">
         <v>2</v>
@@ -6398,7 +6765,7 @@
         <v>473</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>46</v>
@@ -6418,7 +6785,7 @@
         <v>476</v>
       </c>
       <c r="B108" s="5">
-        <v>3404</v>
+        <v>3350</v>
       </c>
       <c r="C108" s="5">
         <v>2</v>
@@ -6427,7 +6794,7 @@
         <v>477</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>46</v>
@@ -6447,7 +6814,7 @@
         <v>480</v>
       </c>
       <c r="B109" s="5">
-        <v>3406</v>
+        <v>3352</v>
       </c>
       <c r="C109" s="5">
         <v>2</v>
@@ -6456,7 +6823,7 @@
         <v>481</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>46</v>
@@ -6476,7 +6843,7 @@
         <v>484</v>
       </c>
       <c r="B110" s="5">
-        <v>3408</v>
+        <v>3354</v>
       </c>
       <c r="C110" s="5">
         <v>2</v>
@@ -6485,7 +6852,7 @@
         <v>485</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>46</v>
@@ -6505,7 +6872,7 @@
         <v>488</v>
       </c>
       <c r="B111" s="5">
-        <v>3410</v>
+        <v>3356</v>
       </c>
       <c r="C111" s="5">
         <v>2</v>
@@ -6514,7 +6881,7 @@
         <v>489</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>46</v>
@@ -6534,7 +6901,7 @@
         <v>492</v>
       </c>
       <c r="B112" s="5">
-        <v>3412</v>
+        <v>3392</v>
       </c>
       <c r="C112" s="5">
         <v>2</v>
@@ -6543,7 +6910,7 @@
         <v>493</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>46</v>
@@ -6563,7 +6930,7 @@
         <v>496</v>
       </c>
       <c r="B113" s="5">
-        <v>3414</v>
+        <v>3394</v>
       </c>
       <c r="C113" s="5">
         <v>2</v>
@@ -6572,7 +6939,7 @@
         <v>497</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>46</v>
@@ -6592,7 +6959,7 @@
         <v>500</v>
       </c>
       <c r="B114" s="5">
-        <v>3416</v>
+        <v>3396</v>
       </c>
       <c r="C114" s="5">
         <v>2</v>
@@ -6601,7 +6968,7 @@
         <v>501</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>46</v>
@@ -6621,7 +6988,7 @@
         <v>504</v>
       </c>
       <c r="B115" s="5">
-        <v>3418</v>
+        <v>3398</v>
       </c>
       <c r="C115" s="5">
         <v>2</v>
@@ -6630,7 +6997,7 @@
         <v>505</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>46</v>
@@ -6650,7 +7017,7 @@
         <v>508</v>
       </c>
       <c r="B116" s="5">
-        <v>3420</v>
+        <v>3400</v>
       </c>
       <c r="C116" s="5">
         <v>2</v>
@@ -6659,7 +7026,7 @@
         <v>509</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>46</v>
@@ -6679,393 +7046,393 @@
         <v>512</v>
       </c>
       <c r="B117" s="5">
-        <v>6943</v>
+        <v>3402</v>
       </c>
       <c r="C117" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>513</v>
       </c>
       <c r="E117" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G117" s="5">
+        <v>100</v>
+      </c>
+      <c r="H117" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G117" s="5">
-        <v>100</v>
-      </c>
-      <c r="H117" s="4" t="s">
+      <c r="I117" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B118" s="5">
+        <v>3404</v>
+      </c>
+      <c r="C118" s="5">
+        <v>2</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B118" s="5">
-        <v>6951</v>
-      </c>
-      <c r="C118" s="5">
-        <v>4</v>
-      </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G118" s="5">
+        <v>100</v>
+      </c>
+      <c r="H118" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="I118" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G118" s="5">
-        <v>100</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B119" s="5">
+        <v>3406</v>
+      </c>
+      <c r="C119" s="5">
+        <v>2</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G119" s="5">
+        <v>100</v>
+      </c>
+      <c r="H119" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B119" s="5">
-        <v>6955</v>
-      </c>
-      <c r="C119" s="5">
-        <v>4</v>
-      </c>
-      <c r="D119" s="4" t="s">
+      <c r="I119" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G119" s="5">
-        <v>100</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B120" s="5">
+        <v>3408</v>
+      </c>
+      <c r="C120" s="5">
+        <v>2</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G120" s="5">
+        <v>100</v>
+      </c>
+      <c r="H120" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B120" s="5">
-        <v>6959</v>
-      </c>
-      <c r="C120" s="5">
-        <v>4</v>
-      </c>
-      <c r="D120" s="4" t="s">
+      <c r="I120" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G120" s="5">
-        <v>100</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B121" s="5">
+        <v>3410</v>
+      </c>
+      <c r="C121" s="5">
+        <v>2</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G121" s="5">
+        <v>100</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="I121" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="B121" s="5">
-        <v>7063</v>
-      </c>
-      <c r="C121" s="5">
-        <v>4</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G121" s="5">
-        <v>100</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B122" s="5">
+        <v>3412</v>
+      </c>
+      <c r="C122" s="5">
+        <v>2</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G122" s="5">
+        <v>100</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="I122" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="B122" s="5">
-        <v>7071</v>
-      </c>
-      <c r="C122" s="5">
-        <v>4</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G122" s="5">
-        <v>100</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B123" s="5">
+        <v>3414</v>
+      </c>
+      <c r="C123" s="5">
+        <v>2</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G123" s="5">
+        <v>100</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="I123" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="B123" s="5">
-        <v>7075</v>
-      </c>
-      <c r="C123" s="5">
-        <v>4</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G123" s="5">
-        <v>100</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B124" s="5">
+        <v>3416</v>
+      </c>
+      <c r="C124" s="5">
+        <v>2</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G124" s="5">
+        <v>100</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="I124" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="B124" s="5">
-        <v>7079</v>
-      </c>
-      <c r="C124" s="5">
-        <v>4</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G124" s="5">
-        <v>100</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B125" s="5">
+        <v>3418</v>
+      </c>
+      <c r="C125" s="5">
+        <v>2</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G125" s="5">
+        <v>100</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="I125" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="B125" s="5">
-        <v>7083</v>
-      </c>
-      <c r="C125" s="5">
-        <v>4</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G125" s="5">
-        <v>100</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B126" s="5">
+        <v>3420</v>
+      </c>
+      <c r="C126" s="5">
+        <v>2</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G126" s="5">
+        <v>100</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="I126" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="B126" s="5">
-        <v>7091</v>
-      </c>
-      <c r="C126" s="5">
-        <v>4</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G126" s="5">
-        <v>100</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B127" s="5">
-        <v>7095</v>
+        <v>6943</v>
       </c>
       <c r="C127" s="5">
         <v>4</v>
       </c>
       <c r="D127" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G127" s="5">
+        <v>100</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="I127" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G127" s="5">
-        <v>100</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B128" s="5">
-        <v>7099</v>
+        <v>6951</v>
       </c>
       <c r="C128" s="5">
         <v>4</v>
       </c>
       <c r="D128" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G128" s="5">
+        <v>100</v>
+      </c>
+      <c r="H128" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G128" s="5">
-        <v>100</v>
-      </c>
-      <c r="H128" s="4" t="s">
+      <c r="I128" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B129" s="5">
-        <v>7103</v>
+        <v>6955</v>
       </c>
       <c r="C129" s="5">
         <v>4</v>
       </c>
       <c r="D129" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G129" s="5">
+        <v>100</v>
+      </c>
+      <c r="H129" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G129" s="5">
-        <v>100</v>
-      </c>
-      <c r="H129" s="4" t="s">
+      <c r="I129" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B130" s="5">
-        <v>7111</v>
+        <v>6959</v>
       </c>
       <c r="C130" s="5">
         <v>4</v>
       </c>
       <c r="D130" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>46</v>
@@ -7085,7 +7452,7 @@
         <v>571</v>
       </c>
       <c r="B131" s="5">
-        <v>7115</v>
+        <v>7063</v>
       </c>
       <c r="C131" s="5">
         <v>4</v>
@@ -7094,7 +7461,7 @@
         <v>572</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>46</v>
@@ -7114,7 +7481,7 @@
         <v>575</v>
       </c>
       <c r="B132" s="5">
-        <v>7119</v>
+        <v>7071</v>
       </c>
       <c r="C132" s="5">
         <v>4</v>
@@ -7123,7 +7490,7 @@
         <v>576</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>46</v>
@@ -7136,6 +7503,1005 @@
       </c>
       <c r="I132" s="4" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B133" s="5">
+        <v>7075</v>
+      </c>
+      <c r="C133" s="5">
+        <v>4</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G133" s="5">
+        <v>100</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B134" s="5">
+        <v>7079</v>
+      </c>
+      <c r="C134" s="5">
+        <v>4</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G134" s="5">
+        <v>100</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B135" s="5">
+        <v>7083</v>
+      </c>
+      <c r="C135" s="5">
+        <v>4</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G135" s="5">
+        <v>100</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B136" s="5">
+        <v>7091</v>
+      </c>
+      <c r="C136" s="5">
+        <v>4</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G136" s="5">
+        <v>100</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B137" s="5">
+        <v>7095</v>
+      </c>
+      <c r="C137" s="5">
+        <v>4</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G137" s="5">
+        <v>100</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B138" s="5">
+        <v>7099</v>
+      </c>
+      <c r="C138" s="5">
+        <v>4</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G138" s="5">
+        <v>100</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B139" s="5">
+        <v>7103</v>
+      </c>
+      <c r="C139" s="5">
+        <v>4</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G139" s="5">
+        <v>100</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B140" s="5">
+        <v>7111</v>
+      </c>
+      <c r="C140" s="5">
+        <v>4</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G140" s="5">
+        <v>100</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B141" s="5">
+        <v>7115</v>
+      </c>
+      <c r="C141" s="5">
+        <v>4</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G141" s="5">
+        <v>100</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B142" s="5">
+        <v>7119</v>
+      </c>
+      <c r="C142" s="5">
+        <v>4</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G142" s="5">
+        <v>100</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B143" s="2">
+        <v>6144</v>
+      </c>
+      <c r="C143" s="2">
+        <v>2</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G143" s="2">
+        <v>1</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B144" s="2">
+        <v>6146</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B145" s="2">
+        <v>6148</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B146" s="2">
+        <v>6150</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B147" s="2">
+        <v>6152</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G147" s="2">
+        <v>1</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B148" s="2">
+        <v>6154</v>
+      </c>
+      <c r="C148" s="2">
+        <v>2</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B149" s="2">
+        <v>6156</v>
+      </c>
+      <c r="C149" s="2">
+        <v>2</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B150" s="2">
+        <v>6158</v>
+      </c>
+      <c r="C150" s="2">
+        <v>2</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B151" s="2">
+        <v>6160</v>
+      </c>
+      <c r="C151" s="2">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B152" s="2">
+        <v>6162</v>
+      </c>
+      <c r="C152" s="2">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B153" s="2">
+        <v>6164</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B154" s="2">
+        <v>6166</v>
+      </c>
+      <c r="C154" s="2">
+        <v>2</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G154" s="2">
+        <v>1</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B155" s="2">
+        <v>6168</v>
+      </c>
+      <c r="C155" s="2">
+        <v>2</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G155" s="2">
+        <v>1</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B156" s="2">
+        <v>6170</v>
+      </c>
+      <c r="C156" s="2">
+        <v>2</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G156" s="2">
+        <v>1</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B157" s="2">
+        <v>6172</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G157" s="2">
+        <v>1</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B158" s="2">
+        <v>13280</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G158" s="2">
+        <v>10</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B159" s="2">
+        <v>13281</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G159" s="2">
+        <v>10</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B160" s="2">
+        <v>13282</v>
+      </c>
+      <c r="C160" s="2">
+        <v>1</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G160" s="2">
+        <v>10</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B161" s="2">
+        <v>13283</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G161" s="2">
+        <v>10</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B162" s="2">
+        <v>13284</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G162" s="2">
+        <v>10</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B163" s="2">
+        <v>13285</v>
+      </c>
+      <c r="C163" s="2">
+        <v>1</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G163" s="2">
+        <v>10</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B164" s="2">
+        <v>13286</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G164" s="2">
+        <v>10</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B165" s="2">
+        <v>14192</v>
+      </c>
+      <c r="C165" s="2">
+        <v>1</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G165" s="2">
+        <v>10</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B166" s="2">
+        <v>14193</v>
+      </c>
+      <c r="C166" s="2">
+        <v>1</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G166" s="2">
+        <v>10</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B167" s="2">
+        <v>14194</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G167" s="2">
+        <v>10</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B168" s="2">
+        <v>14195</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G168" s="2">
+        <v>10</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B169" s="2">
+        <v>14196</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G169" s="2">
+        <v>10</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B170" s="2">
+        <v>14197</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G170" s="2">
+        <v>10</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B171" s="2">
+        <v>14198</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G171" s="2">
+        <v>10</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\collector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ED79DB-7D34-4C87-9809-F496647FCDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD6ACBA-747F-4E34-AB88-06861CE042BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2190,12 +2190,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2261,21 +2268,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2663,7 +2671,7 @@
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2691,7 +2699,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
@@ -2702,7 +2710,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
@@ -2713,7 +2721,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -2724,7 +2732,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
@@ -2735,7 +2743,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -2746,7 +2754,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
@@ -2757,7 +2765,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -2768,7 +2776,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
@@ -2779,7 +2787,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
@@ -2790,7 +2798,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>702</v>
       </c>
       <c r="C11" t="s">
@@ -2801,7 +2809,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -2812,7 +2820,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>703</v>
       </c>
       <c r="C13" t="s">
@@ -2823,7 +2831,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
@@ -2834,7 +2842,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>704</v>
       </c>
       <c r="C15" t="s">
@@ -2845,7 +2853,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
@@ -2856,7 +2864,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
@@ -2867,7 +2875,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
@@ -2878,7 +2886,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
@@ -2889,7 +2897,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
@@ -2900,7 +2908,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C21" t="s">
@@ -3048,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\collector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD6ACBA-747F-4E34-AB88-06861CE042BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38640F0-B1B8-44AC-A361-F1352AC827D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2190,12 +2190,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2268,21 +2275,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2671,7 +2679,7 @@
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2908,7 +2916,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C21" t="s">

--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\project-cali\collector\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38640F0-B1B8-44AC-A361-F1352AC827D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -36,19 +30,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Eros Escobar</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Eros Escobar:</t>
         </r>
@@ -56,7 +50,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 2 = 16 bit
@@ -69,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="706">
   <si>
     <t>Name</t>
   </si>
@@ -143,12 +137,21 @@
     <t>TP_Tablero Paneles</t>
   </si>
   <si>
+    <t>TP_Iluminación Biogás</t>
+  </si>
+  <si>
     <t>TP_Video Wall Smart Grid</t>
   </si>
   <si>
+    <t>TP_Iluminación fotovoltaico</t>
+  </si>
+  <si>
     <t>TP_Video Controller Smart Grid</t>
   </si>
   <si>
+    <t>TP_Iluminación Smartgrid</t>
+  </si>
+  <si>
     <t>TP_Mesa Biogás Fotovoltaico</t>
   </si>
   <si>
@@ -1997,6 +2000,9 @@
     <t>THD</t>
   </si>
   <si>
+    <t>THD-EV</t>
+  </si>
+  <si>
     <t>0x1812</t>
   </si>
   <si>
@@ -2175,22 +2181,19 @@
   </si>
   <si>
     <t>VSH-YEAR</t>
-  </si>
-  <si>
-    <t>TP_Iluminación Biogás</t>
-  </si>
-  <si>
-    <t>TP_Iluminación fotovoltaico</t>
-  </si>
-  <si>
-    <t>TP_Iluminación Smartgrid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2199,17 +2202,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2217,53 +2345,251 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2271,39 +2597,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2561,24 +3172,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="100.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="26.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="100.428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2621,27 +3232,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="E7" s="7"/>
+    <row r="7" spans="5:5">
+      <c r="E7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2658,7 +3271,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2671,28 +3284,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="31.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2703,11 +3318,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
@@ -2718,7 +3333,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
@@ -2729,7 +3344,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -2740,7 +3355,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
@@ -2751,7 +3366,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -2762,7 +3377,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
@@ -2773,7 +3388,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -2784,7 +3399,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
@@ -2795,7 +3410,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
@@ -2806,8 +3421,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>702</v>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2817,8 +3432,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -2828,8 +3443,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>703</v>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -2839,8 +3454,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2850,8 +3465,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>704</v>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -2861,8 +3476,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>26</v>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2872,8 +3487,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>27</v>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -2883,8 +3498,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>28</v>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2894,8 +3509,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>29</v>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -2905,8 +3520,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>30</v>
+      <c r="B20" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -2916,202 +3531,204 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>31</v>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="5"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="5"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="5"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="5"/>
+      <c r="A57" s="6"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="5"/>
+      <c r="A58" s="6"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="5"/>
+      <c r="A59" s="6"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="5"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="5"/>
+      <c r="A61" s="6"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="5"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="5"/>
+      <c r="A63" s="6"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="5"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="5"/>
+      <c r="A65" s="6"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="5"/>
+      <c r="A66" s="6"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="5"/>
+      <c r="A67" s="6"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="5"/>
+      <c r="A68" s="6"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="5"/>
+      <c r="A69" s="6"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="5"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="5"/>
+      <c r="A71" s="6"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="5"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="5"/>
+      <c r="A73" s="6"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="5"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="5"/>
+      <c r="A75" s="6"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="5"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="5"/>
+      <c r="A77" s="6"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="5"/>
+      <c r="A78" s="6"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="5"/>
+      <c r="A79" s="6"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="5"/>
+      <c r="A80" s="6"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="5"/>
+      <c r="A81" s="6"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="5"/>
+      <c r="A82" s="6"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="5"/>
+      <c r="A83" s="6"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="5"/>
+      <c r="A84" s="6"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="5"/>
+      <c r="A85" s="6"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="5"/>
+      <c r="A86" s="6"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="5"/>
+      <c r="A87" s="6"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="5"/>
+      <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="6"/>
+      <c r="A89" s="7"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="6"/>
+      <c r="A90" s="7"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="6"/>
+      <c r="A91" s="7"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="6"/>
+      <c r="A92" s="7"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="6"/>
+      <c r="A93" s="7"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="5"/>
+      <c r="A115" s="6"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="5"/>
+      <c r="A116" s="6"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="5"/>
+      <c r="A117" s="6"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="5"/>
+      <c r="A118" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:I30"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="31.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="12.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
@@ -3120,27 +3737,27 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="4">
         <v>100</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
@@ -3149,27 +3766,27 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4">
         <v>100</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4">
         <v>6</v>
@@ -3178,27 +3795,27 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="4">
         <v>100</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -3207,27 +3824,27 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="4">
         <v>10000</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -3236,27 +3853,27 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="4">
         <v>10000</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B7" s="4">
         <v>12</v>
@@ -3265,27 +3882,27 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G7" s="4">
         <v>10000</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4">
         <v>14</v>
@@ -3294,27 +3911,27 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G8" s="4">
         <v>100</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4">
         <v>16</v>
@@ -3323,27 +3940,27 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G9" s="4">
         <v>100</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4">
         <v>18</v>
@@ -3352,27 +3969,27 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G10" s="4">
         <v>100</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4">
         <v>20</v>
@@ -3381,27 +3998,27 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G11" s="4">
         <v>100000</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B12" s="4">
         <v>22</v>
@@ -3410,27 +4027,27 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G12" s="4">
         <v>100000</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B13" s="4">
         <v>24</v>
@@ -3439,27 +4056,27 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G13" s="4">
         <v>100000</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B14" s="4">
         <v>26</v>
@@ -3468,27 +4085,27 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G14" s="4">
         <v>100000</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B15" s="4">
         <v>28</v>
@@ -3497,27 +4114,27 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G15" s="4">
         <v>100000</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" s="4">
         <v>30</v>
@@ -3526,27 +4143,27 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G16" s="4">
         <v>100000</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B17" s="4">
         <v>32</v>
@@ -3555,27 +4172,27 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G17" s="4">
         <v>100000</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B18" s="4">
         <v>34</v>
@@ -3584,27 +4201,27 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G18" s="4">
         <v>100000</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B19" s="4">
         <v>36</v>
@@ -3613,27 +4230,27 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G19" s="4">
         <v>100000</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B20" s="4">
         <v>38</v>
@@ -3642,24 +4259,24 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G20" s="4">
         <v>10000</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4">
         <v>40</v>
@@ -3668,24 +4285,24 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G21" s="4">
         <v>10000</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B22" s="4">
         <v>42</v>
@@ -3694,24 +4311,24 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G22" s="4">
         <v>10000</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B23" s="4">
         <v>50</v>
@@ -3720,27 +4337,27 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G23" s="4">
         <v>1000</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B24">
         <v>52</v>
@@ -3749,27 +4366,27 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B25">
         <v>54</v>
@@ -3778,27 +4395,27 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G25">
         <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B26">
         <v>56</v>
@@ -3807,27 +4424,27 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G26">
         <v>10000</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B27">
         <v>58</v>
@@ -3836,27 +4453,27 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G27">
         <v>100000</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B28">
         <v>60</v>
@@ -3865,27 +4482,27 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G28">
         <v>100000</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B29">
         <v>62</v>
@@ -3894,27 +4511,27 @@
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G29">
         <v>100000</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B30">
         <v>64</v>
@@ -3923,24 +4540,24 @@
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G30">
         <v>10000</v>
       </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B31">
         <v>66</v>
@@ -3949,27 +4566,27 @@
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G31">
         <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B32">
         <v>68</v>
@@ -3978,27 +4595,27 @@
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B33">
         <v>70</v>
@@ -4007,27 +4624,27 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G33">
         <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B34" s="4">
         <v>84</v>
@@ -4036,27 +4653,27 @@
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G34" s="4">
         <v>100</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B35" s="4">
         <v>86</v>
@@ -4065,27 +4682,27 @@
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G35" s="4">
         <v>100</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B36" s="4">
         <v>88</v>
@@ -4094,27 +4711,27 @@
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G36" s="4">
         <v>100</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B37" s="4">
         <v>90</v>
@@ -4123,27 +4740,27 @@
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G37" s="4">
         <v>100</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B38" s="4">
         <v>92</v>
@@ -4152,27 +4769,27 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G38" s="4">
         <v>100</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B39" s="4">
         <v>94</v>
@@ -4181,27 +4798,27 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G39" s="4">
         <v>100</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B40" s="4">
         <v>3072</v>
@@ -4210,27 +4827,27 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G40" s="4">
         <v>100</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B41" s="4">
         <v>3074</v>
@@ -4239,27 +4856,27 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G41" s="4">
         <v>100</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B42" s="4">
         <v>3076</v>
@@ -4268,27 +4885,27 @@
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G42" s="4">
         <v>100</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B43" s="4">
         <v>3078</v>
@@ -4297,27 +4914,27 @@
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G43" s="4">
         <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B44" s="4">
         <v>3080</v>
@@ -4326,27 +4943,27 @@
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G44" s="4">
         <v>100</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B45" s="4">
         <v>3082</v>
@@ -4355,27 +4972,27 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G45" s="4">
         <v>100</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B46" s="4">
         <v>3084</v>
@@ -4384,27 +5001,27 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G46" s="4">
         <v>100</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B47" s="4">
         <v>3086</v>
@@ -4413,27 +5030,27 @@
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G47" s="4">
         <v>100</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B48" s="4">
         <v>3088</v>
@@ -4442,27 +5059,27 @@
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G48" s="4">
         <v>100</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B49" s="4">
         <v>3090</v>
@@ -4471,27 +5088,27 @@
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G49" s="4">
         <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B50" s="4">
         <v>3092</v>
@@ -4500,27 +5117,27 @@
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G50" s="4">
         <v>100</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B51" s="4">
         <v>3094</v>
@@ -4529,27 +5146,27 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G51" s="4">
         <v>100</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B52" s="4">
         <v>3096</v>
@@ -4558,27 +5175,27 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G52" s="4">
         <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B53" s="4">
         <v>3098</v>
@@ -4587,27 +5204,27 @@
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G53" s="4">
         <v>100</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B54" s="4">
         <v>3136</v>
@@ -4616,27 +5233,27 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G54" s="4">
         <v>100</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B55" s="4">
         <v>3138</v>
@@ -4645,27 +5262,27 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G55" s="4">
         <v>100</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B56" s="4">
         <v>3140</v>
@@ -4674,27 +5291,27 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G56" s="4">
         <v>100</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B57" s="4">
         <v>3142</v>
@@ -4703,27 +5320,27 @@
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G57" s="4">
         <v>100</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B58" s="4">
         <v>3144</v>
@@ -4732,27 +5349,27 @@
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G58" s="4">
         <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B59" s="4">
         <v>3146</v>
@@ -4761,27 +5378,27 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G59" s="4">
         <v>100</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B60" s="4">
         <v>3148</v>
@@ -4790,27 +5407,27 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G60" s="4">
         <v>100</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B61" s="4">
         <v>3150</v>
@@ -4819,27 +5436,27 @@
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G61" s="4">
         <v>100</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B62" s="4">
         <v>3152</v>
@@ -4848,27 +5465,27 @@
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G62" s="4">
         <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B63" s="4">
         <v>3154</v>
@@ -4877,27 +5494,27 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G63" s="4">
         <v>100</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B64" s="4">
         <v>3156</v>
@@ -4906,27 +5523,27 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G64" s="4">
         <v>100</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B65" s="4">
         <v>3158</v>
@@ -4935,27 +5552,27 @@
         <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G65" s="4">
         <v>100</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B66" s="4">
         <v>3160</v>
@@ -4964,27 +5581,27 @@
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G66" s="4">
         <v>100</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B67" s="4">
         <v>3162</v>
@@ -4993,27 +5610,27 @@
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G67" s="4">
         <v>100</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B68" s="4">
         <v>3200</v>
@@ -5022,27 +5639,27 @@
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G68" s="4">
         <v>100</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B69" s="4">
         <v>3202</v>
@@ -5051,27 +5668,27 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G69" s="4">
         <v>100</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B70" s="4">
         <v>3204</v>
@@ -5080,27 +5697,27 @@
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G70" s="4">
         <v>100</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B71" s="4">
         <v>3206</v>
@@ -5109,27 +5726,27 @@
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G71" s="4">
         <v>100</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B72" s="4">
         <v>3208</v>
@@ -5138,27 +5755,27 @@
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G72" s="4">
         <v>100</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B73" s="4">
         <v>3210</v>
@@ -5167,27 +5784,27 @@
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G73" s="4">
         <v>100</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B74" s="4">
         <v>3212</v>
@@ -5196,27 +5813,27 @@
         <v>2</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G74" s="4">
         <v>100</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B75" s="4">
         <v>3214</v>
@@ -5225,27 +5842,27 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G75" s="4">
         <v>100</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B76" s="4">
         <v>3216</v>
@@ -5254,27 +5871,27 @@
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G76" s="4">
         <v>100</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B77" s="4">
         <v>3218</v>
@@ -5283,27 +5900,27 @@
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G77" s="4">
         <v>100</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B78" s="4">
         <v>3220</v>
@@ -5312,27 +5929,27 @@
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G78" s="4">
         <v>100</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B79" s="4">
         <v>3222</v>
@@ -5341,27 +5958,27 @@
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G79" s="4">
         <v>100</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B80" s="4">
         <v>3224</v>
@@ -5370,27 +5987,27 @@
         <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G80" s="4">
         <v>100</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B81" s="4">
         <v>3226</v>
@@ -5399,27 +6016,27 @@
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G81" s="4">
         <v>100</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B82" s="4">
         <v>3264</v>
@@ -5428,27 +6045,27 @@
         <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G82" s="4">
         <v>100</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B83" s="4">
         <v>3266</v>
@@ -5457,27 +6074,27 @@
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G83" s="4">
         <v>100</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B84" s="4">
         <v>3268</v>
@@ -5486,27 +6103,27 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G84" s="4">
         <v>100</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B85" s="4">
         <v>3270</v>
@@ -5515,27 +6132,27 @@
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G85" s="4">
         <v>100</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B86" s="4">
         <v>3272</v>
@@ -5544,27 +6161,27 @@
         <v>2</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G86" s="4">
         <v>100</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B87" s="4">
         <v>3274</v>
@@ -5573,27 +6190,27 @@
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G87" s="4">
         <v>100</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B88" s="4">
         <v>3276</v>
@@ -5602,27 +6219,27 @@
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G88" s="4">
         <v>100</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B89" s="4">
         <v>3278</v>
@@ -5631,27 +6248,27 @@
         <v>2</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G89" s="4">
         <v>100</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B90" s="4">
         <v>3280</v>
@@ -5660,27 +6277,27 @@
         <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G90" s="4">
         <v>100</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B91" s="4">
         <v>3282</v>
@@ -5689,27 +6306,27 @@
         <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G91" s="4">
         <v>100</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B92" s="4">
         <v>3284</v>
@@ -5718,27 +6335,27 @@
         <v>2</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G92" s="4">
         <v>100</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B93" s="4">
         <v>3286</v>
@@ -5747,27 +6364,27 @@
         <v>2</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G93" s="4">
         <v>100</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B94" s="4">
         <v>3288</v>
@@ -5776,27 +6393,27 @@
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G94" s="4">
         <v>100</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B95" s="4">
         <v>3290</v>
@@ -5805,27 +6422,27 @@
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G95" s="4">
         <v>100</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B96" s="4">
         <v>3292</v>
@@ -5834,27 +6451,27 @@
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G96" s="4">
         <v>100</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B97" s="4">
         <v>3328</v>
@@ -5863,27 +6480,27 @@
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G97" s="4">
         <v>100</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B98" s="4">
         <v>3330</v>
@@ -5892,27 +6509,27 @@
         <v>2</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G98" s="4">
         <v>100</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B99" s="4">
         <v>3332</v>
@@ -5921,27 +6538,27 @@
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G99" s="4">
         <v>100</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B100" s="4">
         <v>3334</v>
@@ -5950,27 +6567,27 @@
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G100" s="4">
         <v>100</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B101" s="4">
         <v>3336</v>
@@ -5979,27 +6596,27 @@
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G101" s="4">
         <v>100</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B102" s="4">
         <v>3338</v>
@@ -6008,27 +6625,27 @@
         <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G102" s="4">
         <v>100</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B103" s="4">
         <v>3340</v>
@@ -6037,27 +6654,27 @@
         <v>2</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G103" s="4">
         <v>100</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B104" s="4">
         <v>3342</v>
@@ -6066,27 +6683,27 @@
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G104" s="4">
         <v>100</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B105" s="4">
         <v>3344</v>
@@ -6095,27 +6712,27 @@
         <v>2</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G105" s="4">
         <v>100</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B106" s="4">
         <v>3346</v>
@@ -6124,27 +6741,27 @@
         <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G106" s="4">
         <v>100</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B107" s="4">
         <v>3348</v>
@@ -6153,27 +6770,27 @@
         <v>2</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G107" s="4">
         <v>100</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B108" s="4">
         <v>3350</v>
@@ -6182,27 +6799,27 @@
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G108" s="4">
         <v>100</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B109" s="4">
         <v>3352</v>
@@ -6211,27 +6828,27 @@
         <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G109" s="4">
         <v>100</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B110" s="4">
         <v>3354</v>
@@ -6240,27 +6857,27 @@
         <v>2</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G110" s="4">
         <v>100</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B111" s="4">
         <v>3356</v>
@@ -6269,27 +6886,27 @@
         <v>2</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G111" s="4">
         <v>100</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B112" s="4">
         <v>3392</v>
@@ -6298,27 +6915,27 @@
         <v>2</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G112" s="4">
         <v>100</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B113" s="4">
         <v>3394</v>
@@ -6327,27 +6944,27 @@
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G113" s="4">
         <v>100</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B114" s="4">
         <v>3396</v>
@@ -6356,27 +6973,27 @@
         <v>2</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G114" s="4">
         <v>100</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B115" s="4">
         <v>3398</v>
@@ -6385,27 +7002,27 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G115" s="4">
         <v>100</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B116" s="4">
         <v>3400</v>
@@ -6414,27 +7031,27 @@
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G116" s="4">
         <v>100</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B117" s="4">
         <v>3402</v>
@@ -6443,27 +7060,27 @@
         <v>2</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G117" s="4">
         <v>100</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B118" s="4">
         <v>3404</v>
@@ -6472,27 +7089,27 @@
         <v>2</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G118" s="4">
         <v>100</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B119" s="4">
         <v>3406</v>
@@ -6501,27 +7118,27 @@
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G119" s="4">
         <v>100</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B120" s="4">
         <v>3408</v>
@@ -6530,27 +7147,27 @@
         <v>2</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G120" s="4">
         <v>100</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B121" s="4">
         <v>3410</v>
@@ -6559,27 +7176,27 @@
         <v>2</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G121" s="4">
         <v>100</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="3" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B122" s="4">
         <v>3412</v>
@@ -6588,27 +7205,27 @@
         <v>2</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G122" s="4">
         <v>100</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B123" s="4">
         <v>3414</v>
@@ -6617,27 +7234,27 @@
         <v>2</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G123" s="4">
         <v>100</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="3" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B124" s="4">
         <v>3416</v>
@@ -6646,27 +7263,27 @@
         <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G124" s="4">
         <v>100</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B125" s="4">
         <v>3418</v>
@@ -6675,27 +7292,27 @@
         <v>2</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G125" s="4">
         <v>100</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B126" s="4">
         <v>3420</v>
@@ -6704,27 +7321,27 @@
         <v>2</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G126" s="4">
         <v>100</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="3" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B127" s="4">
         <v>6943</v>
@@ -6733,27 +7350,27 @@
         <v>4</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G127" s="4">
         <v>100</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B128" s="4">
         <v>6951</v>
@@ -6762,27 +7379,27 @@
         <v>4</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G128" s="4">
         <v>100</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B129" s="4">
         <v>6955</v>
@@ -6791,27 +7408,27 @@
         <v>4</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G129" s="4">
         <v>100</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="3" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B130" s="4">
         <v>6959</v>
@@ -6820,27 +7437,27 @@
         <v>4</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G130" s="4">
         <v>100</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="3" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B131" s="4">
         <v>7063</v>
@@ -6849,27 +7466,27 @@
         <v>4</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G131" s="4">
         <v>100</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B132" s="4">
         <v>7071</v>
@@ -6878,27 +7495,27 @@
         <v>4</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G132" s="4">
         <v>100</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="3" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B133" s="4">
         <v>7075</v>
@@ -6907,27 +7524,27 @@
         <v>4</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G133" s="4">
         <v>100</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="3" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B134" s="4">
         <v>7079</v>
@@ -6936,27 +7553,27 @@
         <v>4</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G134" s="4">
         <v>100</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B135" s="4">
         <v>7083</v>
@@ -6965,27 +7582,27 @@
         <v>4</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G135" s="4">
         <v>100</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B136" s="4">
         <v>7091</v>
@@ -6994,27 +7611,27 @@
         <v>4</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G136" s="4">
         <v>100</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="3" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B137" s="4">
         <v>7095</v>
@@ -7023,27 +7640,27 @@
         <v>4</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G137" s="4">
         <v>100</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B138" s="4">
         <v>7099</v>
@@ -7052,27 +7669,27 @@
         <v>4</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G138" s="4">
         <v>100</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B139" s="4">
         <v>7103</v>
@@ -7081,27 +7698,27 @@
         <v>4</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G139" s="4">
         <v>100</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B140" s="4">
         <v>7111</v>
@@ -7110,27 +7727,27 @@
         <v>4</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G140" s="4">
         <v>100</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B141" s="4">
         <v>7115</v>
@@ -7139,27 +7756,27 @@
         <v>4</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G141" s="4">
         <v>100</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="3" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B142" s="4">
         <v>7119</v>
@@ -7168,27 +7785,27 @@
         <v>4</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G142" s="4">
         <v>100</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B143">
         <v>6144</v>
@@ -7197,21 +7814,21 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B144">
         <v>6146</v>
@@ -7220,21 +7837,21 @@
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G144">
         <v>1000</v>
       </c>
       <c r="I144" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B145">
         <v>6148</v>
@@ -7243,21 +7860,21 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G145">
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B146">
         <v>6150</v>
@@ -7266,21 +7883,21 @@
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G146">
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B147">
         <v>6152</v>
@@ -7289,21 +7906,21 @@
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B148">
         <v>6154</v>
@@ -7312,21 +7929,21 @@
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B149">
         <v>6156</v>
@@ -7335,21 +7952,21 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B150">
         <v>6158</v>
@@ -7358,21 +7975,21 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B151">
         <v>6160</v>
@@ -7381,21 +7998,21 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G151">
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B152">
         <v>6162</v>
@@ -7404,21 +8021,21 @@
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G152">
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B153">
         <v>6164</v>
@@ -7427,21 +8044,21 @@
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B154">
         <v>6166</v>
@@ -7450,21 +8067,21 @@
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G154">
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B155">
         <v>6168</v>
@@ -7473,21 +8090,21 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B156">
         <v>6170</v>
@@ -7496,21 +8113,21 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B157">
         <v>6172</v>
@@ -7519,21 +8136,21 @@
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B158">
         <v>13280</v>
@@ -7542,24 +8159,24 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E158" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G158">
         <v>10</v>
       </c>
       <c r="I158" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B159">
         <v>13281</v>
@@ -7568,24 +8185,24 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E159" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G159">
         <v>10</v>
       </c>
       <c r="I159" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B160">
         <v>13282</v>
@@ -7594,24 +8211,24 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E160" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G160">
         <v>10</v>
       </c>
       <c r="I160" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B161">
         <v>13283</v>
@@ -7620,24 +8237,24 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E161" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G161">
         <v>10</v>
       </c>
       <c r="I161" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B162">
         <v>13284</v>
@@ -7646,24 +8263,24 @@
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E162" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G162">
         <v>10</v>
       </c>
       <c r="I162" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B163">
         <v>13285</v>
@@ -7672,24 +8289,24 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E163" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G163">
         <v>10</v>
       </c>
       <c r="I163" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B164">
         <v>13286</v>
@@ -7698,24 +8315,24 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E164" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G164">
         <v>10</v>
       </c>
       <c r="I164" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B165">
         <v>14192</v>
@@ -7724,24 +8341,24 @@
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="E165" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G165">
         <v>10</v>
       </c>
       <c r="I165" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B166">
         <v>14193</v>
@@ -7750,24 +8367,24 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E166" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G166">
         <v>10</v>
       </c>
       <c r="I166" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B167">
         <v>14194</v>
@@ -7776,24 +8393,24 @@
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="E167" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G167">
         <v>10</v>
       </c>
       <c r="I167" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B168">
         <v>14195</v>
@@ -7802,24 +8419,24 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="E168" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G168">
         <v>10</v>
       </c>
       <c r="I168" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B169">
         <v>14196</v>
@@ -7828,24 +8445,24 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E169" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G169">
         <v>10</v>
       </c>
       <c r="I169" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B170">
         <v>14197</v>
@@ -7854,24 +8471,24 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E170" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G170">
         <v>10</v>
       </c>
       <c r="I170" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B171">
         <v>14198</v>
@@ -7880,24 +8497,25 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="E171" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G171">
         <v>10</v>
       </c>
       <c r="I171" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -116,10 +116,10 @@
     <t>TP_Sistema PBM</t>
   </si>
   <si>
-    <t>TP_Analizador Biogás</t>
-  </si>
-  <si>
-    <t>TP_Planta de Biogás</t>
+    <t>TP_Analizador Biogas</t>
+  </si>
+  <si>
+    <t>TP_Planta de Biogas</t>
   </si>
   <si>
     <t>TP_Tunel de viento - Potencia</t>
@@ -137,28 +137,28 @@
     <t>TP_Tablero Paneles</t>
   </si>
   <si>
-    <t>TP_Iluminación Biogás</t>
+    <t>TP_Iluminacion Biogas</t>
   </si>
   <si>
     <t>TP_Video Wall Smart Grid</t>
   </si>
   <si>
-    <t>TP_Iluminación fotovoltaico</t>
+    <t>TP_Iluminacion fotovoltaico</t>
   </si>
   <si>
     <t>TP_Video Controller Smart Grid</t>
   </si>
   <si>
-    <t>TP_Iluminación Smartgrid</t>
-  </si>
-  <si>
-    <t>TP_Mesa Biogás Fotovoltaico</t>
-  </si>
-  <si>
-    <t>TP_Nevera Biogás</t>
-  </si>
-  <si>
-    <t>TP_Mesón Sala Biogás</t>
+    <t>TP_Iluminacion Smartgrid</t>
+  </si>
+  <si>
+    <t>TP_Mesa Biogas Fotovoltaico</t>
+  </si>
+  <si>
+    <t>TP_Nevera Biogas</t>
+  </si>
+  <si>
+    <t>TP_Meson Sala Biogas</t>
   </si>
   <si>
     <t>TP_Tunel de viento - control</t>
@@ -2193,7 +2193,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2220,13 +2220,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2395,12 +2388,42 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2713,13 +2736,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2728,122 +2754,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2852,13 +2875,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3233,7 +3274,7 @@
       </c>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="8"/>
+      <c r="E7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3293,8 +3334,8 @@
   <sheetPr/>
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -3322,7 +3363,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
@@ -3333,7 +3374,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
@@ -3344,7 +3385,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -3355,7 +3396,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
@@ -3366,7 +3407,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -3377,7 +3418,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
@@ -3388,7 +3429,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -3399,7 +3440,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
@@ -3410,7 +3451,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
@@ -3421,7 +3462,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
@@ -3432,7 +3473,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
@@ -3443,7 +3484,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
@@ -3454,7 +3495,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
@@ -3465,7 +3506,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
@@ -3476,7 +3517,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
@@ -3487,7 +3528,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
@@ -3498,7 +3539,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
@@ -3509,7 +3550,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
@@ -3520,7 +3561,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C20" t="s">
@@ -3531,7 +3572,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
@@ -3539,136 +3580,136 @@
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="6"/>
+      <c r="A54" s="14"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="6"/>
+      <c r="A55" s="14"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="6"/>
+      <c r="A56" s="14"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="6"/>
+      <c r="A57" s="14"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="6"/>
+      <c r="A58" s="14"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="6"/>
+      <c r="A59" s="14"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="6"/>
+      <c r="A60" s="14"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="6"/>
+      <c r="A61" s="14"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="6"/>
+      <c r="A62" s="14"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="6"/>
+      <c r="A63" s="14"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="6"/>
+      <c r="A64" s="14"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="6"/>
+      <c r="A65" s="14"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="6"/>
+      <c r="A66" s="14"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="6"/>
+      <c r="A67" s="14"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="6"/>
+      <c r="A68" s="14"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="6"/>
+      <c r="A69" s="14"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="6"/>
+      <c r="A70" s="14"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="6"/>
+      <c r="A71" s="14"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="6"/>
+      <c r="A72" s="14"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="6"/>
+      <c r="A73" s="14"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="6"/>
+      <c r="A74" s="14"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="6"/>
+      <c r="A75" s="14"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="6"/>
+      <c r="A76" s="14"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="6"/>
+      <c r="A77" s="14"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="6"/>
+      <c r="A78" s="14"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="6"/>
+      <c r="A79" s="14"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="6"/>
+      <c r="A80" s="14"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="6"/>
+      <c r="A81" s="14"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="6"/>
+      <c r="A82" s="14"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="6"/>
+      <c r="A83" s="14"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="6"/>
+      <c r="A84" s="14"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="6"/>
+      <c r="A85" s="14"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="6"/>
+      <c r="A86" s="14"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="6"/>
+      <c r="A87" s="14"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="6"/>
+      <c r="A88" s="14"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="7"/>
+      <c r="A89" s="15"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="7"/>
+      <c r="A90" s="15"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="7"/>
+      <c r="A91" s="15"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="7"/>
+      <c r="A92" s="15"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="7"/>
+      <c r="A93" s="15"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="6"/>
+      <c r="A115" s="14"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="6"/>
+      <c r="A116" s="14"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="6"/>
+      <c r="A117" s="14"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="6"/>
+      <c r="A118" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3681,8 +3722,8 @@
   <sheetPr/>
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="I153" sqref="I153"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3733,7 +3774,7 @@
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3745,7 +3786,7 @@
       <c r="F2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>100</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -3762,7 +3803,7 @@
       <c r="B3" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3774,7 +3815,7 @@
       <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>100</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -3791,7 +3832,7 @@
       <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -3803,7 +3844,7 @@
       <c r="F4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>100</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -3820,7 +3861,7 @@
       <c r="B5" s="4">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3832,7 +3873,7 @@
       <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>10000</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -3849,7 +3890,7 @@
       <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -3861,7 +3902,7 @@
       <c r="F6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>10000</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -3878,7 +3919,7 @@
       <c r="B7" s="4">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -3890,7 +3931,7 @@
       <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>10000</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -3907,7 +3948,7 @@
       <c r="B8" s="4">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -3919,7 +3960,7 @@
       <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>100</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -3936,7 +3977,7 @@
       <c r="B9" s="4">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -3948,7 +3989,7 @@
       <c r="F9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>100</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -3965,7 +4006,7 @@
       <c r="B10" s="4">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3977,7 +4018,7 @@
       <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>100</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -3994,7 +4035,7 @@
       <c r="B11" s="4">
         <v>20</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -4006,7 +4047,7 @@
       <c r="F11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>100000</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -4023,7 +4064,7 @@
       <c r="B12" s="4">
         <v>22</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -4035,7 +4076,7 @@
       <c r="F12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>100000</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -4052,7 +4093,7 @@
       <c r="B13" s="4">
         <v>24</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -4064,7 +4105,7 @@
       <c r="F13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>100000</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -4081,7 +4122,7 @@
       <c r="B14" s="4">
         <v>26</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -4093,7 +4134,7 @@
       <c r="F14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>100000</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -4110,7 +4151,7 @@
       <c r="B15" s="4">
         <v>28</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -4122,7 +4163,7 @@
       <c r="F15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>100000</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -4139,7 +4180,7 @@
       <c r="B16" s="4">
         <v>30</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -4151,7 +4192,7 @@
       <c r="F16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>100000</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -4168,7 +4209,7 @@
       <c r="B17" s="4">
         <v>32</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -4180,7 +4221,7 @@
       <c r="F17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>100000</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -4197,7 +4238,7 @@
       <c r="B18" s="4">
         <v>34</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -4209,7 +4250,7 @@
       <c r="F18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>100000</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -4226,7 +4267,7 @@
       <c r="B19" s="4">
         <v>36</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -4238,7 +4279,7 @@
       <c r="F19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>100000</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -4255,7 +4296,7 @@
       <c r="B20" s="4">
         <v>38</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -4264,7 +4305,7 @@
       <c r="F20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>10000</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -4281,7 +4322,7 @@
       <c r="B21" s="4">
         <v>40</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -4290,7 +4331,7 @@
       <c r="F21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>10000</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -4307,7 +4348,7 @@
       <c r="B22" s="4">
         <v>42</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -4316,7 +4357,7 @@
       <c r="F22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>10000</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -4330,10 +4371,10 @@
       <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>50</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -4345,7 +4386,7 @@
       <c r="F23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>1000</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -4359,10 +4400,10 @@
       <c r="A24" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>52</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -4388,10 +4429,10 @@
       <c r="A25" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>54</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -4417,10 +4458,10 @@
       <c r="A26" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>56</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -4446,10 +4487,10 @@
       <c r="A27" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>58</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -4475,10 +4516,10 @@
       <c r="A28" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>60</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -4504,10 +4545,10 @@
       <c r="A29" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>62</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -4533,10 +4574,10 @@
       <c r="A30" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>64</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -4559,10 +4600,10 @@
       <c r="A31" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>66</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -4588,10 +4629,10 @@
       <c r="A32" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>68</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -4617,10 +4658,10 @@
       <c r="A33" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>70</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -4646,10 +4687,10 @@
       <c r="A34" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="8">
         <v>84</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -4661,7 +4702,7 @@
       <c r="F34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>100</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -4675,10 +4716,10 @@
       <c r="A35" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="8">
         <v>86</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -4690,7 +4731,7 @@
       <c r="F35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>100</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -4704,10 +4745,10 @@
       <c r="A36" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="8">
         <v>88</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -4719,7 +4760,7 @@
       <c r="F36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <v>100</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -4733,10 +4774,10 @@
       <c r="A37" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="8">
         <v>90</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -4748,7 +4789,7 @@
       <c r="F37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>100</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -4762,10 +4803,10 @@
       <c r="A38" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="8">
         <v>92</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -4777,7 +4818,7 @@
       <c r="F38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <v>100</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -4791,10 +4832,10 @@
       <c r="A39" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="8">
         <v>94</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="5">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -4806,7 +4847,7 @@
       <c r="F39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>100</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -4820,10 +4861,10 @@
       <c r="A40" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="9">
         <v>3072</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="5">
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -4835,7 +4876,7 @@
       <c r="F40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="5">
         <v>100</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -4849,10 +4890,10 @@
       <c r="A41" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="9">
         <v>3074</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="5">
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -4864,7 +4905,7 @@
       <c r="F41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <v>100</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -4878,10 +4919,10 @@
       <c r="A42" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="9">
         <v>3076</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="5">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -4893,7 +4934,7 @@
       <c r="F42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <v>100</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -4907,10 +4948,10 @@
       <c r="A43" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="9">
         <v>3078</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="5">
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -4922,7 +4963,7 @@
       <c r="F43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -4936,10 +4977,10 @@
       <c r="A44" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="9">
         <v>3080</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="5">
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -4951,7 +4992,7 @@
       <c r="F44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="5">
         <v>100</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -4965,10 +5006,10 @@
       <c r="A45" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="9">
         <v>3082</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="5">
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -4980,7 +5021,7 @@
       <c r="F45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="5">
         <v>100</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -4994,10 +5035,10 @@
       <c r="A46" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="9">
         <v>3084</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="5">
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -5009,7 +5050,7 @@
       <c r="F46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="5">
         <v>100</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -5023,10 +5064,10 @@
       <c r="A47" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="9">
         <v>3086</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="5">
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -5038,7 +5079,7 @@
       <c r="F47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="5">
         <v>100</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -5052,10 +5093,10 @@
       <c r="A48" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="9">
         <v>3088</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="5">
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -5067,7 +5108,7 @@
       <c r="F48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="5">
         <v>100</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -5081,10 +5122,10 @@
       <c r="A49" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="9">
         <v>3090</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="5">
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -5096,7 +5137,7 @@
       <c r="F49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="5">
         <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -5110,10 +5151,10 @@
       <c r="A50" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="9">
         <v>3092</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="5">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -5125,7 +5166,7 @@
       <c r="F50" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="5">
         <v>100</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -5139,10 +5180,10 @@
       <c r="A51" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="9">
         <v>3094</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="5">
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -5154,7 +5195,7 @@
       <c r="F51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="5">
         <v>100</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -5168,10 +5209,10 @@
       <c r="A52" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="9">
         <v>3096</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="5">
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -5183,7 +5224,7 @@
       <c r="F52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="5">
         <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -5197,10 +5238,10 @@
       <c r="A53" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="9">
         <v>3098</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="5">
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -5212,7 +5253,7 @@
       <c r="F53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="5">
         <v>100</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -5226,10 +5267,10 @@
       <c r="A54" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="10">
         <v>3136</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="5">
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -5241,7 +5282,7 @@
       <c r="F54" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="5">
         <v>100</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -5255,10 +5296,10 @@
       <c r="A55" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="10">
         <v>3138</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="5">
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -5270,7 +5311,7 @@
       <c r="F55" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="5">
         <v>100</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -5284,10 +5325,10 @@
       <c r="A56" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="10">
         <v>3140</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="5">
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -5299,7 +5340,7 @@
       <c r="F56" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="5">
         <v>100</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -5313,10 +5354,10 @@
       <c r="A57" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="10">
         <v>3142</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="5">
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -5328,7 +5369,7 @@
       <c r="F57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="5">
         <v>100</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -5342,10 +5383,10 @@
       <c r="A58" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="10">
         <v>3144</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="5">
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -5357,7 +5398,7 @@
       <c r="F58" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="5">
         <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -5371,10 +5412,10 @@
       <c r="A59" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="10">
         <v>3146</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="5">
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -5386,7 +5427,7 @@
       <c r="F59" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="5">
         <v>100</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -5400,10 +5441,10 @@
       <c r="A60" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="10">
         <v>3148</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="5">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -5415,7 +5456,7 @@
       <c r="F60" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="5">
         <v>100</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -5429,10 +5470,10 @@
       <c r="A61" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="10">
         <v>3150</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="5">
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -5444,7 +5485,7 @@
       <c r="F61" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="5">
         <v>100</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -5458,10 +5499,10 @@
       <c r="A62" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="10">
         <v>3152</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="5">
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -5473,7 +5514,7 @@
       <c r="F62" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="5">
         <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -5487,10 +5528,10 @@
       <c r="A63" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="10">
         <v>3154</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="5">
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -5502,7 +5543,7 @@
       <c r="F63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="5">
         <v>100</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -5516,10 +5557,10 @@
       <c r="A64" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="10">
         <v>3156</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="5">
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -5531,7 +5572,7 @@
       <c r="F64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="5">
         <v>100</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -5545,10 +5586,10 @@
       <c r="A65" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="10">
         <v>3158</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="5">
         <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -5560,7 +5601,7 @@
       <c r="F65" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="5">
         <v>100</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -5574,10 +5615,10 @@
       <c r="A66" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="10">
         <v>3160</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="5">
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -5589,7 +5630,7 @@
       <c r="F66" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="5">
         <v>100</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -5603,10 +5644,10 @@
       <c r="A67" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="10">
         <v>3162</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="5">
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -5618,7 +5659,7 @@
       <c r="F67" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="5">
         <v>100</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -5635,7 +5676,7 @@
       <c r="B68" s="4">
         <v>3200</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="5">
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -5647,7 +5688,7 @@
       <c r="F68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="5">
         <v>100</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -5664,7 +5705,7 @@
       <c r="B69" s="4">
         <v>3202</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="5">
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -5676,7 +5717,7 @@
       <c r="F69" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="5">
         <v>100</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -5693,7 +5734,7 @@
       <c r="B70" s="4">
         <v>3204</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="5">
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -5705,7 +5746,7 @@
       <c r="F70" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="5">
         <v>100</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -5722,7 +5763,7 @@
       <c r="B71" s="4">
         <v>3206</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="5">
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -5734,7 +5775,7 @@
       <c r="F71" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="5">
         <v>100</v>
       </c>
       <c r="H71" s="3" t="s">
@@ -5751,7 +5792,7 @@
       <c r="B72" s="4">
         <v>3208</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="5">
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -5763,7 +5804,7 @@
       <c r="F72" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="5">
         <v>100</v>
       </c>
       <c r="H72" s="3" t="s">
@@ -5780,7 +5821,7 @@
       <c r="B73" s="4">
         <v>3210</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="5">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -5792,7 +5833,7 @@
       <c r="F73" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="5">
         <v>100</v>
       </c>
       <c r="H73" s="3" t="s">
@@ -5809,7 +5850,7 @@
       <c r="B74" s="4">
         <v>3212</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="5">
         <v>2</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -5821,7 +5862,7 @@
       <c r="F74" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="5">
         <v>100</v>
       </c>
       <c r="H74" s="3" t="s">
@@ -5838,7 +5879,7 @@
       <c r="B75" s="4">
         <v>3214</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="5">
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -5850,7 +5891,7 @@
       <c r="F75" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="5">
         <v>100</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -5867,7 +5908,7 @@
       <c r="B76" s="4">
         <v>3216</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="5">
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -5879,7 +5920,7 @@
       <c r="F76" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="5">
         <v>100</v>
       </c>
       <c r="H76" s="3" t="s">
@@ -5896,7 +5937,7 @@
       <c r="B77" s="4">
         <v>3218</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="5">
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -5908,7 +5949,7 @@
       <c r="F77" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="5">
         <v>100</v>
       </c>
       <c r="H77" s="3" t="s">
@@ -5925,7 +5966,7 @@
       <c r="B78" s="4">
         <v>3220</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="5">
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -5937,7 +5978,7 @@
       <c r="F78" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="5">
         <v>100</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -5954,7 +5995,7 @@
       <c r="B79" s="4">
         <v>3222</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="5">
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -5966,7 +6007,7 @@
       <c r="F79" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="5">
         <v>100</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -5983,7 +6024,7 @@
       <c r="B80" s="4">
         <v>3224</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="5">
         <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -5995,7 +6036,7 @@
       <c r="F80" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="5">
         <v>100</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -6012,7 +6053,7 @@
       <c r="B81" s="4">
         <v>3226</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="5">
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -6024,7 +6065,7 @@
       <c r="F81" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="5">
         <v>100</v>
       </c>
       <c r="H81" s="3" t="s">
@@ -6038,10 +6079,10 @@
       <c r="A82" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="6">
         <v>3264</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="5">
         <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -6053,7 +6094,7 @@
       <c r="F82" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="5">
         <v>100</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -6067,10 +6108,10 @@
       <c r="A83" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="6">
         <v>3266</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="5">
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -6082,7 +6123,7 @@
       <c r="F83" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="5">
         <v>100</v>
       </c>
       <c r="H83" s="3" t="s">
@@ -6096,10 +6137,10 @@
       <c r="A84" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="6">
         <v>3268</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="5">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -6111,7 +6152,7 @@
       <c r="F84" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="5">
         <v>100</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -6125,10 +6166,10 @@
       <c r="A85" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="6">
         <v>3270</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="5">
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -6140,7 +6181,7 @@
       <c r="F85" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="5">
         <v>100</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -6154,10 +6195,10 @@
       <c r="A86" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="6">
         <v>3272</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="5">
         <v>2</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -6169,7 +6210,7 @@
       <c r="F86" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="5">
         <v>100</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -6183,10 +6224,10 @@
       <c r="A87" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="6">
         <v>3274</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="5">
         <v>2</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -6198,7 +6239,7 @@
       <c r="F87" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="5">
         <v>100</v>
       </c>
       <c r="H87" s="3" t="s">
@@ -6212,10 +6253,10 @@
       <c r="A88" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="6">
         <v>3276</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="5">
         <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -6227,7 +6268,7 @@
       <c r="F88" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="5">
         <v>100</v>
       </c>
       <c r="H88" s="3" t="s">
@@ -6241,10 +6282,10 @@
       <c r="A89" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="6">
         <v>3278</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="5">
         <v>2</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -6256,7 +6297,7 @@
       <c r="F89" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="5">
         <v>100</v>
       </c>
       <c r="H89" s="3" t="s">
@@ -6270,10 +6311,10 @@
       <c r="A90" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="6">
         <v>3280</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="5">
         <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -6285,7 +6326,7 @@
       <c r="F90" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="5">
         <v>100</v>
       </c>
       <c r="H90" s="3" t="s">
@@ -6299,10 +6340,10 @@
       <c r="A91" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="6">
         <v>3282</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="5">
         <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -6314,7 +6355,7 @@
       <c r="F91" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="5">
         <v>100</v>
       </c>
       <c r="H91" s="3" t="s">
@@ -6328,10 +6369,10 @@
       <c r="A92" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="6">
         <v>3284</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="5">
         <v>2</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -6343,7 +6384,7 @@
       <c r="F92" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="5">
         <v>100</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -6357,10 +6398,10 @@
       <c r="A93" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="6">
         <v>3286</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="5">
         <v>2</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -6372,7 +6413,7 @@
       <c r="F93" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="5">
         <v>100</v>
       </c>
       <c r="H93" s="3" t="s">
@@ -6386,10 +6427,10 @@
       <c r="A94" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="6">
         <v>3288</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="5">
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -6401,7 +6442,7 @@
       <c r="F94" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="5">
         <v>100</v>
       </c>
       <c r="H94" s="3" t="s">
@@ -6415,10 +6456,10 @@
       <c r="A95" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="6">
         <v>3290</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="5">
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -6430,7 +6471,7 @@
       <c r="F95" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="5">
         <v>100</v>
       </c>
       <c r="H95" s="3" t="s">
@@ -6444,10 +6485,10 @@
       <c r="A96" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="6">
         <v>3292</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="5">
         <v>2</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -6459,7 +6500,7 @@
       <c r="F96" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="5">
         <v>100</v>
       </c>
       <c r="H96" s="3" t="s">
@@ -6473,10 +6514,10 @@
       <c r="A97" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="8">
         <v>3328</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="5">
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -6488,7 +6529,7 @@
       <c r="F97" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="5">
         <v>100</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -6502,10 +6543,10 @@
       <c r="A98" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="8">
         <v>3330</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="5">
         <v>2</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -6517,7 +6558,7 @@
       <c r="F98" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="5">
         <v>100</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -6531,10 +6572,10 @@
       <c r="A99" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="8">
         <v>3332</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="5">
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -6546,7 +6587,7 @@
       <c r="F99" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="5">
         <v>100</v>
       </c>
       <c r="H99" s="3" t="s">
@@ -6560,10 +6601,10 @@
       <c r="A100" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="8">
         <v>3334</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="5">
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -6575,7 +6616,7 @@
       <c r="F100" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="5">
         <v>100</v>
       </c>
       <c r="H100" s="3" t="s">
@@ -6589,10 +6630,10 @@
       <c r="A101" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="8">
         <v>3336</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="5">
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -6604,7 +6645,7 @@
       <c r="F101" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="5">
         <v>100</v>
       </c>
       <c r="H101" s="3" t="s">
@@ -6618,10 +6659,10 @@
       <c r="A102" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="8">
         <v>3338</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="5">
         <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -6633,7 +6674,7 @@
       <c r="F102" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="5">
         <v>100</v>
       </c>
       <c r="H102" s="3" t="s">
@@ -6647,10 +6688,10 @@
       <c r="A103" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="8">
         <v>3340</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="5">
         <v>2</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -6662,7 +6703,7 @@
       <c r="F103" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="5">
         <v>100</v>
       </c>
       <c r="H103" s="3" t="s">
@@ -6676,10 +6717,10 @@
       <c r="A104" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="8">
         <v>3342</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="5">
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -6691,7 +6732,7 @@
       <c r="F104" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="5">
         <v>100</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -6705,10 +6746,10 @@
       <c r="A105" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="8">
         <v>3344</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="5">
         <v>2</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -6720,7 +6761,7 @@
       <c r="F105" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="5">
         <v>100</v>
       </c>
       <c r="H105" s="3" t="s">
@@ -6734,10 +6775,10 @@
       <c r="A106" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="8">
         <v>3346</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="5">
         <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -6749,7 +6790,7 @@
       <c r="F106" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="5">
         <v>100</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -6763,10 +6804,10 @@
       <c r="A107" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="8">
         <v>3348</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="5">
         <v>2</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -6778,7 +6819,7 @@
       <c r="F107" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="5">
         <v>100</v>
       </c>
       <c r="H107" s="3" t="s">
@@ -6792,10 +6833,10 @@
       <c r="A108" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="8">
         <v>3350</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="5">
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -6807,7 +6848,7 @@
       <c r="F108" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="5">
         <v>100</v>
       </c>
       <c r="H108" s="3" t="s">
@@ -6821,10 +6862,10 @@
       <c r="A109" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="8">
         <v>3352</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="5">
         <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -6836,7 +6877,7 @@
       <c r="F109" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="5">
         <v>100</v>
       </c>
       <c r="H109" s="3" t="s">
@@ -6850,10 +6891,10 @@
       <c r="A110" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="8">
         <v>3354</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="5">
         <v>2</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -6865,7 +6906,7 @@
       <c r="F110" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="5">
         <v>100</v>
       </c>
       <c r="H110" s="3" t="s">
@@ -6879,10 +6920,10 @@
       <c r="A111" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="8">
         <v>3356</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="5">
         <v>2</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -6894,7 +6935,7 @@
       <c r="F111" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="5">
         <v>100</v>
       </c>
       <c r="H111" s="3" t="s">
@@ -6908,10 +6949,10 @@
       <c r="A112" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="9">
         <v>3392</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="5">
         <v>2</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -6923,7 +6964,7 @@
       <c r="F112" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="5">
         <v>100</v>
       </c>
       <c r="H112" s="3" t="s">
@@ -6937,10 +6978,10 @@
       <c r="A113" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="9">
         <v>3394</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="5">
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -6952,7 +6993,7 @@
       <c r="F113" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="5">
         <v>100</v>
       </c>
       <c r="H113" s="3" t="s">
@@ -6966,10 +7007,10 @@
       <c r="A114" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="9">
         <v>3396</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="5">
         <v>2</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -6981,7 +7022,7 @@
       <c r="F114" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="5">
         <v>100</v>
       </c>
       <c r="H114" s="3" t="s">
@@ -6995,10 +7036,10 @@
       <c r="A115" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="9">
         <v>3398</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="5">
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -7010,7 +7051,7 @@
       <c r="F115" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="5">
         <v>100</v>
       </c>
       <c r="H115" s="3" t="s">
@@ -7024,10 +7065,10 @@
       <c r="A116" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="9">
         <v>3400</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="5">
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -7039,7 +7080,7 @@
       <c r="F116" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="5">
         <v>100</v>
       </c>
       <c r="H116" s="3" t="s">
@@ -7053,10 +7094,10 @@
       <c r="A117" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="9">
         <v>3402</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="5">
         <v>2</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -7068,7 +7109,7 @@
       <c r="F117" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="5">
         <v>100</v>
       </c>
       <c r="H117" s="3" t="s">
@@ -7082,10 +7123,10 @@
       <c r="A118" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="9">
         <v>3404</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="5">
         <v>2</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -7097,7 +7138,7 @@
       <c r="F118" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="5">
         <v>100</v>
       </c>
       <c r="H118" s="3" t="s">
@@ -7111,10 +7152,10 @@
       <c r="A119" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="9">
         <v>3406</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="5">
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -7126,7 +7167,7 @@
       <c r="F119" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="5">
         <v>100</v>
       </c>
       <c r="H119" s="3" t="s">
@@ -7140,10 +7181,10 @@
       <c r="A120" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="9">
         <v>3408</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="5">
         <v>2</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -7155,7 +7196,7 @@
       <c r="F120" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="5">
         <v>100</v>
       </c>
       <c r="H120" s="3" t="s">
@@ -7169,10 +7210,10 @@
       <c r="A121" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="9">
         <v>3410</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="5">
         <v>2</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -7184,7 +7225,7 @@
       <c r="F121" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="5">
         <v>100</v>
       </c>
       <c r="H121" s="3" t="s">
@@ -7198,10 +7239,10 @@
       <c r="A122" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="9">
         <v>3412</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="5">
         <v>2</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -7213,7 +7254,7 @@
       <c r="F122" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="5">
         <v>100</v>
       </c>
       <c r="H122" s="3" t="s">
@@ -7227,10 +7268,10 @@
       <c r="A123" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="9">
         <v>3414</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="5">
         <v>2</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -7242,7 +7283,7 @@
       <c r="F123" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="5">
         <v>100</v>
       </c>
       <c r="H123" s="3" t="s">
@@ -7256,10 +7297,10 @@
       <c r="A124" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="9">
         <v>3416</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="5">
         <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -7271,7 +7312,7 @@
       <c r="F124" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="5">
         <v>100</v>
       </c>
       <c r="H124" s="3" t="s">
@@ -7285,10 +7326,10 @@
       <c r="A125" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="9">
         <v>3418</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="5">
         <v>2</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -7300,7 +7341,7 @@
       <c r="F125" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125" s="5">
         <v>100</v>
       </c>
       <c r="H125" s="3" t="s">
@@ -7314,10 +7355,10 @@
       <c r="A126" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="9">
         <v>3420</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="5">
         <v>2</v>
       </c>
       <c r="D126" s="3" t="s">
@@ -7329,7 +7370,7 @@
       <c r="F126" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="5">
         <v>100</v>
       </c>
       <c r="H126" s="3" t="s">
@@ -7343,10 +7384,10 @@
       <c r="A127" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="10">
         <v>6943</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="5">
         <v>4</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -7358,7 +7399,7 @@
       <c r="F127" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="5">
         <v>100</v>
       </c>
       <c r="H127" s="3" t="s">
@@ -7372,10 +7413,10 @@
       <c r="A128" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="10">
         <v>6951</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="5">
         <v>4</v>
       </c>
       <c r="D128" s="3" t="s">
@@ -7387,7 +7428,7 @@
       <c r="F128" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="5">
         <v>100</v>
       </c>
       <c r="H128" s="3" t="s">
@@ -7401,10 +7442,10 @@
       <c r="A129" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="10">
         <v>6955</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="5">
         <v>4</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -7416,7 +7457,7 @@
       <c r="F129" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="5">
         <v>100</v>
       </c>
       <c r="H129" s="3" t="s">
@@ -7430,10 +7471,10 @@
       <c r="A130" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="10">
         <v>6959</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="5">
         <v>4</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -7445,7 +7486,7 @@
       <c r="F130" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130" s="5">
         <v>100</v>
       </c>
       <c r="H130" s="3" t="s">
@@ -7459,10 +7500,10 @@
       <c r="A131" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="10">
         <v>7063</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="5">
         <v>4</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -7474,7 +7515,7 @@
       <c r="F131" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="5">
         <v>100</v>
       </c>
       <c r="H131" s="3" t="s">
@@ -7488,10 +7529,10 @@
       <c r="A132" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="10">
         <v>7071</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="5">
         <v>4</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -7503,7 +7544,7 @@
       <c r="F132" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="5">
         <v>100</v>
       </c>
       <c r="H132" s="3" t="s">
@@ -7517,10 +7558,10 @@
       <c r="A133" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="10">
         <v>7075</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="5">
         <v>4</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -7532,7 +7573,7 @@
       <c r="F133" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="5">
         <v>100</v>
       </c>
       <c r="H133" s="3" t="s">
@@ -7546,10 +7587,10 @@
       <c r="A134" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="10">
         <v>7079</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="5">
         <v>4</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -7561,7 +7602,7 @@
       <c r="F134" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="5">
         <v>100</v>
       </c>
       <c r="H134" s="3" t="s">
@@ -7575,10 +7616,10 @@
       <c r="A135" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="10">
         <v>7083</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="5">
         <v>4</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -7590,7 +7631,7 @@
       <c r="F135" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="5">
         <v>100</v>
       </c>
       <c r="H135" s="3" t="s">
@@ -7604,10 +7645,10 @@
       <c r="A136" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="10">
         <v>7091</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="5">
         <v>4</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -7619,7 +7660,7 @@
       <c r="F136" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="5">
         <v>100</v>
       </c>
       <c r="H136" s="3" t="s">
@@ -7633,10 +7674,10 @@
       <c r="A137" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="10">
         <v>7095</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="5">
         <v>4</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -7648,7 +7689,7 @@
       <c r="F137" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="5">
         <v>100</v>
       </c>
       <c r="H137" s="3" t="s">
@@ -7662,10 +7703,10 @@
       <c r="A138" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="10">
         <v>7099</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="5">
         <v>4</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -7677,7 +7718,7 @@
       <c r="F138" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="5">
         <v>100</v>
       </c>
       <c r="H138" s="3" t="s">
@@ -7691,10 +7732,10 @@
       <c r="A139" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="10">
         <v>7103</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="5">
         <v>4</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -7706,7 +7747,7 @@
       <c r="F139" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="5">
         <v>100</v>
       </c>
       <c r="H139" s="3" t="s">
@@ -7720,10 +7761,10 @@
       <c r="A140" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="10">
         <v>7111</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="5">
         <v>4</v>
       </c>
       <c r="D140" s="3" t="s">
@@ -7735,7 +7776,7 @@
       <c r="F140" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="5">
         <v>100</v>
       </c>
       <c r="H140" s="3" t="s">
@@ -7749,10 +7790,10 @@
       <c r="A141" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="10">
         <v>7115</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="5">
         <v>4</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -7764,7 +7805,7 @@
       <c r="F141" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="5">
         <v>100</v>
       </c>
       <c r="H141" s="3" t="s">
@@ -7778,10 +7819,10 @@
       <c r="A142" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="10">
         <v>7119</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="5">
         <v>4</v>
       </c>
       <c r="D142" s="3" t="s">
@@ -7793,7 +7834,7 @@
       <c r="F142" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="5">
         <v>100</v>
       </c>
       <c r="H142" s="3" t="s">
@@ -7807,7 +7848,7 @@
       <c r="A143" t="s">
         <v>619</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="11">
         <v>6144</v>
       </c>
       <c r="C143">
@@ -7830,7 +7871,7 @@
       <c r="A144" t="s">
         <v>622</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="11">
         <v>6146</v>
       </c>
       <c r="C144">
@@ -7853,7 +7894,7 @@
       <c r="A145" t="s">
         <v>625</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="11">
         <v>6148</v>
       </c>
       <c r="C145">
@@ -7876,7 +7917,7 @@
       <c r="A146" t="s">
         <v>628</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="11">
         <v>6150</v>
       </c>
       <c r="C146">
@@ -7899,7 +7940,7 @@
       <c r="A147" t="s">
         <v>631</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="11">
         <v>6152</v>
       </c>
       <c r="C147">
@@ -7922,7 +7963,7 @@
       <c r="A148" t="s">
         <v>634</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="11">
         <v>6154</v>
       </c>
       <c r="C148">
@@ -7945,7 +7986,7 @@
       <c r="A149" t="s">
         <v>637</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="11">
         <v>6156</v>
       </c>
       <c r="C149">
@@ -7968,7 +8009,7 @@
       <c r="A150" t="s">
         <v>640</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="11">
         <v>6158</v>
       </c>
       <c r="C150">
@@ -7991,7 +8032,7 @@
       <c r="A151" t="s">
         <v>643</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="11">
         <v>6160</v>
       </c>
       <c r="C151">
@@ -8014,7 +8055,7 @@
       <c r="A152" t="s">
         <v>646</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="11">
         <v>6162</v>
       </c>
       <c r="C152">
@@ -8037,7 +8078,7 @@
       <c r="A153" t="s">
         <v>649</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="11">
         <v>6164</v>
       </c>
       <c r="C153">
@@ -8060,7 +8101,7 @@
       <c r="A154" t="s">
         <v>652</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="11">
         <v>6166</v>
       </c>
       <c r="C154">
@@ -8083,7 +8124,7 @@
       <c r="A155" t="s">
         <v>655</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="11">
         <v>6168</v>
       </c>
       <c r="C155">
@@ -8106,7 +8147,7 @@
       <c r="A156" t="s">
         <v>658</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="11">
         <v>6170</v>
       </c>
       <c r="C156">
@@ -8129,7 +8170,7 @@
       <c r="A157" t="s">
         <v>661</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="11">
         <v>6172</v>
       </c>
       <c r="C157">
@@ -8152,7 +8193,7 @@
       <c r="A158" t="s">
         <v>664</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="7">
         <v>13280</v>
       </c>
       <c r="C158">
@@ -8178,7 +8219,7 @@
       <c r="A159" t="s">
         <v>667</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="7">
         <v>13281</v>
       </c>
       <c r="C159">
@@ -8204,7 +8245,7 @@
       <c r="A160" t="s">
         <v>670</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="7">
         <v>13282</v>
       </c>
       <c r="C160">
@@ -8230,7 +8271,7 @@
       <c r="A161" t="s">
         <v>673</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="7">
         <v>13283</v>
       </c>
       <c r="C161">
@@ -8256,7 +8297,7 @@
       <c r="A162" t="s">
         <v>676</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="7">
         <v>13284</v>
       </c>
       <c r="C162">
@@ -8282,7 +8323,7 @@
       <c r="A163" t="s">
         <v>679</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="7">
         <v>13285</v>
       </c>
       <c r="C163">
@@ -8308,7 +8349,7 @@
       <c r="A164" t="s">
         <v>682</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="7">
         <v>13286</v>
       </c>
       <c r="C164">
@@ -8334,7 +8375,7 @@
       <c r="A165" t="s">
         <v>685</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="12">
         <v>14192</v>
       </c>
       <c r="C165">
@@ -8360,7 +8401,7 @@
       <c r="A166" t="s">
         <v>688</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="12">
         <v>14193</v>
       </c>
       <c r="C166">
@@ -8386,7 +8427,7 @@
       <c r="A167" t="s">
         <v>691</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="12">
         <v>14194</v>
       </c>
       <c r="C167">
@@ -8412,7 +8453,7 @@
       <c r="A168" t="s">
         <v>694</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="12">
         <v>14195</v>
       </c>
       <c r="C168">
@@ -8438,7 +8479,7 @@
       <c r="A169" t="s">
         <v>697</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="12">
         <v>14196</v>
       </c>
       <c r="C169">
@@ -8464,7 +8505,7 @@
       <c r="A170" t="s">
         <v>700</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="12">
         <v>14197</v>
       </c>
       <c r="C170">
@@ -8490,7 +8531,7 @@
       <c r="A171" t="s">
         <v>703</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="12">
         <v>14198</v>
       </c>
       <c r="C171">

--- a/collector/Registros_Modbus.xlsx
+++ b/collector/Registros_Modbus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConexionDB" sheetId="4" r:id="rId1"/>
@@ -2078,37 +2078,37 @@
     <t>0x33E2</t>
   </si>
   <si>
+    <t>Voltage asymmetry (Weekly)</t>
+  </si>
+  <si>
+    <t>VAS-WEEK</t>
+  </si>
+  <si>
+    <t>0x33E3</t>
+  </si>
+  <si>
+    <t>Overfrequency (Weekly)</t>
+  </si>
+  <si>
+    <t>OF-WEEK</t>
+  </si>
+  <si>
+    <t>0x33E4</t>
+  </si>
+  <si>
+    <t>Underfrequency (Weekly)</t>
+  </si>
+  <si>
+    <t>UF-WEEK</t>
+  </si>
+  <si>
+    <t>0x33E5</t>
+  </si>
+  <si>
     <t>Voltage THD (Weekly)</t>
   </si>
   <si>
     <t>VTHD-WEEK</t>
-  </si>
-  <si>
-    <t>0x33E3</t>
-  </si>
-  <si>
-    <t>Voltage asymmetry (Weekly)</t>
-  </si>
-  <si>
-    <t>VAS-WEEK</t>
-  </si>
-  <si>
-    <t>0x33E4</t>
-  </si>
-  <si>
-    <t>Overfrequency (Weekly)</t>
-  </si>
-  <si>
-    <t>OF-WEEK</t>
-  </si>
-  <si>
-    <t>0x33E5</t>
-  </si>
-  <si>
-    <t>Underfrequency (Weekly)</t>
-  </si>
-  <si>
-    <t>UF-WEEK</t>
   </si>
   <si>
     <t>0x33E6</t>
@@ -3722,14 +3722,15 @@
   <sheetPr/>
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="11.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="31.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="12.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
@@ -7881,10 +7882,10 @@
         <v>623</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G144">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I144" t="s">
         <v>624</v>
